--- a/bin/appoverview.xlsx
+++ b/bin/appoverview.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11400" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -2689,7 +2689,6 @@
         <color theme="1"/>
         <rFont val="Lucida Sans"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t>CRM/ISU / Cronacle</t>
     </r>
@@ -4425,7 +4424,6 @@
       <color theme="1"/>
       <name val="Lucida Sans"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -26681,7 +26679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D49" sqref="D49:D54"/>
     </sheetView>
   </sheetViews>
@@ -28831,11 +28829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/bin/appoverview.xlsx
+++ b/bin/appoverview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="10240" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applications!$A$1:$Q$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Interfaces!$A$1:$P$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">KPN_input!$A$1:$AP$320</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Servers!$A$1:$W$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Servers!$A$1:$W$88</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10024" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9975" uniqueCount="1655">
   <si>
     <t>Storage</t>
   </si>
@@ -4902,12 +4902,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>QLIKVIEW OTA Frontend</t>
-  </si>
-  <si>
-    <t>non existing</t>
-  </si>
-  <si>
     <t>RMS S-V</t>
   </si>
   <si>
@@ -4993,9 +4987,6 @@
   </si>
   <si>
     <t>RAC</t>
-  </si>
-  <si>
-    <t>new server</t>
   </si>
   <si>
     <t>Database/Application/Webserver</t>
@@ -5384,7 +5375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="835">
+  <cellStyleXfs count="837">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6220,8 +6211,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -6375,7 +6368,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6394,9 +6387,8 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="835">
+  <cellStyles count="837">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -7024,6 +7016,8 @@
     <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="833" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -7316,8 +7310,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR46" totalsRowShown="0">
-  <autoFilter ref="A1:AR46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AR45" totalsRowShown="0">
+  <autoFilter ref="A1:AR45"/>
   <tableColumns count="44">
     <tableColumn id="1" name="OLD - Application Name"/>
     <tableColumn id="2" name="NEW - Application Name"/>
@@ -8767,7 +8761,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>77</v>
@@ -8793,10 +8787,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W89"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8838,7 +8832,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1427</v>
@@ -8847,13 +8841,13 @@
         <v>1426</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>76</v>
@@ -8871,10 +8865,10 @@
         <v>81</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>82</v>
@@ -8895,7 +8889,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1">
+    <row r="2" spans="1:23">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -8945,7 +8939,7 @@
         <v>1-1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1">
+    <row r="3" spans="1:23">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -8995,7 +8989,7 @@
         <v>1-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1">
+    <row r="4" spans="1:23">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -9045,7 +9039,7 @@
         <v>1-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1">
+    <row r="5" spans="1:23">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -9060,7 +9054,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F5" s="1">
         <f>IF(H5&lt;&gt;"Shared",VLOOKUP(O5,DiscoSheet!C:P,13,0),VLOOKUP(O5,KPN_input!F:W,17,0)*VLOOKUP(O5,KPN_input!F:W,18,0))</f>
@@ -9088,7 +9082,7 @@
         <v>85</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>1488</v>
@@ -9101,7 +9095,7 @@
         <v>1-4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1">
+    <row r="6" spans="1:23">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -9116,7 +9110,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F6" s="1">
         <f>IF(H6&lt;&gt;"Shared",VLOOKUP(O6,DiscoSheet!C:P,13,0),VLOOKUP(O6,KPN_input!F:W,17,0)*VLOOKUP(O6,KPN_input!F:W,18,0))</f>
@@ -9143,8 +9137,8 @@
       <c r="O6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
       <c r="R6" s="1" t="s">
         <v>84</v>
       </c>
@@ -9153,7 +9147,7 @@
         <v>1-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1">
+    <row r="7" spans="1:23">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -9168,7 +9162,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F7" s="1">
         <f>IF(H7&lt;&gt;"Shared",VLOOKUP(O7,DiscoSheet!C:P,13,0),VLOOKUP(O7,KPN_input!F:W,17,0)*VLOOKUP(O7,KPN_input!F:W,18,0))</f>
@@ -9195,8 +9189,8 @@
       <c r="O7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
       <c r="R7" s="1" t="s">
         <v>84</v>
       </c>
@@ -9205,7 +9199,7 @@
         <v>1-6</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1">
+    <row r="8" spans="1:23">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -9248,7 +9242,7 @@
         <v>97</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>1488</v>
@@ -9261,7 +9255,7 @@
         <v>2-7</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1">
+    <row r="9" spans="1:23">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -9311,7 +9305,7 @@
         <v>2-8</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1">
+    <row r="10" spans="1:23">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -9354,10 +9348,10 @@
         <v>101</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>29</v>
@@ -9367,7 +9361,7 @@
         <v>3-9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1">
+    <row r="11" spans="1:23">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -9419,7 +9413,7 @@
         <v>4-10</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1">
+    <row r="12" spans="1:23">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -9469,7 +9463,7 @@
         <v>4-11</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1">
+    <row r="13" spans="1:23">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -9519,7 +9513,7 @@
         <v>6-12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1">
+    <row r="14" spans="1:23">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -9569,7 +9563,7 @@
         <v>6-13</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1">
+    <row r="15" spans="1:23">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -9619,7 +9613,7 @@
         <v>10-14</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1">
+    <row r="16" spans="1:23">
       <c r="A16" s="12">
         <v>55</v>
       </c>
@@ -9648,13 +9642,13 @@
         <v>77</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>1641</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>1644</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>29</v>
@@ -9664,7 +9658,7 @@
         <v>10-55</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1">
+    <row r="17" spans="1:23">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -9706,11 +9700,11 @@
       <c r="O17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="78" t="s">
-        <v>1653</v>
+      <c r="P17" s="71" t="s">
+        <v>1650</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>65</v>
@@ -9720,7 +9714,7 @@
         <v>11-15</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1">
+    <row r="18" spans="1:23">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -9770,7 +9764,7 @@
         <v>13-16</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1">
+    <row r="19" spans="1:23">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -9820,7 +9814,7 @@
         <v>13-17</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1">
+    <row r="20" spans="1:23">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -9870,7 +9864,7 @@
         <v>14-18</v>
       </c>
     </row>
-    <row r="21" spans="1:23" hidden="1">
+    <row r="21" spans="1:23">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -9920,7 +9914,7 @@
         <v>14-19</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1">
+    <row r="22" spans="1:23">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -9973,7 +9967,7 @@
         <v>14-20</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1">
+    <row r="23" spans="1:23">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -10023,7 +10017,7 @@
         <v>15-21</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1">
+    <row r="24" spans="1:23">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -10073,7 +10067,7 @@
         <v>20-22</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1">
+    <row r="25" spans="1:23">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -10123,7 +10117,7 @@
         <v>25-23</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1">
+    <row r="26" spans="1:23">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -10182,7 +10176,7 @@
         <v>26-24</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1">
+    <row r="27" spans="1:23">
       <c r="A27" s="12">
         <v>55</v>
       </c>
@@ -10220,10 +10214,10 @@
         <v>77</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="78"/>
+        <v>1638</v>
+      </c>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
       <c r="R27" s="1" t="s">
         <v>29</v>
       </c>
@@ -10232,7 +10226,7 @@
         <v>26-55</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1">
+    <row r="28" spans="1:23">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -10282,7 +10276,7 @@
         <v>28-25</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1">
+    <row r="29" spans="1:23">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -11202,9 +11196,9 @@
         <v>987</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>1646</v>
-      </c>
-      <c r="Q50" s="78" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q50" s="71" t="s">
         <v>1488</v>
       </c>
       <c r="R50" s="1" t="s">
@@ -11497,7 +11491,7 @@
         <v>77</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
@@ -11506,7 +11500,7 @@
         <v>36-54</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1">
+    <row r="58" spans="1:23">
       <c r="A58" s="12">
         <v>100</v>
       </c>
@@ -11552,7 +11546,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1">
+    <row r="59" spans="1:23">
       <c r="A59" s="12">
         <v>101</v>
       </c>
@@ -11598,7 +11592,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1">
+    <row r="60" spans="1:23">
       <c r="A60" s="12">
         <v>102</v>
       </c>
@@ -11644,7 +11638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:23" hidden="1">
+    <row r="61" spans="1:23">
       <c r="A61" s="12">
         <v>103</v>
       </c>
@@ -11659,7 +11653,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F61" s="1">
         <f>IF(H61&lt;&gt;"Shared",VLOOKUP(O61,DiscoSheet!C:P,13,0),VLOOKUP(O61,KPN_input!F:W,17,0)*VLOOKUP(O61,KPN_input!F:W,18,0))</f>
@@ -11682,7 +11676,7 @@
         <v>853</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>1492</v>
@@ -11691,7 +11685,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:23" hidden="1">
+    <row r="62" spans="1:23">
       <c r="A62" s="12">
         <v>104</v>
       </c>
@@ -11706,7 +11700,7 @@
         <v>9</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F62" s="1">
         <f>IF(H62&lt;&gt;"Shared",VLOOKUP(O62,DiscoSheet!C:P,13,0),VLOOKUP(O62,KPN_input!F:W,17,0)*VLOOKUP(O62,KPN_input!F:W,18,0))</f>
@@ -11728,13 +11722,13 @@
       <c r="O62" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="78"/>
+      <c r="P62" s="71"/>
+      <c r="Q62" s="71"/>
       <c r="R62" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:23" hidden="1">
+    <row r="63" spans="1:23">
       <c r="A63" s="12">
         <v>105</v>
       </c>
@@ -11749,7 +11743,7 @@
         <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="F63" s="1">
         <f>IF(H63&lt;&gt;"Shared",VLOOKUP(O63,DiscoSheet!C:P,13,0),VLOOKUP(O63,KPN_input!F:W,17,0)*VLOOKUP(O63,KPN_input!F:W,18,0))</f>
@@ -11771,13 +11765,13 @@
       <c r="O63" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="78"/>
+      <c r="P63" s="71"/>
+      <c r="Q63" s="71"/>
       <c r="R63" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:23" hidden="1">
+    <row r="64" spans="1:23">
       <c r="A64" s="12">
         <v>106</v>
       </c>
@@ -11812,16 +11806,16 @@
         <v>274</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1647</v>
-      </c>
-      <c r="Q64" s="78" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Q64" s="71" t="s">
         <v>1488</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1">
+    <row r="65" spans="1:23">
       <c r="A65" s="12">
         <v>107</v>
       </c>
@@ -11867,7 +11861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:23" hidden="1">
+    <row r="66" spans="1:23">
       <c r="A66" s="12">
         <v>108</v>
       </c>
@@ -11910,7 +11904,7 @@
         <v>905</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>1492</v>
@@ -11919,7 +11913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:23" hidden="1">
+    <row r="67" spans="1:23">
       <c r="A67" s="12">
         <v>109</v>
       </c>
@@ -11965,7 +11959,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1">
+    <row r="68" spans="1:23">
       <c r="A68" s="12">
         <v>110</v>
       </c>
@@ -12011,7 +12005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:23" hidden="1">
+    <row r="69" spans="1:23">
       <c r="A69" s="12">
         <v>111</v>
       </c>
@@ -12057,50 +12051,55 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:23" hidden="1">
+    <row r="70" spans="1:23">
       <c r="A70" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B70" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C70" s="1" t="str">
         <f>VLOOKUP(B70,Applications!A:C,3,0)</f>
-        <v>Qlikview</v>
+        <v>Informatica</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71" t="s">
+      <c r="E70" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="I70" s="71" t="s">
-        <v>1494</v>
-      </c>
-      <c r="J70" s="71" t="s">
-        <v>1589</v>
-      </c>
-      <c r="K70" s="71"/>
-      <c r="L70" s="71"/>
-      <c r="M70" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="N70" s="71"/>
-      <c r="O70" s="71" t="s">
-        <v>1627</v>
-      </c>
-      <c r="P70" s="71"/>
-      <c r="Q70" s="71"/>
+      <c r="F70" s="1" t="str">
+        <f>IF(H70&lt;&gt;"Shared",VLOOKUP(O70,DiscoSheet!C:P,13,0),VLOOKUP(O70,KPN_input!F:W,17,0)*VLOOKUP(O70,KPN_input!F:W,18,0))</f>
+        <v>4.0</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f>IF(H70&lt;&gt;"Shared",VLOOKUP(O70,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O70,KPN_input!F:U,16,0)/1024,0))</f>
+        <v>8.0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f>IF(NOT(H70="Shared"),VLOOKUP(O70,DiscoSheet!C:P,14,0),"")</f>
+        <v>6.0</v>
+      </c>
+      <c r="J70" s="1" t="str">
+        <f>IF(NOT(H70="Shared"),VLOOKUP(O70,DiscoSheet!C:J,8,0),"")</f>
+        <v>64.0</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>665</v>
+      </c>
       <c r="R70" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="12">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B71" s="1">
         <v>10</v>
@@ -12112,51 +12111,57 @@
       <c r="D71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F71" s="1" t="str">
-        <f>IF(H71&lt;&gt;"Shared",VLOOKUP(O71,DiscoSheet!C:P,13,0),VLOOKUP(O71,KPN_input!F:W,17,0)*VLOOKUP(O71,KPN_input!F:W,18,0))</f>
-        <v>4.0</v>
-      </c>
-      <c r="G71" s="1" t="str">
-        <f>IF(H71&lt;&gt;"Shared",VLOOKUP(O71,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O71,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>8.0</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>IF(NOT(H71="Shared"),VLOOKUP(O71,DiscoSheet!C:P,14,0),"")</f>
-        <v>6.0</v>
+        <v/>
       </c>
       <c r="J71" s="1" t="str">
         <f>IF(NOT(H71="Shared"),VLOOKUP(O71,DiscoSheet!C:J,8,0),"")</f>
-        <v>64.0</v>
+        <v/>
       </c>
       <c r="M71" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>665</v>
+        <v>1638</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>1492</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="12">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B72" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72" s="1" t="str">
         <f>VLOOKUP(B72,Applications!A:C,3,0)</f>
-        <v>Informatica</v>
+        <v>Vaultage</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F72" s="1">
+        <f>IF(H72&lt;&gt;"Shared",VLOOKUP(O72,DiscoSheet!C:P,13,0),VLOOKUP(O72,KPN_input!F:W,17,0)*VLOOKUP(O72,KPN_input!F:W,18,0))</f>
+        <v>24</v>
+      </c>
+      <c r="G72" s="1">
+        <f>IF(H72&lt;&gt;"Shared",VLOOKUP(O72,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O72,KPN_input!F:U,16,0)/1024,0))</f>
+        <v>252</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>1430</v>
@@ -12173,80 +12178,77 @@
         <v>77</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>1641</v>
+        <v>821</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" hidden="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="12">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B73" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C73" s="1" t="str">
         <f>VLOOKUP(B73,Applications!A:C,3,0)</f>
-        <v>Vaultage</v>
+        <v>Totalview</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F73" s="1">
+        <v>1428</v>
+      </c>
+      <c r="F73" s="1" t="str">
         <f>IF(H73&lt;&gt;"Shared",VLOOKUP(O73,DiscoSheet!C:P,13,0),VLOOKUP(O73,KPN_input!F:W,17,0)*VLOOKUP(O73,KPN_input!F:W,18,0))</f>
-        <v>24</v>
-      </c>
-      <c r="G73" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G73" s="1" t="str">
         <f>IF(H73&lt;&gt;"Shared",VLOOKUP(O73,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O73,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>252</v>
+        <v>16.0</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>IF(NOT(H73="Shared"),VLOOKUP(O73,DiscoSheet!C:P,14,0),"")</f>
-        <v/>
+        <v>4.0</v>
       </c>
       <c r="J73" s="1" t="str">
         <f>IF(NOT(H73="Shared"),VLOOKUP(O73,DiscoSheet!C:J,8,0),"")</f>
-        <v/>
+        <v>16.0</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>1492</v>
+        <v>264</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" hidden="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" s="1" t="str">
         <f>VLOOKUP(B74,Applications!A:C,3,0)</f>
-        <v>Totalview</v>
+        <v>PIF</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -12256,7 +12258,7 @@
       </c>
       <c r="F74" s="1" t="str">
         <f>IF(H74&lt;&gt;"Shared",VLOOKUP(O74,DiscoSheet!C:P,13,0),VLOOKUP(O74,KPN_input!F:W,17,0)*VLOOKUP(O74,KPN_input!F:W,18,0))</f>
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G74" s="1" t="str">
         <f>IF(H74&lt;&gt;"Shared",VLOOKUP(O74,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O74,KPN_input!F:U,16,0)/1024,0))</f>
@@ -12267,35 +12269,36 @@
       </c>
       <c r="I74" s="1" t="str">
         <f>IF(NOT(H74="Shared"),VLOOKUP(O74,DiscoSheet!C:P,14,0),"")</f>
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J74" s="1" t="str">
         <f>IF(NOT(H74="Shared"),VLOOKUP(O74,DiscoSheet!C:J,8,0),"")</f>
         <v>16.0</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M74" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>264</v>
+        <v>1220</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" hidden="1">
+        <v>29</v>
+      </c>
+      <c r="W74" s="1" t="str">
+        <f>B74&amp;"-"&amp;A74</f>
+        <v>14-116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B75" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C75" s="1" t="str">
         <f>VLOOKUP(B75,Applications!A:C,3,0)</f>
-        <v>PIF</v>
+        <v>AIA ITP B2B</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
@@ -12309,7 +12312,7 @@
       </c>
       <c r="G75" s="1" t="str">
         <f>IF(H75&lt;&gt;"Shared",VLOOKUP(O75,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O75,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>1428</v>
@@ -12320,75 +12323,80 @@
       </c>
       <c r="J75" s="1" t="str">
         <f>IF(NOT(H75="Shared"),VLOOKUP(O75,DiscoSheet!C:J,8,0),"")</f>
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>1220</v>
+        <v>1158</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="W75" s="1" t="str">
         <f>B75&amp;"-"&amp;A75</f>
-        <v>14-116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" hidden="1">
-      <c r="A76" s="12">
-        <v>117</v>
+        <v>29-117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" s="1">
+        <v>118</v>
       </c>
       <c r="B76" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C76" s="1" t="str">
         <f>VLOOKUP(B76,Applications!A:C,3,0)</f>
-        <v>AIA ITP B2B</v>
+        <v>ODS</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F76" s="1" t="str">
+        <v>1429</v>
+      </c>
+      <c r="F76" s="1">
         <f>IF(H76&lt;&gt;"Shared",VLOOKUP(O76,DiscoSheet!C:P,13,0),VLOOKUP(O76,KPN_input!F:W,17,0)*VLOOKUP(O76,KPN_input!F:W,18,0))</f>
-        <v>2.0</v>
-      </c>
-      <c r="G76" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="G76" s="1">
         <f>IF(H76&lt;&gt;"Shared",VLOOKUP(O76,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O76,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>8.0</v>
+        <v>27</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="I76" s="1" t="str">
         <f>IF(NOT(H76="Shared"),VLOOKUP(O76,DiscoSheet!C:P,14,0),"")</f>
-        <v>2.0</v>
+        <v/>
       </c>
       <c r="J76" s="1" t="str">
         <f>IF(NOT(H76="Shared"),VLOOKUP(O76,DiscoSheet!C:J,8,0),"")</f>
-        <v>8.0</v>
+        <v/>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>1158</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
       <c r="R76" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="W76" s="1" t="str">
         <f>B76&amp;"-"&amp;A76</f>
-        <v>29-117</v>
+        <v>32-118</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B77" s="1">
         <v>32</v>
@@ -12409,7 +12417,7 @@
       </c>
       <c r="G77" s="1">
         <f>IF(H77&lt;&gt;"Shared",VLOOKUP(O77,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O77,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>1430</v>
@@ -12429,129 +12437,118 @@
         <v>77</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="78"/>
+        <v>890</v>
+      </c>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
       <c r="R77" s="1" t="s">
         <v>29</v>
       </c>
       <c r="W77" s="1" t="str">
         <f>B77&amp;"-"&amp;A77</f>
-        <v>32-118</v>
+        <v>32-119</v>
       </c>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="1">
-        <v>119</v>
+      <c r="A78" s="12">
+        <v>200</v>
       </c>
       <c r="B78" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1" t="str">
         <f>VLOOKUP(B78,Applications!A:C,3,0)</f>
-        <v>ODS</v>
+        <v>Aprimo</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F78" s="1">
+        <v>1428</v>
+      </c>
+      <c r="F78" s="1" t="str">
         <f>IF(H78&lt;&gt;"Shared",VLOOKUP(O78,DiscoSheet!C:P,13,0),VLOOKUP(O78,KPN_input!F:W,17,0)*VLOOKUP(O78,KPN_input!F:W,18,0))</f>
-        <v>8</v>
-      </c>
-      <c r="G78" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G78" s="1" t="str">
         <f>IF(H78&lt;&gt;"Shared",VLOOKUP(O78,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O78,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>31</v>
+        <v>4.0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>IF(NOT(H78="Shared"),VLOOKUP(O78,DiscoSheet!C:P,14,0),"")</f>
-        <v/>
+        <v>2.0</v>
       </c>
       <c r="J78" s="1" t="str">
         <f>IF(NOT(H78="Shared"),VLOOKUP(O78,DiscoSheet!C:J,8,0),"")</f>
-        <v/>
+        <v>4.0</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O78" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="P78" s="78"/>
-      <c r="Q78" s="78"/>
+        <v>1126</v>
+      </c>
       <c r="R78" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W78" s="1" t="str">
-        <f>B78&amp;"-"&amp;A78</f>
-        <v>32-119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" hidden="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="12">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1" t="str">
         <f>VLOOKUP(B79,Applications!A:C,3,0)</f>
-        <v>Aprimo</v>
+        <v>RMS</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F79" s="1" t="str">
+        <v>1429</v>
+      </c>
+      <c r="F79" s="1">
         <f>IF(H79&lt;&gt;"Shared",VLOOKUP(O79,DiscoSheet!C:P,13,0),VLOOKUP(O79,KPN_input!F:W,17,0)*VLOOKUP(O79,KPN_input!F:W,18,0))</f>
-        <v>2.0</v>
-      </c>
-      <c r="G79" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="G79" s="1">
         <f>IF(H79&lt;&gt;"Shared",VLOOKUP(O79,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O79,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>4.0</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I79" s="1" t="str">
-        <f>IF(NOT(H79="Shared"),VLOOKUP(O79,DiscoSheet!C:P,14,0),"")</f>
-        <v>2.0</v>
-      </c>
-      <c r="J79" s="1" t="str">
-        <f>IF(NOT(H79="Shared"),VLOOKUP(O79,DiscoSheet!C:J,8,0),"")</f>
-        <v>4.0</v>
+        <v>1430</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>1126</v>
+        <v>1223</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>1492</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="12">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B80" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="str">
         <f>VLOOKUP(B80,Applications!A:C,3,0)</f>
-        <v>RMS</v>
+        <v>Informatica</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
@@ -12559,49 +12556,54 @@
       <c r="E80" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="1" t="str">
         <f>IF(H80&lt;&gt;"Shared",VLOOKUP(O80,DiscoSheet!C:P,13,0),VLOOKUP(O80,KPN_input!F:W,17,0)*VLOOKUP(O80,KPN_input!F:W,18,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G80" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G80" s="1" t="str">
         <f>IF(H80&lt;&gt;"Shared",VLOOKUP(O80,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O80,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>16</v>
+        <v>8.0</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
+      </c>
+      <c r="I80" s="1" t="str">
+        <f>IF(NOT(H80="Shared"),VLOOKUP(O80,DiscoSheet!C:P,14,0),"")</f>
+        <v>4.0</v>
+      </c>
+      <c r="J80" s="1" t="str">
+        <f>IF(NOT(H80="Shared"),VLOOKUP(O80,DiscoSheet!C:J,8,0),"")</f>
+        <v>8.0</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>1492</v>
+        <v>560</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" hidden="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="12">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B81" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C81" s="1" t="str">
         <f>VLOOKUP(B81,Applications!A:C,3,0)</f>
-        <v>Informatica</v>
+        <v>PIF</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F81" s="1" t="str">
         <f>IF(H81&lt;&gt;"Shared",VLOOKUP(O81,DiscoSheet!C:P,13,0),VLOOKUP(O81,KPN_input!F:W,17,0)*VLOOKUP(O81,KPN_input!F:W,18,0))</f>
@@ -12609,7 +12611,7 @@
       </c>
       <c r="G81" s="1" t="str">
         <f>IF(H81&lt;&gt;"Shared",VLOOKUP(O81,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O81,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>1428</v>
@@ -12620,81 +12622,73 @@
       </c>
       <c r="J81" s="1" t="str">
         <f>IF(NOT(H81="Shared"),VLOOKUP(O81,DiscoSheet!C:J,8,0),"")</f>
-        <v>8.0</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>77</v>
+        <v>2.0</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>560</v>
+        <v>1214</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" hidden="1">
+        <v>143</v>
+      </c>
+      <c r="W81" s="1" t="str">
+        <f>B81&amp;"-"&amp;A81</f>
+        <v>14-203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="12">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B82" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="str">
         <f>VLOOKUP(B82,Applications!A:C,3,0)</f>
-        <v>PIF</v>
+        <v>Aprimo</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F82" s="1" t="str">
-        <f>IF(H82&lt;&gt;"Shared",VLOOKUP(O82,DiscoSheet!C:P,13,0),VLOOKUP(O82,KPN_input!F:W,17,0)*VLOOKUP(O82,KPN_input!F:W,18,0))</f>
-        <v>4.0</v>
-      </c>
-      <c r="G82" s="1" t="str">
-        <f>IF(H82&lt;&gt;"Shared",VLOOKUP(O82,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O82,KPN_input!F:U,16,0)/1024,0))</f>
-        <v>2.0</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="I82" s="1" t="str">
         <f>IF(NOT(H82="Shared"),VLOOKUP(O82,DiscoSheet!C:P,14,0),"")</f>
-        <v>4.0</v>
+        <v/>
       </c>
       <c r="J82" s="1" t="str">
         <f>IF(NOT(H82="Shared"),VLOOKUP(O82,DiscoSheet!C:J,8,0),"")</f>
-        <v>2.0</v>
+        <v/>
       </c>
       <c r="L82" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>1214</v>
+        <v>1638</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>1492</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W82" s="1" t="str">
-        <f>B82&amp;"-"&amp;A82</f>
-        <v>14-203</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="12">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1" t="str">
         <f>VLOOKUP(B83,Applications!A:C,3,0)</f>
-        <v>Aprimo</v>
+        <v>Informatica</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
@@ -12710,11 +12704,11 @@
         <f>IF(NOT(H83="Shared"),VLOOKUP(O83,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>1639</v>
@@ -12726,9 +12720,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:23" hidden="1">
+    <row r="84" spans="1:23">
       <c r="A84" s="12">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B84" s="1">
         <v>10</v>
@@ -12751,11 +12745,11 @@
         <f>IF(NOT(H84="Shared"),VLOOKUP(O84,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>1642</v>
@@ -12767,16 +12761,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1">
+    <row r="85" spans="1:23">
       <c r="A85" s="12">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B85" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1" t="str">
         <f>VLOOKUP(B85,Applications!A:C,3,0)</f>
-        <v>Informatica</v>
+        <v>RMS</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
@@ -12784,22 +12778,14 @@
       <c r="H85" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="I85" s="1" t="str">
-        <f>IF(NOT(H85="Shared"),VLOOKUP(O85,DiscoSheet!C:P,14,0),"")</f>
-        <v/>
-      </c>
-      <c r="J85" s="1" t="str">
-        <f>IF(NOT(H85="Shared"),VLOOKUP(O85,DiscoSheet!C:J,8,0),"")</f>
-        <v/>
-      </c>
-      <c r="L85" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>1492</v>
@@ -12808,16 +12794,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1">
+    <row r="86" spans="1:23">
       <c r="A86" s="12">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1" t="str">
         <f>VLOOKUP(B86,Applications!A:C,3,0)</f>
-        <v>RMS</v>
+        <v>Vaultage</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>9</v>
@@ -12825,25 +12811,33 @@
       <c r="H86" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="I86" s="1" t="str">
+        <f>IF(NOT(H86="Shared"),VLOOKUP(O86,DiscoSheet!C:P,14,0),"")</f>
+        <v/>
+      </c>
+      <c r="J86" s="1" t="str">
+        <f>IF(NOT(H86="Shared"),VLOOKUP(O86,DiscoSheet!C:J,8,0),"")</f>
+        <v/>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="Q86" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" hidden="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="12">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B87" s="1">
         <v>11</v>
@@ -12866,14 +12860,14 @@
         <f>IF(NOT(H87="Shared"),VLOOKUP(O87,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>1492</v>
@@ -12882,16 +12876,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1">
+    <row r="88" spans="1:23">
       <c r="A88" s="12">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B88" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C88" s="1" t="str">
         <f>VLOOKUP(B88,Applications!A:C,3,0)</f>
-        <v>Vaultage</v>
+        <v>XM2</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>9</v>
@@ -12911,64 +12905,23 @@
         <v>77</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="Q88" s="1" t="s">
         <v>1492</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" hidden="1">
-      <c r="A89" s="12">
-        <v>211</v>
-      </c>
-      <c r="B89" s="1">
-        <v>3</v>
-      </c>
-      <c r="C89" s="1" t="str">
-        <f>VLOOKUP(B89,Applications!A:C,3,0)</f>
-        <v>XM2</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I89" s="1" t="str">
-        <f>IF(NOT(H89="Shared"),VLOOKUP(O89,DiscoSheet!C:P,14,0),"")</f>
-        <v/>
-      </c>
-      <c r="J89" s="1" t="str">
-        <f>IF(NOT(H89="Shared"),VLOOKUP(O89,DiscoSheet!C:J,8,0),"")</f>
-        <v/>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>1492</v>
-      </c>
-      <c r="R89" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W89">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:W88">
+    <filterColumn colId="3">
       <filters>
-        <filter val="ODS"/>
+        <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17606,7 +17559,7 @@
         <v>1342</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -17652,7 +17605,7 @@
         <v>1342</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -50343,13 +50296,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR46"/>
+  <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25:G27"/>
+      <selection pane="bottomRight" activeCell="AP33" sqref="AP33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -54104,7 +54057,7 @@
         <v>1593</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>1526</v>
       </c>
       <c r="I33" t="s">
         <v>1494</v>
@@ -54210,59 +54163,32 @@
       </c>
     </row>
     <row r="34" spans="1:44">
-      <c r="A34" t="s">
-        <v>1596</v>
-      </c>
       <c r="B34" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1597</v>
+        <v>1493</v>
       </c>
       <c r="D34" t="s">
         <v>1476</v>
       </c>
-      <c r="E34" t="s">
-        <v>1551</v>
-      </c>
       <c r="F34" t="s">
-        <v>1551</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1597</v>
+        <v>1493</v>
       </c>
       <c r="H34" t="s">
-        <v>1526</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1588</v>
+        <v>1493</v>
       </c>
       <c r="J34" t="s">
-        <v>1589</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="L34" t="s">
-        <v>1479</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1572</v>
+        <v>1493</v>
       </c>
       <c r="N34" t="s">
-        <v>1572</v>
+        <v>1493</v>
       </c>
       <c r="O34" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="P34" t="s">
-        <v>1494</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>1582</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="S34" t="s">
         <v>58</v>
@@ -54271,10 +54197,10 @@
         <v>58</v>
       </c>
       <c r="U34" t="s">
-        <v>1590</v>
+        <v>1493</v>
       </c>
       <c r="V34" t="s">
-        <v>1591</v>
+        <v>1494</v>
       </c>
       <c r="W34" t="s">
         <v>1485</v>
@@ -54282,88 +54208,61 @@
       <c r="X34" t="s">
         <v>1485</v>
       </c>
-      <c r="AA34" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>1521</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH34" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="35" spans="1:44">
+      <c r="A35" t="s">
+        <v>1596</v>
+      </c>
       <c r="B35" t="s">
-        <v>1493</v>
+        <v>1597</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>1476</v>
       </c>
+      <c r="E35" t="s">
+        <v>1477</v>
+      </c>
       <c r="F35" t="s">
-        <v>1493</v>
+        <v>1477</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1428</v>
       </c>
       <c r="H35" t="s">
-        <v>1493</v>
+        <v>1428</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1480</v>
       </c>
       <c r="J35" t="s">
-        <v>1493</v>
+        <v>1479</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1480</v>
       </c>
       <c r="L35" t="s">
-        <v>1493</v>
+        <v>1480</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1480</v>
       </c>
       <c r="N35" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="O35" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="P35" t="s">
-        <v>1493</v>
+        <v>1480</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1598</v>
+      </c>
+      <c r="R35" t="s">
+        <v>1482</v>
       </c>
       <c r="S35" t="s">
         <v>58</v>
@@ -54375,7 +54274,7 @@
         <v>1493</v>
       </c>
       <c r="V35" t="s">
-        <v>1494</v>
+        <v>1599</v>
       </c>
       <c r="W35" t="s">
         <v>1485</v>
@@ -54383,25 +54282,79 @@
       <c r="X35" t="s">
         <v>1485</v>
       </c>
+      <c r="AA35" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>1598</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>1599</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
         <v>1476</v>
       </c>
       <c r="E36" t="s">
-        <v>1477</v>
+        <v>1508</v>
       </c>
       <c r="F36" t="s">
-        <v>1477</v>
+        <v>1508</v>
       </c>
       <c r="G36" t="s">
         <v>1428</v>
@@ -54410,16 +54363,16 @@
         <v>1428</v>
       </c>
       <c r="I36" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
       <c r="J36" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K36" t="s">
         <v>1479</v>
       </c>
-      <c r="K36" t="s">
-        <v>1480</v>
-      </c>
       <c r="L36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="M36" t="s">
         <v>1480</v>
@@ -54428,16 +54381,16 @@
         <v>1480</v>
       </c>
       <c r="O36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="P36" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="Q36" t="s">
         <v>1600</v>
       </c>
       <c r="R36" t="s">
-        <v>1482</v>
+        <v>1509</v>
       </c>
       <c r="S36" t="s">
         <v>58</v>
@@ -54446,10 +54399,10 @@
         <v>58</v>
       </c>
       <c r="U36" t="s">
-        <v>1493</v>
+        <v>1483</v>
       </c>
       <c r="V36" t="s">
-        <v>1601</v>
+        <v>1483</v>
       </c>
       <c r="W36" t="s">
         <v>1485</v>
@@ -54514,22 +54467,22 @@
     </row>
     <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>1601</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>1601</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="D37" t="s">
         <v>1476</v>
       </c>
       <c r="E37" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="F37" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="G37" t="s">
         <v>1428</v>
@@ -54538,16 +54491,16 @@
         <v>1428</v>
       </c>
       <c r="I37" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
       <c r="J37" t="s">
-        <v>1496</v>
+        <v>1479</v>
       </c>
       <c r="K37" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="L37" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="M37" t="s">
         <v>1480</v>
@@ -54556,16 +54509,16 @@
         <v>1480</v>
       </c>
       <c r="O37" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="P37" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="Q37" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="R37" t="s">
-        <v>1509</v>
+        <v>1482</v>
       </c>
       <c r="S37" t="s">
         <v>58</v>
@@ -54574,10 +54527,10 @@
         <v>58</v>
       </c>
       <c r="U37" t="s">
-        <v>1483</v>
+        <v>1602</v>
       </c>
       <c r="V37" t="s">
-        <v>1483</v>
+        <v>1599</v>
       </c>
       <c r="W37" t="s">
         <v>1485</v>
@@ -54592,10 +54545,10 @@
         <v>1500</v>
       </c>
       <c r="AC37" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="AD37" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="AE37" t="s">
         <v>1501</v>
@@ -54642,22 +54595,22 @@
     </row>
     <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="B38" t="s">
         <v>1603</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>1223</v>
       </c>
       <c r="D38" t="s">
         <v>1476</v>
       </c>
       <c r="E38" t="s">
-        <v>1491</v>
+        <v>1575</v>
       </c>
       <c r="F38" t="s">
-        <v>1491</v>
+        <v>1575</v>
       </c>
       <c r="G38" t="s">
         <v>1428</v>
@@ -54666,13 +54619,13 @@
         <v>1428</v>
       </c>
       <c r="I38" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
       <c r="J38" t="s">
         <v>1479</v>
       </c>
       <c r="K38" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
       <c r="L38" t="s">
         <v>1480</v>
@@ -54684,19 +54637,19 @@
         <v>1480</v>
       </c>
       <c r="O38" t="s">
-        <v>1480</v>
+        <v>1496</v>
       </c>
       <c r="P38" t="s">
         <v>1480</v>
       </c>
       <c r="Q38" t="s">
-        <v>1600</v>
+        <v>1527</v>
       </c>
       <c r="R38" t="s">
-        <v>1482</v>
+        <v>1509</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>1528</v>
       </c>
       <c r="T38" t="s">
         <v>58</v>
@@ -54705,19 +54658,22 @@
         <v>1604</v>
       </c>
       <c r="V38" t="s">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="W38" t="s">
-        <v>1485</v>
+        <v>1606</v>
       </c>
       <c r="X38" t="s">
         <v>1485</v>
       </c>
+      <c r="Y38" t="s">
+        <v>1607</v>
+      </c>
       <c r="AA38" t="s">
-        <v>1500</v>
+        <v>1608</v>
       </c>
       <c r="AB38" t="s">
-        <v>1500</v>
+        <v>1608</v>
       </c>
       <c r="AC38" t="s">
         <v>1504</v>
@@ -54770,22 +54726,22 @@
     </row>
     <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>1598</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>1605</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>1223</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
         <v>1476</v>
       </c>
       <c r="E39" t="s">
-        <v>1575</v>
+        <v>1477</v>
       </c>
       <c r="F39" t="s">
-        <v>1575</v>
+        <v>1477</v>
       </c>
       <c r="G39" t="s">
         <v>1428</v>
@@ -54794,16 +54750,16 @@
         <v>1428</v>
       </c>
       <c r="I39" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1479</v>
+      </c>
+      <c r="L39" t="s">
         <v>1496</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1479</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1496</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1480</v>
       </c>
       <c r="M39" t="s">
         <v>1480</v>
@@ -54812,49 +54768,46 @@
         <v>1480</v>
       </c>
       <c r="O39" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P39" t="s">
         <v>1496</v>
       </c>
-      <c r="P39" t="s">
-        <v>1480</v>
-      </c>
       <c r="Q39" t="s">
-        <v>1527</v>
+        <v>1497</v>
       </c>
       <c r="R39" t="s">
-        <v>1509</v>
+        <v>1482</v>
       </c>
       <c r="S39" t="s">
-        <v>1528</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
         <v>58</v>
       </c>
       <c r="U39" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="V39" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="W39" t="s">
-        <v>1608</v>
+        <v>1485</v>
       </c>
       <c r="X39" t="s">
         <v>1485</v>
       </c>
-      <c r="Y39" t="s">
-        <v>1609</v>
-      </c>
       <c r="AA39" t="s">
-        <v>1610</v>
+        <v>1500</v>
       </c>
       <c r="AB39" t="s">
-        <v>1610</v>
+        <v>1500</v>
       </c>
       <c r="AC39" t="s">
-        <v>1504</v>
+        <v>1523</v>
       </c>
       <c r="AD39" t="s">
-        <v>1504</v>
+        <v>1523</v>
       </c>
       <c r="AE39" t="s">
         <v>1501</v>
@@ -54900,59 +54853,32 @@
       </c>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
       <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
+        <v>1493</v>
       </c>
       <c r="D40" t="s">
         <v>1476</v>
       </c>
-      <c r="E40" t="s">
-        <v>1477</v>
-      </c>
       <c r="F40" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1428</v>
+        <v>1493</v>
       </c>
       <c r="H40" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1478</v>
+        <v>1493</v>
       </c>
       <c r="J40" t="s">
-        <v>1572</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="L40" t="s">
-        <v>1496</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1480</v>
+        <v>1493</v>
       </c>
       <c r="N40" t="s">
-        <v>1480</v>
+        <v>1493</v>
       </c>
       <c r="O40" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="P40" t="s">
-        <v>1496</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>1497</v>
-      </c>
-      <c r="R40" t="s">
-        <v>1482</v>
+        <v>1493</v>
       </c>
       <c r="S40" t="s">
         <v>58</v>
@@ -54961,70 +54887,16 @@
         <v>58</v>
       </c>
       <c r="U40" t="s">
-        <v>1611</v>
+        <v>1493</v>
       </c>
       <c r="V40" t="s">
-        <v>1612</v>
+        <v>1494</v>
       </c>
       <c r="W40" t="s">
         <v>1485</v>
       </c>
       <c r="X40" t="s">
         <v>1485</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>1523</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>1501</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:44">
@@ -55075,32 +54947,59 @@
       </c>
     </row>
     <row r="42" spans="1:44">
+      <c r="A42" t="s">
+        <v>1611</v>
+      </c>
       <c r="B42" t="s">
-        <v>1493</v>
+        <v>1611</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
       </c>
       <c r="D42" t="s">
         <v>1476</v>
       </c>
+      <c r="E42" t="s">
+        <v>1477</v>
+      </c>
       <c r="F42" t="s">
-        <v>1493</v>
+        <v>1477</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1428</v>
       </c>
       <c r="H42" t="s">
-        <v>1493</v>
+        <v>1428</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1572</v>
       </c>
       <c r="J42" t="s">
-        <v>1493</v>
+        <v>1572</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1496</v>
       </c>
       <c r="L42" t="s">
-        <v>1493</v>
+        <v>1496</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1480</v>
       </c>
       <c r="N42" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="O42" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="P42" t="s">
-        <v>1493</v>
+        <v>1496</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1612</v>
+      </c>
+      <c r="R42" t="s">
+        <v>1482</v>
       </c>
       <c r="S42" t="s">
         <v>58</v>
@@ -55109,10 +55008,10 @@
         <v>58</v>
       </c>
       <c r="U42" t="s">
-        <v>1493</v>
+        <v>1613</v>
       </c>
       <c r="V42" t="s">
-        <v>1494</v>
+        <v>1614</v>
       </c>
       <c r="W42" t="s">
         <v>1485</v>
@@ -55120,16 +55019,61 @@
       <c r="X42" t="s">
         <v>1485</v>
       </c>
+      <c r="AA42" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="43" spans="1:44">
       <c r="A43" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B43" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
         <v>1476</v>
@@ -55171,34 +55115,40 @@
         <v>1496</v>
       </c>
       <c r="Q43" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="R43" t="s">
         <v>1482</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>1528</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>1528</v>
       </c>
       <c r="U43" t="s">
+        <v>1618</v>
+      </c>
+      <c r="V43" t="s">
+        <v>1619</v>
+      </c>
+      <c r="W43" t="s">
+        <v>1531</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1512</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>1533</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AA43" t="s">
         <v>1615</v>
       </c>
-      <c r="V43" t="s">
-        <v>1616</v>
-      </c>
-      <c r="W43" t="s">
-        <v>1485</v>
-      </c>
-      <c r="X43" t="s">
-        <v>1485</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>1617</v>
-      </c>
       <c r="AB43" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AC43" t="s">
         <v>1523</v>
@@ -55207,10 +55157,19 @@
         <v>1523</v>
       </c>
       <c r="AE43" t="s">
-        <v>1618</v>
+        <v>1616</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>10</v>
       </c>
       <c r="AG43" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>10</v>
       </c>
       <c r="AJ43" t="s">
         <v>10</v>
@@ -55242,25 +55201,25 @@
     </row>
     <row r="44" spans="1:44">
       <c r="A44" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B44" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
         <v>1476</v>
       </c>
       <c r="E44" t="s">
-        <v>1477</v>
+        <v>1491</v>
       </c>
       <c r="F44" t="s">
-        <v>1477</v>
+        <v>1491</v>
       </c>
       <c r="G44" t="s">
-        <v>1428</v>
+        <v>1526</v>
       </c>
       <c r="H44" t="s">
         <v>1428</v>
@@ -55290,7 +55249,7 @@
         <v>1496</v>
       </c>
       <c r="Q44" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="R44" t="s">
         <v>1482</v>
@@ -55305,13 +55264,13 @@
         <v>1620</v>
       </c>
       <c r="V44" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="W44" t="s">
-        <v>1531</v>
+        <v>1512</v>
       </c>
       <c r="X44" t="s">
-        <v>1512</v>
+        <v>1485</v>
       </c>
       <c r="Y44" t="s">
         <v>1533</v>
@@ -55320,19 +55279,19 @@
         <v>1533</v>
       </c>
       <c r="AA44" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AB44" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="AC44" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="AD44" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="AE44" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="AF44" t="s">
         <v>10</v>
@@ -55376,10 +55335,10 @@
     </row>
     <row r="45" spans="1:44">
       <c r="A45" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B45" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="C45" t="s">
         <v>264</v>
@@ -55388,13 +55347,13 @@
         <v>1476</v>
       </c>
       <c r="E45" t="s">
-        <v>1491</v>
+        <v>1505</v>
       </c>
       <c r="F45" t="s">
-        <v>1491</v>
+        <v>1505</v>
       </c>
       <c r="G45" t="s">
-        <v>1526</v>
+        <v>1428</v>
       </c>
       <c r="H45" t="s">
         <v>1428</v>
@@ -55411,184 +55370,50 @@
       <c r="L45" t="s">
         <v>1496</v>
       </c>
-      <c r="M45" t="s">
-        <v>1480</v>
-      </c>
       <c r="N45" t="s">
-        <v>1480</v>
+        <v>1493</v>
       </c>
       <c r="O45" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="P45" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="Q45" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="R45" t="s">
         <v>1482</v>
       </c>
       <c r="S45" t="s">
-        <v>1528</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>1528</v>
+        <v>58</v>
       </c>
       <c r="U45" t="s">
-        <v>1622</v>
+        <v>1493</v>
       </c>
       <c r="V45" t="s">
-        <v>1621</v>
+        <v>1602</v>
       </c>
       <c r="W45" t="s">
-        <v>1512</v>
+        <v>1485</v>
       </c>
       <c r="X45" t="s">
         <v>1485</v>
       </c>
-      <c r="Y45" t="s">
-        <v>1533</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>1533</v>
-      </c>
       <c r="AA45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="AB45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="AC45" t="s">
-        <v>1504</v>
+        <v>1621</v>
       </c>
       <c r="AD45" t="s">
-        <v>1504</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>1618</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:44">
-      <c r="A46" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C46" t="s">
-        <v>264</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1428</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1572</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1572</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1496</v>
-      </c>
-      <c r="L46" t="s">
-        <v>1496</v>
-      </c>
-      <c r="N46" t="s">
-        <v>1493</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1493</v>
-      </c>
-      <c r="P46" t="s">
-        <v>1493</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>1619</v>
-      </c>
-      <c r="R46" t="s">
-        <v>1482</v>
-      </c>
-      <c r="S46" t="s">
-        <v>58</v>
-      </c>
-      <c r="T46" t="s">
-        <v>58</v>
-      </c>
-      <c r="U46" t="s">
-        <v>1493</v>
-      </c>
-      <c r="V46" t="s">
-        <v>1604</v>
-      </c>
-      <c r="W46" t="s">
-        <v>1485</v>
-      </c>
-      <c r="X46" t="s">
-        <v>1485</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>1618</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>1618</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>1623</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
   </sheetData>

--- a/bin/appoverview.xlsx
+++ b/bin/appoverview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6840" yWindow="2320" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applications!$A$1:$Q$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Interfaces!$A$1:$P$107</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">KPN_input!$A$1:$AP$320</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Servers!$A$1:$W$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Servers!$A$1:$X$88</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9975" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9978" uniqueCount="1657">
   <si>
     <t>Storage</t>
   </si>
@@ -5088,6 +5088,12 @@
   </si>
   <si>
     <t>GFR1P</t>
+  </si>
+  <si>
+    <t>Size (Gb)</t>
+  </si>
+  <si>
+    <t>6 Gb database size, 19 Gb SAN</t>
   </si>
 </sst>
 </file>
@@ -8786,11 +8792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8804,21 +8809,22 @@
     <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.75" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.625" style="1"/>
+    <col min="11" max="11" width="5.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.25" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.75" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="6" t="s">
         <v>70</v>
       </c>
@@ -8850,31 +8856,31 @@
         <v>1623</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>1632</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>1633</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1251</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>1251</v>
@@ -8883,13 +8889,16 @@
         <v>1251</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -8907,39 +8916,39 @@
         <v>1428</v>
       </c>
       <c r="F2" s="1" t="str">
-        <f>IF(H2&lt;&gt;"Shared",VLOOKUP(O2,DiscoSheet!C:P,13,0),VLOOKUP(O2,KPN_input!F:W,17,0)*VLOOKUP(O2,KPN_input!F:W,18,0))</f>
+        <f>IF(H2&lt;&gt;"Shared",VLOOKUP(P2,DiscoSheet!C:P,13,0),VLOOKUP(P2,KPN_input!F:W,17,0)*VLOOKUP(P2,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>IF(H2&lt;&gt;"Shared",VLOOKUP(O2,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O2,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H2&lt;&gt;"Shared",VLOOKUP(P2,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P2,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>IF(NOT(H2="Shared"),VLOOKUP(O2,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H2="Shared"),VLOOKUP(P2,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>IF(NOT(H2="Shared"),VLOOKUP(O2,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H2="Shared"),VLOOKUP(P2,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="1" t="str">
-        <f t="shared" ref="W2:W35" si="0">B2&amp;"-"&amp;A2</f>
+      <c r="X2" s="1" t="str">
+        <f t="shared" ref="X2:X35" si="0">B2&amp;"-"&amp;A2</f>
         <v>1-1</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -8957,39 +8966,39 @@
         <v>1428</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f>IF(H3&lt;&gt;"Shared",VLOOKUP(O3,DiscoSheet!C:P,13,0),VLOOKUP(O3,KPN_input!F:W,17,0)*VLOOKUP(O3,KPN_input!F:W,18,0))</f>
+        <f>IF(H3&lt;&gt;"Shared",VLOOKUP(P3,DiscoSheet!C:P,13,0),VLOOKUP(P3,KPN_input!F:W,17,0)*VLOOKUP(P3,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>IF(H3&lt;&gt;"Shared",VLOOKUP(O3,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O3,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H3&lt;&gt;"Shared",VLOOKUP(P3,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P3,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>IF(NOT(H3="Shared"),VLOOKUP(O3,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H3="Shared"),VLOOKUP(P3,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>IF(NOT(H3="Shared"),VLOOKUP(O3,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H3="Shared"),VLOOKUP(P3,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W3" s="1" t="str">
+      <c r="X3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -9007,39 +9016,39 @@
         <v>1428</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>IF(H4&lt;&gt;"Shared",VLOOKUP(O4,DiscoSheet!C:P,13,0),VLOOKUP(O4,KPN_input!F:W,17,0)*VLOOKUP(O4,KPN_input!F:W,18,0))</f>
+        <f>IF(H4&lt;&gt;"Shared",VLOOKUP(P4,DiscoSheet!C:P,13,0),VLOOKUP(P4,KPN_input!F:W,17,0)*VLOOKUP(P4,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>IF(H4&lt;&gt;"Shared",VLOOKUP(O4,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O4,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H4&lt;&gt;"Shared",VLOOKUP(P4,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P4,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>IF(NOT(H4="Shared"),VLOOKUP(O4,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H4="Shared"),VLOOKUP(P4,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f>IF(NOT(H4="Shared"),VLOOKUP(O4,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H4="Shared"),VLOOKUP(P4,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="1" t="str">
+      <c r="X4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -9057,45 +9066,51 @@
         <v>1624</v>
       </c>
       <c r="F5" s="1">
-        <f>IF(H5&lt;&gt;"Shared",VLOOKUP(O5,DiscoSheet!C:P,13,0),VLOOKUP(O5,KPN_input!F:W,17,0)*VLOOKUP(O5,KPN_input!F:W,18,0))</f>
+        <f>IF(H5&lt;&gt;"Shared",VLOOKUP(P5,DiscoSheet!C:P,13,0),VLOOKUP(P5,KPN_input!F:W,17,0)*VLOOKUP(P5,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G5" s="1">
-        <f>IF(H5&lt;&gt;"Shared",VLOOKUP(O5,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O5,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H5&lt;&gt;"Shared",VLOOKUP(P5,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P5,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>IF(NOT(H5="Shared"),VLOOKUP(O5,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H5="Shared"),VLOOKUP(P5,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J5" s="1" t="str">
-        <f>IF(NOT(H5="Shared"),VLOOKUP(O5,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H5="Shared"),VLOOKUP(P5,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>77</v>
+      <c r="K5" s="1">
+        <v>6</v>
       </c>
       <c r="O5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="T5" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="X5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1-4</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -9113,41 +9128,41 @@
         <v>1624</v>
       </c>
       <c r="F6" s="1">
-        <f>IF(H6&lt;&gt;"Shared",VLOOKUP(O6,DiscoSheet!C:P,13,0),VLOOKUP(O6,KPN_input!F:W,17,0)*VLOOKUP(O6,KPN_input!F:W,18,0))</f>
+        <f>IF(H6&lt;&gt;"Shared",VLOOKUP(P6,DiscoSheet!C:P,13,0),VLOOKUP(P6,KPN_input!F:W,17,0)*VLOOKUP(P6,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G6" s="1">
-        <f>IF(H6&lt;&gt;"Shared",VLOOKUP(O6,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O6,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H6&lt;&gt;"Shared",VLOOKUP(P6,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P6,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>IF(NOT(H6="Shared"),VLOOKUP(O6,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H6="Shared"),VLOOKUP(P6,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J6" s="1" t="str">
-        <f>IF(NOT(H6="Shared"),VLOOKUP(O6,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H6="Shared"),VLOOKUP(P6,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="71"/>
       <c r="Q6" s="71"/>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="71"/>
+      <c r="S6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W6" s="1" t="str">
+      <c r="X6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1-5</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -9165,41 +9180,41 @@
         <v>1624</v>
       </c>
       <c r="F7" s="1">
-        <f>IF(H7&lt;&gt;"Shared",VLOOKUP(O7,DiscoSheet!C:P,13,0),VLOOKUP(O7,KPN_input!F:W,17,0)*VLOOKUP(O7,KPN_input!F:W,18,0))</f>
+        <f>IF(H7&lt;&gt;"Shared",VLOOKUP(P7,DiscoSheet!C:P,13,0),VLOOKUP(P7,KPN_input!F:W,17,0)*VLOOKUP(P7,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G7" s="1">
-        <f>IF(H7&lt;&gt;"Shared",VLOOKUP(O7,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O7,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H7&lt;&gt;"Shared",VLOOKUP(P7,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P7,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF(NOT(H7="Shared"),VLOOKUP(O7,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H7="Shared"),VLOOKUP(P7,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J7" s="1" t="str">
-        <f>IF(NOT(H7="Shared"),VLOOKUP(O7,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H7="Shared"),VLOOKUP(P7,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="71"/>
       <c r="Q7" s="71"/>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="71"/>
+      <c r="S7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W7" s="1" t="str">
+      <c r="X7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1-6</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -9217,45 +9232,48 @@
         <v>1429</v>
       </c>
       <c r="F8" s="1">
-        <f>IF(H8&lt;&gt;"Shared",VLOOKUP(O8,DiscoSheet!C:P,13,0),VLOOKUP(O8,KPN_input!F:W,17,0)*VLOOKUP(O8,KPN_input!F:W,18,0))</f>
+        <f>IF(H8&lt;&gt;"Shared",VLOOKUP(P8,DiscoSheet!C:P,13,0),VLOOKUP(P8,KPN_input!F:W,17,0)*VLOOKUP(P8,KPN_input!F:W,18,0))</f>
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <f>IF(H8&lt;&gt;"Shared",VLOOKUP(O8,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O8,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H8&lt;&gt;"Shared",VLOOKUP(P8,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P8,KPN_input!F:U,16,0)/1024,0))</f>
         <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF(NOT(H8="Shared"),VLOOKUP(O8,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H8="Shared"),VLOOKUP(P8,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J8" s="1" t="str">
-        <f>IF(NOT(H8="Shared"),VLOOKUP(O8,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H8="Shared"),VLOOKUP(P8,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>77</v>
+      <c r="K8" s="1">
+        <v>6000</v>
       </c>
       <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W8" s="1" t="str">
+      <c r="X8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2-7</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -9273,39 +9291,39 @@
         <v>1428</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IF(H9&lt;&gt;"Shared",VLOOKUP(O9,DiscoSheet!C:P,13,0),VLOOKUP(O9,KPN_input!F:W,17,0)*VLOOKUP(O9,KPN_input!F:W,18,0))</f>
+        <f>IF(H9&lt;&gt;"Shared",VLOOKUP(P9,DiscoSheet!C:P,13,0),VLOOKUP(P9,KPN_input!F:W,17,0)*VLOOKUP(P9,KPN_input!F:W,18,0))</f>
         <v>1.0</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF(H9&lt;&gt;"Shared",VLOOKUP(O9,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O9,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H9&lt;&gt;"Shared",VLOOKUP(P9,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P9,KPN_input!F:U,16,0)/1024,0))</f>
         <v>1.0</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF(NOT(H9="Shared"),VLOOKUP(O9,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H9="Shared"),VLOOKUP(P9,DiscoSheet!C:P,14,0),"")</f>
         <v>1.0</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f>IF(NOT(H9="Shared"),VLOOKUP(O9,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H9="Shared"),VLOOKUP(P9,DiscoSheet!C:J,8,0),"")</f>
         <v>2.0</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W9" s="1" t="str">
+      <c r="X9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2-8</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -9323,45 +9341,48 @@
         <v>1429</v>
       </c>
       <c r="F10" s="1">
-        <f>IF(H10&lt;&gt;"Shared",VLOOKUP(O10,DiscoSheet!C:P,13,0),VLOOKUP(O10,KPN_input!F:W,17,0)*VLOOKUP(O10,KPN_input!F:W,18,0))</f>
+        <f>IF(H10&lt;&gt;"Shared",VLOOKUP(P10,DiscoSheet!C:P,13,0),VLOOKUP(P10,KPN_input!F:W,17,0)*VLOOKUP(P10,KPN_input!F:W,18,0))</f>
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <f>IF(H10&lt;&gt;"Shared",VLOOKUP(O10,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O10,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H10&lt;&gt;"Shared",VLOOKUP(P10,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P10,KPN_input!F:U,16,0)/1024,0))</f>
         <v>126</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(NOT(H10="Shared"),VLOOKUP(O10,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H10="Shared"),VLOOKUP(P10,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J10" s="1" t="str">
-        <f>IF(NOT(H10="Shared"),VLOOKUP(O10,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H10="Shared"),VLOOKUP(P10,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>77</v>
+      <c r="K10" s="1">
+        <v>2000</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W10" s="1" t="str">
+      <c r="X10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3-9</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -9379,41 +9400,41 @@
         <v>1428</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IF(H11&lt;&gt;"Shared",VLOOKUP(O11,DiscoSheet!C:P,13,0),VLOOKUP(O11,KPN_input!F:W,17,0)*VLOOKUP(O11,KPN_input!F:W,18,0))</f>
+        <f>IF(H11&lt;&gt;"Shared",VLOOKUP(P11,DiscoSheet!C:P,13,0),VLOOKUP(P11,KPN_input!F:W,17,0)*VLOOKUP(P11,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IF(H11&lt;&gt;"Shared",VLOOKUP(O11,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O11,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H11&lt;&gt;"Shared",VLOOKUP(P11,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P11,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF(NOT(H11="Shared"),VLOOKUP(O11,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H11="Shared"),VLOOKUP(P11,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f>IF(NOT(H11="Shared"),VLOOKUP(O11,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H11="Shared"),VLOOKUP(P11,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="5"/>
+      <c r="S11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W11" s="1" t="str">
+      <c r="X11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4-10</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -9431,39 +9452,42 @@
         <v>1429</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f>IF(H12&lt;&gt;"Shared",VLOOKUP(O12,DiscoSheet!C:P,13,0),VLOOKUP(O12,KPN_input!F:W,17,0)*VLOOKUP(O12,KPN_input!F:W,18,0))</f>
+        <f>IF(H12&lt;&gt;"Shared",VLOOKUP(P12,DiscoSheet!C:P,13,0),VLOOKUP(P12,KPN_input!F:W,17,0)*VLOOKUP(P12,KPN_input!F:W,18,0))</f>
         <v>8.0</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>IF(H12&lt;&gt;"Shared",VLOOKUP(O12,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O12,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H12&lt;&gt;"Shared",VLOOKUP(P12,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P12,KPN_input!F:U,16,0)/1024,0))</f>
         <v>32.0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF(NOT(H12="Shared"),VLOOKUP(O12,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H12="Shared"),VLOOKUP(P12,DiscoSheet!C:P,14,0),"")</f>
         <v>8.0</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f>IF(NOT(H12="Shared"),VLOOKUP(O12,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H12="Shared"),VLOOKUP(P12,DiscoSheet!C:J,8,0),"")</f>
         <v>32.0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>77</v>
+      <c r="K12" s="1">
+        <v>900</v>
       </c>
       <c r="O12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W12" s="1" t="str">
+      <c r="X12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4-11</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -9481,39 +9505,39 @@
         <v>1429</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(H13&lt;&gt;"Shared",VLOOKUP(O13,DiscoSheet!C:P,13,0),VLOOKUP(O13,KPN_input!F:W,17,0)*VLOOKUP(O13,KPN_input!F:W,18,0))</f>
+        <f>IF(H13&lt;&gt;"Shared",VLOOKUP(P13,DiscoSheet!C:P,13,0),VLOOKUP(P13,KPN_input!F:W,17,0)*VLOOKUP(P13,KPN_input!F:W,18,0))</f>
         <v>32.0</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF(H13&lt;&gt;"Shared",VLOOKUP(O13,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O13,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H13&lt;&gt;"Shared",VLOOKUP(P13,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P13,KPN_input!F:U,16,0)/1024,0))</f>
         <v>262.0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(NOT(H13="Shared"),VLOOKUP(O13,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H13="Shared"),VLOOKUP(P13,DiscoSheet!C:P,14,0),"")</f>
         <v>32.0</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f>IF(NOT(H13="Shared"),VLOOKUP(O13,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H13="Shared"),VLOOKUP(P13,DiscoSheet!C:J,8,0),"")</f>
         <v>128.0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="W13" s="1" t="str">
+      <c r="X13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6-12</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -9531,39 +9555,39 @@
         <v>1429</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(H14&lt;&gt;"Shared",VLOOKUP(O14,DiscoSheet!C:P,13,0),VLOOKUP(O14,KPN_input!F:W,17,0)*VLOOKUP(O14,KPN_input!F:W,18,0))</f>
+        <f>IF(H14&lt;&gt;"Shared",VLOOKUP(P14,DiscoSheet!C:P,13,0),VLOOKUP(P14,KPN_input!F:W,17,0)*VLOOKUP(P14,KPN_input!F:W,18,0))</f>
         <v>32.0</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF(H14&lt;&gt;"Shared",VLOOKUP(O14,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O14,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H14&lt;&gt;"Shared",VLOOKUP(P14,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P14,KPN_input!F:U,16,0)/1024,0))</f>
         <v>524.0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(NOT(H14="Shared"),VLOOKUP(O14,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H14="Shared"),VLOOKUP(P14,DiscoSheet!C:P,14,0),"")</f>
         <v>32.0</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f>IF(NOT(H14="Shared"),VLOOKUP(O14,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H14="Shared"),VLOOKUP(P14,DiscoSheet!C:J,8,0),"")</f>
         <v>512.0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="W14" s="1" t="str">
+      <c r="X14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6-13</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -9581,39 +9605,39 @@
         <v>1429</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(H15&lt;&gt;"Shared",VLOOKUP(O15,DiscoSheet!C:P,13,0),VLOOKUP(O15,KPN_input!F:W,17,0)*VLOOKUP(O15,KPN_input!F:W,18,0))</f>
+        <f>IF(H15&lt;&gt;"Shared",VLOOKUP(P15,DiscoSheet!C:P,13,0),VLOOKUP(P15,KPN_input!F:W,17,0)*VLOOKUP(P15,KPN_input!F:W,18,0))</f>
         <v>6.0</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF(H15&lt;&gt;"Shared",VLOOKUP(O15,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O15,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H15&lt;&gt;"Shared",VLOOKUP(P15,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P15,KPN_input!F:U,16,0)/1024,0))</f>
         <v>64Gb</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(NOT(H15="Shared"),VLOOKUP(O15,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H15="Shared"),VLOOKUP(P15,DiscoSheet!C:P,14,0),"")</f>
         <v>6.0</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f>IF(NOT(H15="Shared"),VLOOKUP(O15,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H15="Shared"),VLOOKUP(P15,DiscoSheet!C:J,8,0),"")</f>
         <v>64Gb</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W15" s="1" t="str">
+      <c r="X15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10-14</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" s="12">
         <v>55</v>
       </c>
@@ -9631,34 +9655,37 @@
         <v>1430</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(NOT(H16="Shared"),VLOOKUP(O16,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H16="Shared"),VLOOKUP(P16,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
-        <f>IF(NOT(H16="Shared"),VLOOKUP(O16,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H16="Shared"),VLOOKUP(P16,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>77</v>
+      <c r="K16" s="1">
+        <v>26</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W16" s="1" t="str">
-        <f t="shared" ref="W16" si="1">B16&amp;"-"&amp;A16</f>
+      <c r="X16" s="1" t="str">
+        <f t="shared" ref="X16" si="1">B16&amp;"-"&amp;A16</f>
         <v>10-55</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -9676,45 +9703,48 @@
         <v>1429</v>
       </c>
       <c r="F17" s="1">
-        <f>IF(H17&lt;&gt;"Shared",VLOOKUP(O17,DiscoSheet!C:P,13,0),VLOOKUP(O17,KPN_input!F:W,17,0)*VLOOKUP(O17,KPN_input!F:W,18,0))</f>
+        <f>IF(H17&lt;&gt;"Shared",VLOOKUP(P17,DiscoSheet!C:P,13,0),VLOOKUP(P17,KPN_input!F:W,17,0)*VLOOKUP(P17,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G17" s="1">
-        <f>IF(H17&lt;&gt;"Shared",VLOOKUP(O17,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O17,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H17&lt;&gt;"Shared",VLOOKUP(P17,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P17,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(NOT(H17="Shared"),VLOOKUP(O17,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H17="Shared"),VLOOKUP(P17,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
-        <f>IF(NOT(H17="Shared"),VLOOKUP(O17,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H17="Shared"),VLOOKUP(P17,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>77</v>
+      <c r="K17" s="1">
+        <v>8000</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="71" t="s">
+      <c r="Q17" s="71" t="s">
         <v>1650</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W17" s="1" t="str">
+      <c r="X17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>11-15</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -9732,39 +9762,39 @@
         <v>1428</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(H18&lt;&gt;"Shared",VLOOKUP(O18,DiscoSheet!C:P,13,0),VLOOKUP(O18,KPN_input!F:W,17,0)*VLOOKUP(O18,KPN_input!F:W,18,0))</f>
+        <f>IF(H18&lt;&gt;"Shared",VLOOKUP(P18,DiscoSheet!C:P,13,0),VLOOKUP(P18,KPN_input!F:W,17,0)*VLOOKUP(P18,KPN_input!F:W,18,0))</f>
         <v>4.0</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF(H18&lt;&gt;"Shared",VLOOKUP(O18,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O18,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H18&lt;&gt;"Shared",VLOOKUP(P18,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P18,KPN_input!F:U,16,0)/1024,0))</f>
         <v>16.0</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(NOT(H18="Shared"),VLOOKUP(O18,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H18="Shared"),VLOOKUP(P18,DiscoSheet!C:P,14,0),"")</f>
         <v>4.0</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f>IF(NOT(H18="Shared"),VLOOKUP(O18,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H18="Shared"),VLOOKUP(P18,DiscoSheet!C:J,8,0),"")</f>
         <v>16.0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="W18" s="1" t="str">
+      <c r="X18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>13-16</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -9782,39 +9812,42 @@
         <v>1428</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(H19&lt;&gt;"Shared",VLOOKUP(O19,DiscoSheet!C:P,13,0),VLOOKUP(O19,KPN_input!F:W,17,0)*VLOOKUP(O19,KPN_input!F:W,18,0))</f>
+        <f>IF(H19&lt;&gt;"Shared",VLOOKUP(P19,DiscoSheet!C:P,13,0),VLOOKUP(P19,KPN_input!F:W,17,0)*VLOOKUP(P19,KPN_input!F:W,18,0))</f>
         <v>4.0</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF(H19&lt;&gt;"Shared",VLOOKUP(O19,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O19,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H19&lt;&gt;"Shared",VLOOKUP(P19,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P19,KPN_input!F:U,16,0)/1024,0))</f>
         <v>16.0</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(NOT(H19="Shared"),VLOOKUP(O19,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H19="Shared"),VLOOKUP(P19,DiscoSheet!C:P,14,0),"")</f>
         <v>4.0</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f>IF(NOT(H19="Shared"),VLOOKUP(O19,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H19="Shared"),VLOOKUP(P19,DiscoSheet!C:J,8,0),"")</f>
         <v>16.0</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>77</v>
+      <c r="K19" s="1">
+        <v>40</v>
       </c>
       <c r="O19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W19" s="1" t="str">
+      <c r="X19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>13-17</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -9832,39 +9865,39 @@
         <v>1429</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(H20&lt;&gt;"Shared",VLOOKUP(O20,DiscoSheet!C:P,13,0),VLOOKUP(O20,KPN_input!F:W,17,0)*VLOOKUP(O20,KPN_input!F:W,18,0))</f>
+        <f>IF(H20&lt;&gt;"Shared",VLOOKUP(P20,DiscoSheet!C:P,13,0),VLOOKUP(P20,KPN_input!F:W,17,0)*VLOOKUP(P20,KPN_input!F:W,18,0))</f>
         <v>8.0</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF(H20&lt;&gt;"Shared",VLOOKUP(O20,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O20,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H20&lt;&gt;"Shared",VLOOKUP(P20,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P20,KPN_input!F:U,16,0)/1024,0))</f>
         <v>10Gb</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(NOT(H20="Shared"),VLOOKUP(O20,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H20="Shared"),VLOOKUP(P20,DiscoSheet!C:P,14,0),"")</f>
         <v>8.0</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f>IF(NOT(H20="Shared"),VLOOKUP(O20,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H20="Shared"),VLOOKUP(P20,DiscoSheet!C:J,8,0),"")</f>
         <v>10Gb</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="W20" s="1" t="str">
+      <c r="X20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>14-18</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -9882,39 +9915,42 @@
         <v>1429</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>IF(H21&lt;&gt;"Shared",VLOOKUP(O21,DiscoSheet!C:P,13,0),VLOOKUP(O21,KPN_input!F:W,17,0)*VLOOKUP(O21,KPN_input!F:W,18,0))</f>
+        <f>IF(H21&lt;&gt;"Shared",VLOOKUP(P21,DiscoSheet!C:P,13,0),VLOOKUP(P21,KPN_input!F:W,17,0)*VLOOKUP(P21,KPN_input!F:W,18,0))</f>
         <v>12.0</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f>IF(H21&lt;&gt;"Shared",VLOOKUP(O21,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O21,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H21&lt;&gt;"Shared",VLOOKUP(P21,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P21,KPN_input!F:U,16,0)/1024,0))</f>
         <v>24Gb</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>IF(NOT(H21="Shared"),VLOOKUP(O21,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H21="Shared"),VLOOKUP(P21,DiscoSheet!C:P,14,0),"")</f>
         <v>12.0</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f>IF(NOT(H21="Shared"),VLOOKUP(O21,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H21="Shared"),VLOOKUP(P21,DiscoSheet!C:J,8,0),"")</f>
         <v>24Gb</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>77</v>
+      <c r="K21" s="1" t="s">
+        <v>1595</v>
       </c>
       <c r="O21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W21" s="1" t="str">
+      <c r="X21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>14-19</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:24">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -9932,42 +9968,42 @@
         <v>1428</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>IF(H22&lt;&gt;"Shared",VLOOKUP(O22,DiscoSheet!C:P,13,0),VLOOKUP(O22,KPN_input!F:W,17,0)*VLOOKUP(O22,KPN_input!F:W,18,0))</f>
+        <f>IF(H22&lt;&gt;"Shared",VLOOKUP(P22,DiscoSheet!C:P,13,0),VLOOKUP(P22,KPN_input!F:W,17,0)*VLOOKUP(P22,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f>IF(H22&lt;&gt;"Shared",VLOOKUP(O22,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O22,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H22&lt;&gt;"Shared",VLOOKUP(P22,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P22,KPN_input!F:U,16,0)/1024,0))</f>
         <v>16Gb</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>IF(NOT(H22="Shared"),VLOOKUP(O22,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H22="Shared"),VLOOKUP(P22,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f>IF(NOT(H22="Shared"),VLOOKUP(O22,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H22="Shared"),VLOOKUP(P22,DiscoSheet!C:J,8,0),"")</f>
         <v>16Gb</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="1" t="str">
+      <c r="X22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>14-20</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -9985,39 +10021,42 @@
         <v>1428</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>IF(H23&lt;&gt;"Shared",VLOOKUP(O23,DiscoSheet!C:P,13,0),VLOOKUP(O23,KPN_input!F:W,17,0)*VLOOKUP(O23,KPN_input!F:W,18,0))</f>
+        <f>IF(H23&lt;&gt;"Shared",VLOOKUP(P23,DiscoSheet!C:P,13,0),VLOOKUP(P23,KPN_input!F:W,17,0)*VLOOKUP(P23,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>IF(H23&lt;&gt;"Shared",VLOOKUP(O23,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O23,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H23&lt;&gt;"Shared",VLOOKUP(P23,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P23,KPN_input!F:U,16,0)/1024,0))</f>
         <v>8.0</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>IF(NOT(H23="Shared"),VLOOKUP(O23,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H23="Shared"),VLOOKUP(P23,DiscoSheet!C:P,14,0),"")</f>
         <v>4.0</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f>IF(NOT(H23="Shared"),VLOOKUP(O23,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H23="Shared"),VLOOKUP(P23,DiscoSheet!C:J,8,0),"")</f>
         <v>16.0</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>77</v>
+      <c r="K23" s="1">
+        <v>2000</v>
       </c>
       <c r="O23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="W23" s="1" t="str">
+      <c r="X23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>15-21</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -10035,39 +10074,42 @@
         <v>1428</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>IF(H24&lt;&gt;"Shared",VLOOKUP(O24,DiscoSheet!C:P,13,0),VLOOKUP(O24,KPN_input!F:W,17,0)*VLOOKUP(O24,KPN_input!F:W,18,0))</f>
+        <f>IF(H24&lt;&gt;"Shared",VLOOKUP(P24,DiscoSheet!C:P,13,0),VLOOKUP(P24,KPN_input!F:W,17,0)*VLOOKUP(P24,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>IF(H24&lt;&gt;"Shared",VLOOKUP(O24,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O24,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H24&lt;&gt;"Shared",VLOOKUP(P24,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P24,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>IF(NOT(H24="Shared"),VLOOKUP(O24,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H24="Shared"),VLOOKUP(P24,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f>IF(NOT(H24="Shared"),VLOOKUP(O24,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H24="Shared"),VLOOKUP(P24,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>77</v>
+      <c r="K24" s="1">
+        <v>600</v>
       </c>
       <c r="O24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W24" s="1" t="str">
+      <c r="X24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>20-22</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -10085,39 +10127,42 @@
         <v>1428</v>
       </c>
       <c r="F25" s="1" t="e">
-        <f>IF(H25&lt;&gt;"Shared",VLOOKUP(O25,DiscoSheet!C:P,13,0),VLOOKUP(O25,KPN_input!F:W,17,0)*VLOOKUP(O25,KPN_input!F:W,18,0))</f>
+        <f>IF(H25&lt;&gt;"Shared",VLOOKUP(P25,DiscoSheet!C:P,13,0),VLOOKUP(P25,KPN_input!F:W,17,0)*VLOOKUP(P25,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G25" s="1" t="e">
-        <f>IF(H25&lt;&gt;"Shared",VLOOKUP(O25,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O25,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H25&lt;&gt;"Shared",VLOOKUP(P25,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P25,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I25" s="1" t="e">
-        <f>IF(NOT(H25="Shared"),VLOOKUP(O25,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H25="Shared"),VLOOKUP(P25,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J25" s="1" t="e">
-        <f>IF(NOT(H25="Shared"),VLOOKUP(O25,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H25="Shared"),VLOOKUP(P25,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>77</v>
+      <c r="K25" s="1">
+        <v>400</v>
       </c>
       <c r="O25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="W25" s="1" t="str">
+      <c r="X25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>25-23</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -10135,27 +10180,24 @@
         <v>1428</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>IF(H26&lt;&gt;"Shared",VLOOKUP(O26,DiscoSheet!C:P,13,0),VLOOKUP(O26,KPN_input!F:W,17,0)*VLOOKUP(O26,KPN_input!F:W,18,0))</f>
+        <f>IF(H26&lt;&gt;"Shared",VLOOKUP(P26,DiscoSheet!C:P,13,0),VLOOKUP(P26,KPN_input!F:W,17,0)*VLOOKUP(P26,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f>IF(H26&lt;&gt;"Shared",VLOOKUP(O26,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O26,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H26&lt;&gt;"Shared",VLOOKUP(P26,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P26,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>IF(NOT(H26="Shared"),VLOOKUP(O26,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H26="Shared"),VLOOKUP(P26,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f>IF(NOT(H26="Shared"),VLOOKUP(O26,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H26="Shared"),VLOOKUP(P26,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L26" s="1" t="s">
         <v>77</v>
       </c>
@@ -10166,17 +10208,20 @@
         <v>77</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W26" s="1" t="str">
+      <c r="X26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>26-24</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" s="12">
         <v>55</v>
       </c>
@@ -10194,15 +10239,15 @@
         <v>1430</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>IF(NOT(H27="Shared"),VLOOKUP(O27,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H27="Shared"),VLOOKUP(P27,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J27" s="1" t="str">
-        <f>IF(NOT(H27="Shared"),VLOOKUP(O27,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H27="Shared"),VLOOKUP(P27,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>77</v>
+      <c r="K27" s="1">
+        <v>2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>77</v>
@@ -10214,19 +10259,22 @@
         <v>77</v>
       </c>
       <c r="O27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P27" s="71"/>
       <c r="Q27" s="71"/>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="71"/>
+      <c r="S27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W27" s="1" t="str">
-        <f t="shared" ref="W27" si="2">B27&amp;"-"&amp;A27</f>
+      <c r="X27" s="1" t="str">
+        <f t="shared" ref="X27" si="2">B27&amp;"-"&amp;A27</f>
         <v>26-55</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -10244,39 +10292,39 @@
         <v>1428</v>
       </c>
       <c r="F28" s="1" t="e">
-        <f>IF(H28&lt;&gt;"Shared",VLOOKUP(O28,DiscoSheet!C:P,13,0),VLOOKUP(O28,KPN_input!F:W,17,0)*VLOOKUP(O28,KPN_input!F:W,18,0))</f>
+        <f>IF(H28&lt;&gt;"Shared",VLOOKUP(P28,DiscoSheet!C:P,13,0),VLOOKUP(P28,KPN_input!F:W,17,0)*VLOOKUP(P28,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G28" s="1" t="e">
-        <f>IF(H28&lt;&gt;"Shared",VLOOKUP(O28,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O28,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H28&lt;&gt;"Shared",VLOOKUP(P28,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P28,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I28" s="1" t="e">
-        <f>IF(NOT(H28="Shared"),VLOOKUP(O28,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H28="Shared"),VLOOKUP(P28,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J28" s="1" t="e">
-        <f>IF(NOT(H28="Shared"),VLOOKUP(O28,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H28="Shared"),VLOOKUP(P28,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="1" t="str">
+      <c r="X28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>28-25</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -10294,39 +10342,39 @@
         <v>1428</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>IF(H29&lt;&gt;"Shared",VLOOKUP(O29,DiscoSheet!C:P,13,0),VLOOKUP(O29,KPN_input!F:W,17,0)*VLOOKUP(O29,KPN_input!F:W,18,0))</f>
+        <f>IF(H29&lt;&gt;"Shared",VLOOKUP(P29,DiscoSheet!C:P,13,0),VLOOKUP(P29,KPN_input!F:W,17,0)*VLOOKUP(P29,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f>IF(H29&lt;&gt;"Shared",VLOOKUP(O29,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O29,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H29&lt;&gt;"Shared",VLOOKUP(P29,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P29,KPN_input!F:U,16,0)/1024,0))</f>
         <v>8.0</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>IF(NOT(H29="Shared"),VLOOKUP(O29,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H29="Shared"),VLOOKUP(P29,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f>IF(NOT(H29="Shared"),VLOOKUP(O29,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H29="Shared"),VLOOKUP(P29,DiscoSheet!C:J,8,0),"")</f>
         <v>8.0</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W29" s="1" t="str">
+      <c r="X29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>29-26</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1">
+    <row r="30" spans="1:24">
       <c r="A30" s="12">
         <v>27</v>
       </c>
@@ -10341,33 +10389,33 @@
         <v>10</v>
       </c>
       <c r="F30" s="1" t="e">
-        <f>IF(H30&lt;&gt;"Shared",VLOOKUP(O30,DiscoSheet!C:P,13,0),VLOOKUP(O30,KPN_input!F:W,17,0)*VLOOKUP(O30,KPN_input!F:W,18,0))</f>
+        <f>IF(H30&lt;&gt;"Shared",VLOOKUP(P30,DiscoSheet!C:P,13,0),VLOOKUP(P30,KPN_input!F:W,17,0)*VLOOKUP(P30,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G30" s="1" t="e">
-        <f>IF(H30&lt;&gt;"Shared",VLOOKUP(O30,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O30,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H30&lt;&gt;"Shared",VLOOKUP(P30,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P30,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="1" t="e">
-        <f>IF(NOT(H30="Shared"),VLOOKUP(O30,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H30="Shared"),VLOOKUP(P30,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J30" s="1" t="e">
-        <f>IF(NOT(H30="Shared"),VLOOKUP(O30,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H30="Shared"),VLOOKUP(P30,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="W30" s="1" t="str">
+      <c r="X30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>12-27</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1">
+    <row r="31" spans="1:24">
       <c r="A31" s="12">
         <v>28</v>
       </c>
@@ -10382,36 +10430,36 @@
         <v>10</v>
       </c>
       <c r="F31" s="1" t="e">
-        <f>IF(H31&lt;&gt;"Shared",VLOOKUP(O31,DiscoSheet!C:P,13,0),VLOOKUP(O31,KPN_input!F:W,17,0)*VLOOKUP(O31,KPN_input!F:W,18,0))</f>
+        <f>IF(H31&lt;&gt;"Shared",VLOOKUP(P31,DiscoSheet!C:P,13,0),VLOOKUP(P31,KPN_input!F:W,17,0)*VLOOKUP(P31,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G31" s="1" t="e">
-        <f>IF(H31&lt;&gt;"Shared",VLOOKUP(O31,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O31,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H31&lt;&gt;"Shared",VLOOKUP(P31,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P31,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="1" t="e">
-        <f>IF(NOT(H31="Shared"),VLOOKUP(O31,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H31="Shared"),VLOOKUP(P31,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J31" s="1" t="e">
-        <f>IF(NOT(H31="Shared"),VLOOKUP(O31,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H31="Shared"),VLOOKUP(P31,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="W31" s="1" t="str">
+      <c r="X31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>19-28</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1">
+    <row r="32" spans="1:24">
       <c r="A32" s="12">
         <v>29</v>
       </c>
@@ -10426,34 +10474,34 @@
         <v>10</v>
       </c>
       <c r="F32" s="1" t="e">
-        <f>IF(H32&lt;&gt;"Shared",VLOOKUP(O32,DiscoSheet!C:P,13,0),VLOOKUP(O32,KPN_input!F:W,17,0)*VLOOKUP(O32,KPN_input!F:W,18,0))</f>
+        <f>IF(H32&lt;&gt;"Shared",VLOOKUP(P32,DiscoSheet!C:P,13,0),VLOOKUP(P32,KPN_input!F:W,17,0)*VLOOKUP(P32,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G32" s="1" t="e">
-        <f>IF(H32&lt;&gt;"Shared",VLOOKUP(O32,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O32,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H32&lt;&gt;"Shared",VLOOKUP(P32,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P32,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="1" t="e">
-        <f>IF(NOT(H32="Shared"),VLOOKUP(O32,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H32="Shared"),VLOOKUP(P32,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J32" s="1" t="e">
-        <f>IF(NOT(H32="Shared"),VLOOKUP(O32,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H32="Shared"),VLOOKUP(P32,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="V32" s="4"/>
-      <c r="W32" s="1" t="str">
+      <c r="W32" s="4"/>
+      <c r="X32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>7-29</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1">
+    <row r="33" spans="1:24">
       <c r="A33" s="12">
         <v>30</v>
       </c>
@@ -10468,33 +10516,33 @@
         <v>10</v>
       </c>
       <c r="F33" s="1" t="e">
-        <f>IF(H33&lt;&gt;"Shared",VLOOKUP(O33,DiscoSheet!C:P,13,0),VLOOKUP(O33,KPN_input!F:W,17,0)*VLOOKUP(O33,KPN_input!F:W,18,0))</f>
+        <f>IF(H33&lt;&gt;"Shared",VLOOKUP(P33,DiscoSheet!C:P,13,0),VLOOKUP(P33,KPN_input!F:W,17,0)*VLOOKUP(P33,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G33" s="1" t="e">
-        <f>IF(H33&lt;&gt;"Shared",VLOOKUP(O33,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O33,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H33&lt;&gt;"Shared",VLOOKUP(P33,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P33,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="1" t="e">
-        <f>IF(NOT(H33="Shared"),VLOOKUP(O33,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H33="Shared"),VLOOKUP(P33,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J33" s="1" t="e">
-        <f>IF(NOT(H33="Shared"),VLOOKUP(O33,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H33="Shared"),VLOOKUP(P33,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="W33" s="1" t="str">
+      <c r="X33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>21-30</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1">
+    <row r="34" spans="1:24">
       <c r="A34" s="12">
         <v>31</v>
       </c>
@@ -10509,33 +10557,33 @@
         <v>10</v>
       </c>
       <c r="F34" s="1" t="e">
-        <f>IF(H34&lt;&gt;"Shared",VLOOKUP(O34,DiscoSheet!C:P,13,0),VLOOKUP(O34,KPN_input!F:W,17,0)*VLOOKUP(O34,KPN_input!F:W,18,0))</f>
+        <f>IF(H34&lt;&gt;"Shared",VLOOKUP(P34,DiscoSheet!C:P,13,0),VLOOKUP(P34,KPN_input!F:W,17,0)*VLOOKUP(P34,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G34" s="1" t="e">
-        <f>IF(H34&lt;&gt;"Shared",VLOOKUP(O34,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O34,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H34&lt;&gt;"Shared",VLOOKUP(P34,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P34,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="1" t="e">
-        <f>IF(NOT(H34="Shared"),VLOOKUP(O34,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H34="Shared"),VLOOKUP(P34,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J34" s="1" t="e">
-        <f>IF(NOT(H34="Shared"),VLOOKUP(O34,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H34="Shared"),VLOOKUP(P34,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="W34" s="1" t="str">
+      <c r="X34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>18-31</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1">
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -10550,36 +10598,36 @@
         <v>10</v>
       </c>
       <c r="F35" s="1" t="e">
-        <f>IF(H35&lt;&gt;"Shared",VLOOKUP(O35,DiscoSheet!C:P,13,0),VLOOKUP(O35,KPN_input!F:W,17,0)*VLOOKUP(O35,KPN_input!F:W,18,0))</f>
+        <f>IF(H35&lt;&gt;"Shared",VLOOKUP(P35,DiscoSheet!C:P,13,0),VLOOKUP(P35,KPN_input!F:W,17,0)*VLOOKUP(P35,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G35" s="1" t="e">
-        <f>IF(H35&lt;&gt;"Shared",VLOOKUP(O35,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O35,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H35&lt;&gt;"Shared",VLOOKUP(P35,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P35,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="1" t="e">
-        <f>IF(NOT(H35="Shared"),VLOOKUP(O35,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H35="Shared"),VLOOKUP(P35,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J35" s="1" t="e">
-        <f>IF(NOT(H35="Shared"),VLOOKUP(O35,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H35="Shared"),VLOOKUP(P35,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W35" s="1" t="str">
+      <c r="X35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>22-32</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1">
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -10594,33 +10642,33 @@
         <v>10</v>
       </c>
       <c r="F36" s="1" t="e">
-        <f>IF(H36&lt;&gt;"Shared",VLOOKUP(O36,DiscoSheet!C:P,13,0),VLOOKUP(O36,KPN_input!F:W,17,0)*VLOOKUP(O36,KPN_input!F:W,18,0))</f>
+        <f>IF(H36&lt;&gt;"Shared",VLOOKUP(P36,DiscoSheet!C:P,13,0),VLOOKUP(P36,KPN_input!F:W,17,0)*VLOOKUP(P36,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G36" s="1" t="e">
-        <f>IF(H36&lt;&gt;"Shared",VLOOKUP(O36,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O36,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H36&lt;&gt;"Shared",VLOOKUP(P36,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P36,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="1" t="e">
-        <f>IF(NOT(H36="Shared"),VLOOKUP(O36,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H36="Shared"),VLOOKUP(P36,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J36" s="1" t="e">
-        <f>IF(NOT(H36="Shared"),VLOOKUP(O36,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H36="Shared"),VLOOKUP(P36,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="W36" s="1" t="str">
-        <f t="shared" ref="W36:W57" si="3">B36&amp;"-"&amp;A36</f>
+      <c r="X36" s="1" t="str">
+        <f t="shared" ref="X36:X57" si="3">B36&amp;"-"&amp;A36</f>
         <v>5-33</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1">
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -10635,33 +10683,33 @@
         <v>10</v>
       </c>
       <c r="F37" s="1" t="e">
-        <f>IF(H37&lt;&gt;"Shared",VLOOKUP(O37,DiscoSheet!C:P,13,0),VLOOKUP(O37,KPN_input!F:W,17,0)*VLOOKUP(O37,KPN_input!F:W,18,0))</f>
+        <f>IF(H37&lt;&gt;"Shared",VLOOKUP(P37,DiscoSheet!C:P,13,0),VLOOKUP(P37,KPN_input!F:W,17,0)*VLOOKUP(P37,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G37" s="1" t="e">
-        <f>IF(H37&lt;&gt;"Shared",VLOOKUP(O37,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O37,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H37&lt;&gt;"Shared",VLOOKUP(P37,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P37,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="1" t="e">
-        <f>IF(NOT(H37="Shared"),VLOOKUP(O37,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H37="Shared"),VLOOKUP(P37,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J37" s="1" t="e">
-        <f>IF(NOT(H37="Shared"),VLOOKUP(O37,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H37="Shared"),VLOOKUP(P37,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="W37" s="1" t="str">
+      <c r="X37" s="1" t="str">
         <f t="shared" si="3"/>
         <v>30-34</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1">
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -10676,33 +10724,33 @@
         <v>10</v>
       </c>
       <c r="F38" s="1" t="e">
-        <f>IF(H38&lt;&gt;"Shared",VLOOKUP(O38,DiscoSheet!C:P,13,0),VLOOKUP(O38,KPN_input!F:W,17,0)*VLOOKUP(O38,KPN_input!F:W,18,0))</f>
+        <f>IF(H38&lt;&gt;"Shared",VLOOKUP(P38,DiscoSheet!C:P,13,0),VLOOKUP(P38,KPN_input!F:W,17,0)*VLOOKUP(P38,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G38" s="1" t="e">
-        <f>IF(H38&lt;&gt;"Shared",VLOOKUP(O38,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O38,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H38&lt;&gt;"Shared",VLOOKUP(P38,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P38,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="1" t="e">
-        <f>IF(NOT(H38="Shared"),VLOOKUP(O38,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H38="Shared"),VLOOKUP(P38,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J38" s="1" t="e">
-        <f>IF(NOT(H38="Shared"),VLOOKUP(O38,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H38="Shared"),VLOOKUP(P38,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="W38" s="1" t="str">
+      <c r="X38" s="1" t="str">
         <f t="shared" si="3"/>
         <v>7-35</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1">
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -10717,33 +10765,33 @@
         <v>10</v>
       </c>
       <c r="F39" s="1" t="e">
-        <f>IF(H39&lt;&gt;"Shared",VLOOKUP(O39,DiscoSheet!C:P,13,0),VLOOKUP(O39,KPN_input!F:W,17,0)*VLOOKUP(O39,KPN_input!F:W,18,0))</f>
+        <f>IF(H39&lt;&gt;"Shared",VLOOKUP(P39,DiscoSheet!C:P,13,0),VLOOKUP(P39,KPN_input!F:W,17,0)*VLOOKUP(P39,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G39" s="1" t="e">
-        <f>IF(H39&lt;&gt;"Shared",VLOOKUP(O39,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O39,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H39&lt;&gt;"Shared",VLOOKUP(P39,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P39,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="1" t="e">
-        <f>IF(NOT(H39="Shared"),VLOOKUP(O39,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H39="Shared"),VLOOKUP(P39,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J39" s="1" t="e">
-        <f>IF(NOT(H39="Shared"),VLOOKUP(O39,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H39="Shared"),VLOOKUP(P39,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W39" s="1" t="str">
+      <c r="X39" s="1" t="str">
         <f t="shared" si="3"/>
         <v>7-36</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1">
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -10758,33 +10806,33 @@
         <v>10</v>
       </c>
       <c r="F40" s="1" t="e">
-        <f>IF(H40&lt;&gt;"Shared",VLOOKUP(O40,DiscoSheet!C:P,13,0),VLOOKUP(O40,KPN_input!F:W,17,0)*VLOOKUP(O40,KPN_input!F:W,18,0))</f>
+        <f>IF(H40&lt;&gt;"Shared",VLOOKUP(P40,DiscoSheet!C:P,13,0),VLOOKUP(P40,KPN_input!F:W,17,0)*VLOOKUP(P40,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G40" s="1" t="e">
-        <f>IF(H40&lt;&gt;"Shared",VLOOKUP(O40,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O40,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H40&lt;&gt;"Shared",VLOOKUP(P40,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P40,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="1" t="e">
-        <f>IF(NOT(H40="Shared"),VLOOKUP(O40,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H40="Shared"),VLOOKUP(P40,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J40" s="1" t="e">
-        <f>IF(NOT(H40="Shared"),VLOOKUP(O40,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H40="Shared"),VLOOKUP(P40,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="W40" s="1" t="str">
+      <c r="X40" s="1" t="str">
         <f t="shared" si="3"/>
         <v>9-37</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1">
+    <row r="41" spans="1:24">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -10799,33 +10847,33 @@
         <v>10</v>
       </c>
       <c r="F41" s="1" t="e">
-        <f>IF(H41&lt;&gt;"Shared",VLOOKUP(O41,DiscoSheet!C:P,13,0),VLOOKUP(O41,KPN_input!F:W,17,0)*VLOOKUP(O41,KPN_input!F:W,18,0))</f>
+        <f>IF(H41&lt;&gt;"Shared",VLOOKUP(P41,DiscoSheet!C:P,13,0),VLOOKUP(P41,KPN_input!F:W,17,0)*VLOOKUP(P41,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G41" s="1" t="e">
-        <f>IF(H41&lt;&gt;"Shared",VLOOKUP(O41,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O41,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H41&lt;&gt;"Shared",VLOOKUP(P41,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P41,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I41" s="1" t="e">
-        <f>IF(NOT(H41="Shared"),VLOOKUP(O41,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H41="Shared"),VLOOKUP(P41,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J41" s="1" t="e">
-        <f>IF(NOT(H41="Shared"),VLOOKUP(O41,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H41="Shared"),VLOOKUP(P41,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="W41" s="1" t="str">
+      <c r="X41" s="1" t="str">
         <f t="shared" si="3"/>
         <v>9-38</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1">
+    <row r="42" spans="1:24">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -10840,33 +10888,33 @@
         <v>10</v>
       </c>
       <c r="F42" s="1" t="e">
-        <f>IF(H42&lt;&gt;"Shared",VLOOKUP(O42,DiscoSheet!C:P,13,0),VLOOKUP(O42,KPN_input!F:W,17,0)*VLOOKUP(O42,KPN_input!F:W,18,0))</f>
+        <f>IF(H42&lt;&gt;"Shared",VLOOKUP(P42,DiscoSheet!C:P,13,0),VLOOKUP(P42,KPN_input!F:W,17,0)*VLOOKUP(P42,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G42" s="1" t="e">
-        <f>IF(H42&lt;&gt;"Shared",VLOOKUP(O42,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O42,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H42&lt;&gt;"Shared",VLOOKUP(P42,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P42,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I42" s="1" t="e">
-        <f>IF(NOT(H42="Shared"),VLOOKUP(O42,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H42="Shared"),VLOOKUP(P42,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J42" s="1" t="e">
-        <f>IF(NOT(H42="Shared"),VLOOKUP(O42,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H42="Shared"),VLOOKUP(P42,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="W42" s="1" t="str">
+      <c r="X42" s="1" t="str">
         <f t="shared" si="3"/>
         <v>9-39</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1">
+    <row r="43" spans="1:24">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -10881,33 +10929,33 @@
         <v>10</v>
       </c>
       <c r="F43" s="1" t="e">
-        <f>IF(H43&lt;&gt;"Shared",VLOOKUP(O43,DiscoSheet!C:P,13,0),VLOOKUP(O43,KPN_input!F:W,17,0)*VLOOKUP(O43,KPN_input!F:W,18,0))</f>
+        <f>IF(H43&lt;&gt;"Shared",VLOOKUP(P43,DiscoSheet!C:P,13,0),VLOOKUP(P43,KPN_input!F:W,17,0)*VLOOKUP(P43,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G43" s="1" t="e">
-        <f>IF(H43&lt;&gt;"Shared",VLOOKUP(O43,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O43,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H43&lt;&gt;"Shared",VLOOKUP(P43,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P43,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="1" t="e">
-        <f>IF(NOT(H43="Shared"),VLOOKUP(O43,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H43="Shared"),VLOOKUP(P43,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J43" s="1" t="e">
-        <f>IF(NOT(H43="Shared"),VLOOKUP(O43,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H43="Shared"),VLOOKUP(P43,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="W43" s="1" t="str">
+      <c r="X43" s="1" t="str">
         <f t="shared" si="3"/>
         <v>8-40</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1">
+    <row r="44" spans="1:24">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -10922,33 +10970,33 @@
         <v>10</v>
       </c>
       <c r="F44" s="1" t="e">
-        <f>IF(H44&lt;&gt;"Shared",VLOOKUP(O44,DiscoSheet!C:P,13,0),VLOOKUP(O44,KPN_input!F:W,17,0)*VLOOKUP(O44,KPN_input!F:W,18,0))</f>
+        <f>IF(H44&lt;&gt;"Shared",VLOOKUP(P44,DiscoSheet!C:P,13,0),VLOOKUP(P44,KPN_input!F:W,17,0)*VLOOKUP(P44,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G44" s="1" t="e">
-        <f>IF(H44&lt;&gt;"Shared",VLOOKUP(O44,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O44,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H44&lt;&gt;"Shared",VLOOKUP(P44,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P44,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="1" t="e">
-        <f>IF(NOT(H44="Shared"),VLOOKUP(O44,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H44="Shared"),VLOOKUP(P44,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J44" s="1" t="e">
-        <f>IF(NOT(H44="Shared"),VLOOKUP(O44,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H44="Shared"),VLOOKUP(P44,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="W44" s="1" t="str">
+      <c r="X44" s="1" t="str">
         <f t="shared" si="3"/>
         <v>8-41</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1">
+    <row r="45" spans="1:24">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -10963,33 +11011,33 @@
         <v>10</v>
       </c>
       <c r="F45" s="1" t="e">
-        <f>IF(H45&lt;&gt;"Shared",VLOOKUP(O45,DiscoSheet!C:P,13,0),VLOOKUP(O45,KPN_input!F:W,17,0)*VLOOKUP(O45,KPN_input!F:W,18,0))</f>
+        <f>IF(H45&lt;&gt;"Shared",VLOOKUP(P45,DiscoSheet!C:P,13,0),VLOOKUP(P45,KPN_input!F:W,17,0)*VLOOKUP(P45,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G45" s="1" t="e">
-        <f>IF(H45&lt;&gt;"Shared",VLOOKUP(O45,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O45,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H45&lt;&gt;"Shared",VLOOKUP(P45,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P45,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="1" t="e">
-        <f>IF(NOT(H45="Shared"),VLOOKUP(O45,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H45="Shared"),VLOOKUP(P45,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J45" s="1" t="e">
-        <f>IF(NOT(H45="Shared"),VLOOKUP(O45,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H45="Shared"),VLOOKUP(P45,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="W45" s="1" t="str">
+      <c r="X45" s="1" t="str">
         <f t="shared" si="3"/>
         <v>8-42</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1">
+    <row r="46" spans="1:24">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -11004,33 +11052,33 @@
         <v>10</v>
       </c>
       <c r="F46" s="1" t="e">
-        <f>IF(H46&lt;&gt;"Shared",VLOOKUP(O46,DiscoSheet!C:P,13,0),VLOOKUP(O46,KPN_input!F:W,17,0)*VLOOKUP(O46,KPN_input!F:W,18,0))</f>
+        <f>IF(H46&lt;&gt;"Shared",VLOOKUP(P46,DiscoSheet!C:P,13,0),VLOOKUP(P46,KPN_input!F:W,17,0)*VLOOKUP(P46,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G46" s="1" t="e">
-        <f>IF(H46&lt;&gt;"Shared",VLOOKUP(O46,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O46,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H46&lt;&gt;"Shared",VLOOKUP(P46,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P46,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="1" t="e">
-        <f>IF(NOT(H46="Shared"),VLOOKUP(O46,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H46="Shared"),VLOOKUP(P46,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J46" s="1" t="e">
-        <f>IF(NOT(H46="Shared"),VLOOKUP(O46,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H46="Shared"),VLOOKUP(P46,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="W46" s="1" t="str">
+      <c r="X46" s="1" t="str">
         <f t="shared" si="3"/>
         <v>24-43</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1">
+    <row r="47" spans="1:24">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -11045,33 +11093,33 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="e">
-        <f>IF(H47&lt;&gt;"Shared",VLOOKUP(O47,DiscoSheet!C:P,13,0),VLOOKUP(O47,KPN_input!F:W,17,0)*VLOOKUP(O47,KPN_input!F:W,18,0))</f>
+        <f>IF(H47&lt;&gt;"Shared",VLOOKUP(P47,DiscoSheet!C:P,13,0),VLOOKUP(P47,KPN_input!F:W,17,0)*VLOOKUP(P47,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G47" s="1" t="e">
-        <f>IF(H47&lt;&gt;"Shared",VLOOKUP(O47,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O47,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H47&lt;&gt;"Shared",VLOOKUP(P47,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P47,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="1" t="e">
-        <f>IF(NOT(H47="Shared"),VLOOKUP(O47,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H47="Shared"),VLOOKUP(P47,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J47" s="1" t="e">
-        <f>IF(NOT(H47="Shared"),VLOOKUP(O47,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H47="Shared"),VLOOKUP(P47,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W47" s="1" t="str">
+      <c r="X47" s="1" t="str">
         <f t="shared" si="3"/>
         <v>23-44</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1">
+    <row r="48" spans="1:24">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -11086,33 +11134,33 @@
         <v>10</v>
       </c>
       <c r="F48" s="1" t="e">
-        <f>IF(H48&lt;&gt;"Shared",VLOOKUP(O48,DiscoSheet!C:P,13,0),VLOOKUP(O48,KPN_input!F:W,17,0)*VLOOKUP(O48,KPN_input!F:W,18,0))</f>
+        <f>IF(H48&lt;&gt;"Shared",VLOOKUP(P48,DiscoSheet!C:P,13,0),VLOOKUP(P48,KPN_input!F:W,17,0)*VLOOKUP(P48,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G48" s="1" t="e">
-        <f>IF(H48&lt;&gt;"Shared",VLOOKUP(O48,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O48,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H48&lt;&gt;"Shared",VLOOKUP(P48,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P48,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="1" t="e">
-        <f>IF(NOT(H48="Shared"),VLOOKUP(O48,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H48="Shared"),VLOOKUP(P48,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J48" s="1" t="e">
-        <f>IF(NOT(H48="Shared"),VLOOKUP(O48,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H48="Shared"),VLOOKUP(P48,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>1336</v>
       </c>
-      <c r="W48" s="1" t="str">
+      <c r="X48" s="1" t="str">
         <f t="shared" si="3"/>
         <v>31-45</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1">
+    <row r="49" spans="1:24">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -11127,33 +11175,33 @@
         <v>10</v>
       </c>
       <c r="F49" s="1" t="e">
-        <f>IF(H49&lt;&gt;"Shared",VLOOKUP(O49,DiscoSheet!C:P,13,0),VLOOKUP(O49,KPN_input!F:W,17,0)*VLOOKUP(O49,KPN_input!F:W,18,0))</f>
+        <f>IF(H49&lt;&gt;"Shared",VLOOKUP(P49,DiscoSheet!C:P,13,0),VLOOKUP(P49,KPN_input!F:W,17,0)*VLOOKUP(P49,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G49" s="1" t="e">
-        <f>IF(H49&lt;&gt;"Shared",VLOOKUP(O49,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O49,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H49&lt;&gt;"Shared",VLOOKUP(P49,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P49,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="1" t="e">
-        <f>IF(NOT(H49="Shared"),VLOOKUP(O49,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H49="Shared"),VLOOKUP(P49,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J49" s="1" t="e">
-        <f>IF(NOT(H49="Shared"),VLOOKUP(O49,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H49="Shared"),VLOOKUP(P49,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W49" s="1" t="str">
+      <c r="X49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>27-46</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:24">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -11171,45 +11219,48 @@
         <v>1429</v>
       </c>
       <c r="F50" s="1">
-        <f>IF(H50&lt;&gt;"Shared",VLOOKUP(O50,DiscoSheet!C:P,13,0),VLOOKUP(O50,KPN_input!F:W,17,0)*VLOOKUP(O50,KPN_input!F:W,18,0))</f>
+        <f>IF(H50&lt;&gt;"Shared",VLOOKUP(P50,DiscoSheet!C:P,13,0),VLOOKUP(P50,KPN_input!F:W,17,0)*VLOOKUP(P50,KPN_input!F:W,18,0))</f>
         <v>8</v>
       </c>
       <c r="G50" s="1">
-        <f>IF(H50&lt;&gt;"Shared",VLOOKUP(O50,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O50,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H50&lt;&gt;"Shared",VLOOKUP(P50,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P50,KPN_input!F:U,16,0)/1024,0))</f>
         <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>IF(NOT(H50="Shared"),VLOOKUP(O50,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H50="Shared"),VLOOKUP(P50,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J50" s="1" t="str">
-        <f>IF(NOT(H50="Shared"),VLOOKUP(O50,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H50="Shared"),VLOOKUP(P50,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>77</v>
+      <c r="K50" s="1">
+        <v>40</v>
       </c>
       <c r="O50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="Q50" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="Q50" s="71" t="s">
+      <c r="R50" s="71" t="s">
         <v>1488</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="S50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W50" s="1" t="str">
+      <c r="X50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>32-47</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1">
+    <row r="51" spans="1:24">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -11224,33 +11275,33 @@
         <v>10</v>
       </c>
       <c r="F51" s="1" t="e">
-        <f>IF(H51&lt;&gt;"Shared",VLOOKUP(O51,DiscoSheet!C:P,13,0),VLOOKUP(O51,KPN_input!F:W,17,0)*VLOOKUP(O51,KPN_input!F:W,18,0))</f>
+        <f>IF(H51&lt;&gt;"Shared",VLOOKUP(P51,DiscoSheet!C:P,13,0),VLOOKUP(P51,KPN_input!F:W,17,0)*VLOOKUP(P51,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G51" s="1" t="e">
-        <f>IF(H51&lt;&gt;"Shared",VLOOKUP(O51,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O51,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H51&lt;&gt;"Shared",VLOOKUP(P51,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P51,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="1" t="e">
-        <f>IF(NOT(H51="Shared"),VLOOKUP(O51,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H51="Shared"),VLOOKUP(P51,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J51" s="1" t="e">
-        <f>IF(NOT(H51="Shared"),VLOOKUP(O51,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H51="Shared"),VLOOKUP(P51,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="W51" s="1" t="str">
+      <c r="X51" s="1" t="str">
         <f t="shared" si="3"/>
         <v>33-48</v>
       </c>
     </row>
-    <row r="52" spans="1:23" hidden="1">
+    <row r="52" spans="1:24">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -11265,33 +11316,33 @@
         <v>10</v>
       </c>
       <c r="F52" s="1" t="e">
-        <f>IF(H52&lt;&gt;"Shared",VLOOKUP(O52,DiscoSheet!C:P,13,0),VLOOKUP(O52,KPN_input!F:W,17,0)*VLOOKUP(O52,KPN_input!F:W,18,0))</f>
+        <f>IF(H52&lt;&gt;"Shared",VLOOKUP(P52,DiscoSheet!C:P,13,0),VLOOKUP(P52,KPN_input!F:W,17,0)*VLOOKUP(P52,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G52" s="1" t="e">
-        <f>IF(H52&lt;&gt;"Shared",VLOOKUP(O52,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O52,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H52&lt;&gt;"Shared",VLOOKUP(P52,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P52,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="1" t="e">
-        <f>IF(NOT(H52="Shared"),VLOOKUP(O52,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H52="Shared"),VLOOKUP(P52,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J52" s="1" t="e">
-        <f>IF(NOT(H52="Shared"),VLOOKUP(O52,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H52="Shared"),VLOOKUP(P52,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P52" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="W52" s="1" t="str">
+      <c r="X52" s="1" t="str">
         <f t="shared" si="3"/>
         <v>17-49</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1">
+    <row r="53" spans="1:24">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -11306,33 +11357,33 @@
         <v>10</v>
       </c>
       <c r="F53" s="1" t="e">
-        <f>IF(H53&lt;&gt;"Shared",VLOOKUP(O53,DiscoSheet!C:P,13,0),VLOOKUP(O53,KPN_input!F:W,17,0)*VLOOKUP(O53,KPN_input!F:W,18,0))</f>
+        <f>IF(H53&lt;&gt;"Shared",VLOOKUP(P53,DiscoSheet!C:P,13,0),VLOOKUP(P53,KPN_input!F:W,17,0)*VLOOKUP(P53,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G53" s="1" t="e">
-        <f>IF(H53&lt;&gt;"Shared",VLOOKUP(O53,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O53,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H53&lt;&gt;"Shared",VLOOKUP(P53,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P53,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="1" t="e">
-        <f>IF(NOT(H53="Shared"),VLOOKUP(O53,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H53="Shared"),VLOOKUP(P53,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J53" s="1" t="e">
-        <f>IF(NOT(H53="Shared"),VLOOKUP(O53,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H53="Shared"),VLOOKUP(P53,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="O53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="W53" s="1" t="str">
+      <c r="X53" s="1" t="str">
         <f t="shared" si="3"/>
         <v>34-50</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1">
+    <row r="54" spans="1:24">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -11347,35 +11398,35 @@
         <v>10</v>
       </c>
       <c r="F54" s="1" t="e">
-        <f>IF(H54&lt;&gt;"Shared",VLOOKUP(O54,DiscoSheet!C:P,13,0),VLOOKUP(O54,KPN_input!F:W,17,0)*VLOOKUP(O54,KPN_input!F:W,18,0))</f>
+        <f>IF(H54&lt;&gt;"Shared",VLOOKUP(P54,DiscoSheet!C:P,13,0),VLOOKUP(P54,KPN_input!F:W,17,0)*VLOOKUP(P54,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G54" s="1" t="e">
-        <f>IF(H54&lt;&gt;"Shared",VLOOKUP(O54,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O54,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H54&lt;&gt;"Shared",VLOOKUP(P54,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P54,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="1" t="e">
-        <f>IF(NOT(H54="Shared"),VLOOKUP(O54,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H54="Shared"),VLOOKUP(P54,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J54" s="1" t="e">
-        <f>IF(NOT(H54="Shared"),VLOOKUP(O54,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H54="Shared"),VLOOKUP(P54,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O54" s="5" t="s">
+      <c r="O54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
-      <c r="W54" s="1" t="str">
+      <c r="R54" s="5"/>
+      <c r="X54" s="1" t="str">
         <f t="shared" si="3"/>
         <v>35-51</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1">
+    <row r="55" spans="1:24">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -11390,33 +11441,33 @@
         <v>10</v>
       </c>
       <c r="F55" s="1" t="e">
-        <f>IF(H55&lt;&gt;"Shared",VLOOKUP(O55,DiscoSheet!C:P,13,0),VLOOKUP(O55,KPN_input!F:W,17,0)*VLOOKUP(O55,KPN_input!F:W,18,0))</f>
+        <f>IF(H55&lt;&gt;"Shared",VLOOKUP(P55,DiscoSheet!C:P,13,0),VLOOKUP(P55,KPN_input!F:W,17,0)*VLOOKUP(P55,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G55" s="1" t="e">
-        <f>IF(H55&lt;&gt;"Shared",VLOOKUP(O55,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O55,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H55&lt;&gt;"Shared",VLOOKUP(P55,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P55,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="1" t="e">
-        <f>IF(NOT(H55="Shared"),VLOOKUP(O55,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H55="Shared"),VLOOKUP(P55,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J55" s="1" t="e">
-        <f>IF(NOT(H55="Shared"),VLOOKUP(O55,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H55="Shared"),VLOOKUP(P55,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O55" s="5"/>
+      <c r="O55" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
-      <c r="W55" s="1" t="str">
+      <c r="R55" s="5"/>
+      <c r="X55" s="1" t="str">
         <f t="shared" si="3"/>
         <v>16-52</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1">
+    <row r="56" spans="1:24">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -11431,33 +11482,33 @@
         <v>10</v>
       </c>
       <c r="F56" s="1" t="e">
-        <f>IF(H56&lt;&gt;"Shared",VLOOKUP(O56,DiscoSheet!C:P,13,0),VLOOKUP(O56,KPN_input!F:W,17,0)*VLOOKUP(O56,KPN_input!F:W,18,0))</f>
+        <f>IF(H56&lt;&gt;"Shared",VLOOKUP(P56,DiscoSheet!C:P,13,0),VLOOKUP(P56,KPN_input!F:W,17,0)*VLOOKUP(P56,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G56" s="1" t="e">
-        <f>IF(H56&lt;&gt;"Shared",VLOOKUP(O56,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O56,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H56&lt;&gt;"Shared",VLOOKUP(P56,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P56,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="1" t="e">
-        <f>IF(NOT(H56="Shared"),VLOOKUP(O56,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H56="Shared"),VLOOKUP(P56,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J56" s="1" t="e">
-        <f>IF(NOT(H56="Shared"),VLOOKUP(O56,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H56="Shared"),VLOOKUP(P56,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O56" s="5"/>
+      <c r="O56" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="W56" s="1" t="str">
+      <c r="R56" s="5"/>
+      <c r="X56" s="1" t="str">
         <f t="shared" si="3"/>
         <v>7-53</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1">
+    <row r="57" spans="1:24">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -11472,35 +11523,35 @@
         <v>10</v>
       </c>
       <c r="F57" s="1" t="e">
-        <f>IF(H57&lt;&gt;"Shared",VLOOKUP(O57,DiscoSheet!C:P,13,0),VLOOKUP(O57,KPN_input!F:W,17,0)*VLOOKUP(O57,KPN_input!F:W,18,0))</f>
+        <f>IF(H57&lt;&gt;"Shared",VLOOKUP(P57,DiscoSheet!C:P,13,0),VLOOKUP(P57,KPN_input!F:W,17,0)*VLOOKUP(P57,KPN_input!F:W,18,0))</f>
         <v>#N/A</v>
       </c>
       <c r="G57" s="1" t="e">
-        <f>IF(H57&lt;&gt;"Shared",VLOOKUP(O57,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O57,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H57&lt;&gt;"Shared",VLOOKUP(P57,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P57,KPN_input!F:U,16,0)/1024,0))</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="1" t="e">
-        <f>IF(NOT(H57="Shared"),VLOOKUP(O57,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H57="Shared"),VLOOKUP(P57,DiscoSheet!C:P,14,0),"")</f>
         <v>#N/A</v>
       </c>
       <c r="J57" s="1" t="e">
-        <f>IF(NOT(H57="Shared"),VLOOKUP(O57,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H57="Shared"),VLOOKUP(P57,DiscoSheet!C:J,8,0),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O57" s="5" t="s">
+      <c r="O57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P57" s="5" t="s">
         <v>1629</v>
       </c>
-      <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="W57" s="1" t="str">
+      <c r="R57" s="5"/>
+      <c r="X57" s="1" t="str">
         <f t="shared" si="3"/>
         <v>36-54</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" s="12">
         <v>100</v>
       </c>
@@ -11518,35 +11569,35 @@
         <v>1428</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>IF(H58&lt;&gt;"Shared",VLOOKUP(O58,DiscoSheet!C:P,13,0),VLOOKUP(O58,KPN_input!F:W,17,0)*VLOOKUP(O58,KPN_input!F:W,18,0))</f>
+        <f>IF(H58&lt;&gt;"Shared",VLOOKUP(P58,DiscoSheet!C:P,13,0),VLOOKUP(P58,KPN_input!F:W,17,0)*VLOOKUP(P58,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G58" s="1" t="str">
-        <f>IF(H58&lt;&gt;"Shared",VLOOKUP(O58,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O58,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H58&lt;&gt;"Shared",VLOOKUP(P58,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P58,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>IF(NOT(H58="Shared"),VLOOKUP(O58,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H58="Shared"),VLOOKUP(P58,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f>IF(NOT(H58="Shared"),VLOOKUP(O58,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H58="Shared"),VLOOKUP(P58,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O58" s="1" t="s">
+      <c r="N58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P58" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="S58" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" s="12">
         <v>101</v>
       </c>
@@ -11564,35 +11615,35 @@
         <v>1428</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>IF(H59&lt;&gt;"Shared",VLOOKUP(O59,DiscoSheet!C:P,13,0),VLOOKUP(O59,KPN_input!F:W,17,0)*VLOOKUP(O59,KPN_input!F:W,18,0))</f>
+        <f>IF(H59&lt;&gt;"Shared",VLOOKUP(P59,DiscoSheet!C:P,13,0),VLOOKUP(P59,KPN_input!F:W,17,0)*VLOOKUP(P59,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G59" s="1" t="str">
-        <f>IF(H59&lt;&gt;"Shared",VLOOKUP(O59,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O59,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H59&lt;&gt;"Shared",VLOOKUP(P59,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P59,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>IF(NOT(H59="Shared"),VLOOKUP(O59,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H59="Shared"),VLOOKUP(P59,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J59" s="1" t="str">
-        <f>IF(NOT(H59="Shared"),VLOOKUP(O59,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H59="Shared"),VLOOKUP(P59,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O59" s="1" t="s">
+      <c r="N59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="S59" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" s="12">
         <v>102</v>
       </c>
@@ -11610,35 +11661,35 @@
         <v>1428</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>IF(H60&lt;&gt;"Shared",VLOOKUP(O60,DiscoSheet!C:P,13,0),VLOOKUP(O60,KPN_input!F:W,17,0)*VLOOKUP(O60,KPN_input!F:W,18,0))</f>
+        <f>IF(H60&lt;&gt;"Shared",VLOOKUP(P60,DiscoSheet!C:P,13,0),VLOOKUP(P60,KPN_input!F:W,17,0)*VLOOKUP(P60,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G60" s="1" t="str">
-        <f>IF(H60&lt;&gt;"Shared",VLOOKUP(O60,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O60,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H60&lt;&gt;"Shared",VLOOKUP(P60,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P60,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>IF(NOT(H60="Shared"),VLOOKUP(O60,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H60="Shared"),VLOOKUP(P60,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J60" s="1" t="str">
-        <f>IF(NOT(H60="Shared"),VLOOKUP(O60,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H60="Shared"),VLOOKUP(P60,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O60" s="1" t="s">
+      <c r="N60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P60" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="S60" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" s="12">
         <v>103</v>
       </c>
@@ -11656,36 +11707,36 @@
         <v>1624</v>
       </c>
       <c r="F61" s="1">
-        <f>IF(H61&lt;&gt;"Shared",VLOOKUP(O61,DiscoSheet!C:P,13,0),VLOOKUP(O61,KPN_input!F:W,17,0)*VLOOKUP(O61,KPN_input!F:W,18,0))</f>
+        <f>IF(H61&lt;&gt;"Shared",VLOOKUP(P61,DiscoSheet!C:P,13,0),VLOOKUP(P61,KPN_input!F:W,17,0)*VLOOKUP(P61,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G61" s="1">
-        <f>IF(H61&lt;&gt;"Shared",VLOOKUP(O61,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O61,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H61&lt;&gt;"Shared",VLOOKUP(P61,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P61,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="N61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="Q61" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="S61" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" s="12">
         <v>104</v>
       </c>
@@ -11703,32 +11754,32 @@
         <v>1624</v>
       </c>
       <c r="F62" s="1">
-        <f>IF(H62&lt;&gt;"Shared",VLOOKUP(O62,DiscoSheet!C:P,13,0),VLOOKUP(O62,KPN_input!F:W,17,0)*VLOOKUP(O62,KPN_input!F:W,18,0))</f>
+        <f>IF(H62&lt;&gt;"Shared",VLOOKUP(P62,DiscoSheet!C:P,13,0),VLOOKUP(P62,KPN_input!F:W,17,0)*VLOOKUP(P62,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G62" s="1">
-        <f>IF(H62&lt;&gt;"Shared",VLOOKUP(O62,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O62,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H62&lt;&gt;"Shared",VLOOKUP(P62,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P62,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="L62" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="N62" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="P62" s="71"/>
       <c r="Q62" s="71"/>
-      <c r="R62" s="1" t="s">
+      <c r="R62" s="71"/>
+      <c r="S62" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" s="12">
         <v>105</v>
       </c>
@@ -11746,32 +11797,32 @@
         <v>1624</v>
       </c>
       <c r="F63" s="1">
-        <f>IF(H63&lt;&gt;"Shared",VLOOKUP(O63,DiscoSheet!C:P,13,0),VLOOKUP(O63,KPN_input!F:W,17,0)*VLOOKUP(O63,KPN_input!F:W,18,0))</f>
+        <f>IF(H63&lt;&gt;"Shared",VLOOKUP(P63,DiscoSheet!C:P,13,0),VLOOKUP(P63,KPN_input!F:W,17,0)*VLOOKUP(P63,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G63" s="1">
-        <f>IF(H63&lt;&gt;"Shared",VLOOKUP(O63,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O63,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H63&lt;&gt;"Shared",VLOOKUP(P63,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P63,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="N63" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="P63" s="71"/>
       <c r="Q63" s="71"/>
-      <c r="R63" s="1" t="s">
+      <c r="R63" s="71"/>
+      <c r="S63" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:24">
       <c r="A64" s="12">
         <v>106</v>
       </c>
@@ -11789,33 +11840,33 @@
         <v>1429</v>
       </c>
       <c r="F64" s="1">
-        <f>IF(H64&lt;&gt;"Shared",VLOOKUP(O64,DiscoSheet!C:P,13,0),VLOOKUP(O64,KPN_input!F:W,17,0)*VLOOKUP(O64,KPN_input!F:W,18,0))</f>
+        <f>IF(H64&lt;&gt;"Shared",VLOOKUP(P64,DiscoSheet!C:P,13,0),VLOOKUP(P64,KPN_input!F:W,17,0)*VLOOKUP(P64,KPN_input!F:W,18,0))</f>
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <f>IF(H64&lt;&gt;"Shared",VLOOKUP(O64,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O64,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H64&lt;&gt;"Shared",VLOOKUP(P64,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P64,KPN_input!F:U,16,0)/1024,0))</f>
         <v>32</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O64" s="1" t="s">
+      <c r="N64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P64" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="Q64" s="71" t="s">
+      <c r="R64" s="71" t="s">
         <v>1488</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="S64" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" s="12">
         <v>107</v>
       </c>
@@ -11833,35 +11884,35 @@
         <v>1428</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f>IF(H65&lt;&gt;"Shared",VLOOKUP(O65,DiscoSheet!C:P,13,0),VLOOKUP(O65,KPN_input!F:W,17,0)*VLOOKUP(O65,KPN_input!F:W,18,0))</f>
+        <f>IF(H65&lt;&gt;"Shared",VLOOKUP(P65,DiscoSheet!C:P,13,0),VLOOKUP(P65,KPN_input!F:W,17,0)*VLOOKUP(P65,KPN_input!F:W,18,0))</f>
         <v>1.0</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>IF(H65&lt;&gt;"Shared",VLOOKUP(O65,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O65,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H65&lt;&gt;"Shared",VLOOKUP(P65,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P65,KPN_input!F:U,16,0)/1024,0))</f>
         <v>1.0</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>IF(NOT(H65="Shared"),VLOOKUP(O65,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H65="Shared"),VLOOKUP(P65,DiscoSheet!C:P,14,0),"")</f>
         <v>1.0</v>
       </c>
       <c r="J65" s="1" t="str">
-        <f>IF(NOT(H65="Shared"),VLOOKUP(O65,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H65="Shared"),VLOOKUP(P65,DiscoSheet!C:J,8,0),"")</f>
         <v>2.0</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O65" s="1" t="s">
+      <c r="N65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P65" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="S65" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" s="12">
         <v>108</v>
       </c>
@@ -11879,41 +11930,41 @@
         <v>1429</v>
       </c>
       <c r="F66" s="1">
-        <f>IF(H66&lt;&gt;"Shared",VLOOKUP(O66,DiscoSheet!C:P,13,0),VLOOKUP(O66,KPN_input!F:W,17,0)*VLOOKUP(O66,KPN_input!F:W,18,0))</f>
+        <f>IF(H66&lt;&gt;"Shared",VLOOKUP(P66,DiscoSheet!C:P,13,0),VLOOKUP(P66,KPN_input!F:W,17,0)*VLOOKUP(P66,KPN_input!F:W,18,0))</f>
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <f>IF(H66&lt;&gt;"Shared",VLOOKUP(O66,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O66,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H66&lt;&gt;"Shared",VLOOKUP(P66,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P66,KPN_input!F:U,16,0)/1024,0))</f>
         <v>126</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>IF(NOT(H66="Shared"),VLOOKUP(O66,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H66="Shared"),VLOOKUP(P66,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J66" s="1" t="str">
-        <f>IF(NOT(H66="Shared"),VLOOKUP(O66,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H66="Shared"),VLOOKUP(P66,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O66" s="1" t="s">
+      <c r="N66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="S66" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" s="12">
         <v>109</v>
       </c>
@@ -11931,35 +11982,35 @@
         <v>1429</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f>IF(H67&lt;&gt;"Shared",VLOOKUP(O67,DiscoSheet!C:P,13,0),VLOOKUP(O67,KPN_input!F:W,17,0)*VLOOKUP(O67,KPN_input!F:W,18,0))</f>
+        <f>IF(H67&lt;&gt;"Shared",VLOOKUP(P67,DiscoSheet!C:P,13,0),VLOOKUP(P67,KPN_input!F:W,17,0)*VLOOKUP(P67,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f>IF(H67&lt;&gt;"Shared",VLOOKUP(O67,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O67,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H67&lt;&gt;"Shared",VLOOKUP(P67,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P67,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>IF(NOT(H67="Shared"),VLOOKUP(O67,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H67="Shared"),VLOOKUP(P67,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J67" s="1" t="str">
-        <f>IF(NOT(H67="Shared"),VLOOKUP(O67,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H67="Shared"),VLOOKUP(P67,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O67" s="1" t="s">
+      <c r="N67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P67" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="S67" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" s="12">
         <v>110</v>
       </c>
@@ -11977,35 +12028,35 @@
         <v>1429</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f>IF(H68&lt;&gt;"Shared",VLOOKUP(O68,DiscoSheet!C:P,13,0),VLOOKUP(O68,KPN_input!F:W,17,0)*VLOOKUP(O68,KPN_input!F:W,18,0))</f>
+        <f>IF(H68&lt;&gt;"Shared",VLOOKUP(P68,DiscoSheet!C:P,13,0),VLOOKUP(P68,KPN_input!F:W,17,0)*VLOOKUP(P68,KPN_input!F:W,18,0))</f>
         <v>4.0</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f>IF(H68&lt;&gt;"Shared",VLOOKUP(O68,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O68,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H68&lt;&gt;"Shared",VLOOKUP(P68,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P68,KPN_input!F:U,16,0)/1024,0))</f>
         <v>32.0</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>IF(NOT(H68="Shared"),VLOOKUP(O68,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H68="Shared"),VLOOKUP(P68,DiscoSheet!C:P,14,0),"")</f>
         <v>4.0</v>
       </c>
       <c r="J68" s="1" t="str">
-        <f>IF(NOT(H68="Shared"),VLOOKUP(O68,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H68="Shared"),VLOOKUP(P68,DiscoSheet!C:J,8,0),"")</f>
         <v>32.0</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O68" s="1" t="s">
+      <c r="N68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="R68" s="1" t="s">
+      <c r="S68" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" s="12">
         <v>111</v>
       </c>
@@ -12023,35 +12074,35 @@
         <v>1429</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f>IF(H69&lt;&gt;"Shared",VLOOKUP(O69,DiscoSheet!C:P,13,0),VLOOKUP(O69,KPN_input!F:W,17,0)*VLOOKUP(O69,KPN_input!F:W,18,0))</f>
+        <f>IF(H69&lt;&gt;"Shared",VLOOKUP(P69,DiscoSheet!C:P,13,0),VLOOKUP(P69,KPN_input!F:W,17,0)*VLOOKUP(P69,KPN_input!F:W,18,0))</f>
         <v>8.0</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f>IF(H69&lt;&gt;"Shared",VLOOKUP(O69,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O69,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H69&lt;&gt;"Shared",VLOOKUP(P69,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P69,KPN_input!F:U,16,0)/1024,0))</f>
         <v>32.0</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>IF(NOT(H69="Shared"),VLOOKUP(O69,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H69="Shared"),VLOOKUP(P69,DiscoSheet!C:P,14,0),"")</f>
         <v>32.0</v>
       </c>
       <c r="J69" s="1" t="str">
-        <f>IF(NOT(H69="Shared"),VLOOKUP(O69,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H69="Shared"),VLOOKUP(P69,DiscoSheet!C:J,8,0),"")</f>
         <v>128.0</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O69" s="1" t="s">
+      <c r="N69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P69" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="R69" s="1" t="s">
+      <c r="S69" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:24">
       <c r="A70" s="12">
         <v>113</v>
       </c>
@@ -12069,35 +12120,35 @@
         <v>1429</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f>IF(H70&lt;&gt;"Shared",VLOOKUP(O70,DiscoSheet!C:P,13,0),VLOOKUP(O70,KPN_input!F:W,17,0)*VLOOKUP(O70,KPN_input!F:W,18,0))</f>
+        <f>IF(H70&lt;&gt;"Shared",VLOOKUP(P70,DiscoSheet!C:P,13,0),VLOOKUP(P70,KPN_input!F:W,17,0)*VLOOKUP(P70,KPN_input!F:W,18,0))</f>
         <v>4.0</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f>IF(H70&lt;&gt;"Shared",VLOOKUP(O70,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O70,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H70&lt;&gt;"Shared",VLOOKUP(P70,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P70,KPN_input!F:U,16,0)/1024,0))</f>
         <v>8.0</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>IF(NOT(H70="Shared"),VLOOKUP(O70,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H70="Shared"),VLOOKUP(P70,DiscoSheet!C:P,14,0),"")</f>
         <v>6.0</v>
       </c>
       <c r="J70" s="1" t="str">
-        <f>IF(NOT(H70="Shared"),VLOOKUP(O70,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H70="Shared"),VLOOKUP(P70,DiscoSheet!C:J,8,0),"")</f>
         <v>64.0</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O70" s="1" t="s">
+      <c r="N70" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P70" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="R70" s="1" t="s">
+      <c r="S70" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" s="12">
         <v>120</v>
       </c>
@@ -12115,30 +12166,30 @@
         <v>1430</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>IF(NOT(H71="Shared"),VLOOKUP(O71,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H71="Shared"),VLOOKUP(P71,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J71" s="1" t="str">
-        <f>IF(NOT(H71="Shared"),VLOOKUP(O71,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H71="Shared"),VLOOKUP(P71,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="M71" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O71" s="1" t="s">
+      <c r="N71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R71" s="1" t="s">
+      <c r="S71" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:24">
       <c r="A72" s="12">
         <v>114</v>
       </c>
@@ -12156,41 +12207,41 @@
         <v>1429</v>
       </c>
       <c r="F72" s="1">
-        <f>IF(H72&lt;&gt;"Shared",VLOOKUP(O72,DiscoSheet!C:P,13,0),VLOOKUP(O72,KPN_input!F:W,17,0)*VLOOKUP(O72,KPN_input!F:W,18,0))</f>
+        <f>IF(H72&lt;&gt;"Shared",VLOOKUP(P72,DiscoSheet!C:P,13,0),VLOOKUP(P72,KPN_input!F:W,17,0)*VLOOKUP(P72,KPN_input!F:W,18,0))</f>
         <v>24</v>
       </c>
       <c r="G72" s="1">
-        <f>IF(H72&lt;&gt;"Shared",VLOOKUP(O72,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O72,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H72&lt;&gt;"Shared",VLOOKUP(P72,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P72,KPN_input!F:U,16,0)/1024,0))</f>
         <v>252</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>IF(NOT(H72="Shared"),VLOOKUP(O72,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H72="Shared"),VLOOKUP(P72,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J72" s="1" t="str">
-        <f>IF(NOT(H72="Shared"),VLOOKUP(O72,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H72="Shared"),VLOOKUP(P72,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O72" s="1" t="s">
+      <c r="N72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R72" s="1" t="s">
+      <c r="S72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" s="12">
         <v>115</v>
       </c>
@@ -12208,38 +12259,38 @@
         <v>1428</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>IF(H73&lt;&gt;"Shared",VLOOKUP(O73,DiscoSheet!C:P,13,0),VLOOKUP(O73,KPN_input!F:W,17,0)*VLOOKUP(O73,KPN_input!F:W,18,0))</f>
+        <f>IF(H73&lt;&gt;"Shared",VLOOKUP(P73,DiscoSheet!C:P,13,0),VLOOKUP(P73,KPN_input!F:W,17,0)*VLOOKUP(P73,KPN_input!F:W,18,0))</f>
         <v>4.0</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f>IF(H73&lt;&gt;"Shared",VLOOKUP(O73,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O73,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H73&lt;&gt;"Shared",VLOOKUP(P73,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P73,KPN_input!F:U,16,0)/1024,0))</f>
         <v>16.0</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>IF(NOT(H73="Shared"),VLOOKUP(O73,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H73="Shared"),VLOOKUP(P73,DiscoSheet!C:P,14,0),"")</f>
         <v>4.0</v>
       </c>
       <c r="J73" s="1" t="str">
-        <f>IF(NOT(H73="Shared"),VLOOKUP(O73,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H73="Shared"),VLOOKUP(P73,DiscoSheet!C:J,8,0),"")</f>
         <v>16.0</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M73" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="N73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P73" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="R73" s="1" t="s">
+      <c r="S73" s="1" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:24">
       <c r="A74" s="12">
         <v>116</v>
       </c>
@@ -12257,39 +12308,39 @@
         <v>1428</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF(H74&lt;&gt;"Shared",VLOOKUP(O74,DiscoSheet!C:P,13,0),VLOOKUP(O74,KPN_input!F:W,17,0)*VLOOKUP(O74,KPN_input!F:W,18,0))</f>
+        <f>IF(H74&lt;&gt;"Shared",VLOOKUP(P74,DiscoSheet!C:P,13,0),VLOOKUP(P74,KPN_input!F:W,17,0)*VLOOKUP(P74,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f>IF(H74&lt;&gt;"Shared",VLOOKUP(O74,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O74,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H74&lt;&gt;"Shared",VLOOKUP(P74,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P74,KPN_input!F:U,16,0)/1024,0))</f>
         <v>16.0</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>IF(NOT(H74="Shared"),VLOOKUP(O74,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H74="Shared"),VLOOKUP(P74,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J74" s="1" t="str">
-        <f>IF(NOT(H74="Shared"),VLOOKUP(O74,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H74="Shared"),VLOOKUP(P74,DiscoSheet!C:J,8,0),"")</f>
         <v>16.0</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O74" s="1" t="s">
+      <c r="N74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="R74" s="1" t="s">
+      <c r="S74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W74" s="1" t="str">
+      <c r="X74" s="1" t="str">
         <f>B74&amp;"-"&amp;A74</f>
         <v>14-116</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" s="12">
         <v>117</v>
       </c>
@@ -12307,39 +12358,39 @@
         <v>1428</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>IF(H75&lt;&gt;"Shared",VLOOKUP(O75,DiscoSheet!C:P,13,0),VLOOKUP(O75,KPN_input!F:W,17,0)*VLOOKUP(O75,KPN_input!F:W,18,0))</f>
+        <f>IF(H75&lt;&gt;"Shared",VLOOKUP(P75,DiscoSheet!C:P,13,0),VLOOKUP(P75,KPN_input!F:W,17,0)*VLOOKUP(P75,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f>IF(H75&lt;&gt;"Shared",VLOOKUP(O75,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O75,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H75&lt;&gt;"Shared",VLOOKUP(P75,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P75,KPN_input!F:U,16,0)/1024,0))</f>
         <v>8.0</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>IF(NOT(H75="Shared"),VLOOKUP(O75,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H75="Shared"),VLOOKUP(P75,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J75" s="1" t="str">
-        <f>IF(NOT(H75="Shared"),VLOOKUP(O75,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H75="Shared"),VLOOKUP(P75,DiscoSheet!C:J,8,0),"")</f>
         <v>8.0</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O75" s="1" t="s">
+      <c r="N75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P75" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="R75" s="1" t="s">
+      <c r="S75" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="1" t="str">
+      <c r="X75" s="1" t="str">
         <f>B75&amp;"-"&amp;A75</f>
         <v>29-117</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" s="1">
         <v>118</v>
       </c>
@@ -12357,44 +12408,44 @@
         <v>1429</v>
       </c>
       <c r="F76" s="1">
-        <f>IF(H76&lt;&gt;"Shared",VLOOKUP(O76,DiscoSheet!C:P,13,0),VLOOKUP(O76,KPN_input!F:W,17,0)*VLOOKUP(O76,KPN_input!F:W,18,0))</f>
+        <f>IF(H76&lt;&gt;"Shared",VLOOKUP(P76,DiscoSheet!C:P,13,0),VLOOKUP(P76,KPN_input!F:W,17,0)*VLOOKUP(P76,KPN_input!F:W,18,0))</f>
         <v>8</v>
       </c>
       <c r="G76" s="1">
-        <f>IF(H76&lt;&gt;"Shared",VLOOKUP(O76,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O76,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H76&lt;&gt;"Shared",VLOOKUP(P76,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P76,KPN_input!F:U,16,0)/1024,0))</f>
         <v>27</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>IF(NOT(H76="Shared"),VLOOKUP(O76,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H76="Shared"),VLOOKUP(P76,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J76" s="1" t="str">
-        <f>IF(NOT(H76="Shared"),VLOOKUP(O76,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H76="Shared"),VLOOKUP(P76,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="N76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="P76" s="71"/>
       <c r="Q76" s="71"/>
-      <c r="R76" s="1" t="s">
+      <c r="R76" s="71"/>
+      <c r="S76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W76" s="1" t="str">
+      <c r="X76" s="1" t="str">
         <f>B76&amp;"-"&amp;A76</f>
         <v>32-118</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" s="1">
         <v>119</v>
       </c>
@@ -12412,44 +12463,44 @@
         <v>1429</v>
       </c>
       <c r="F77" s="1">
-        <f>IF(H77&lt;&gt;"Shared",VLOOKUP(O77,DiscoSheet!C:P,13,0),VLOOKUP(O77,KPN_input!F:W,17,0)*VLOOKUP(O77,KPN_input!F:W,18,0))</f>
+        <f>IF(H77&lt;&gt;"Shared",VLOOKUP(P77,DiscoSheet!C:P,13,0),VLOOKUP(P77,KPN_input!F:W,17,0)*VLOOKUP(P77,KPN_input!F:W,18,0))</f>
         <v>8</v>
       </c>
       <c r="G77" s="1">
-        <f>IF(H77&lt;&gt;"Shared",VLOOKUP(O77,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O77,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H77&lt;&gt;"Shared",VLOOKUP(P77,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P77,KPN_input!F:U,16,0)/1024,0))</f>
         <v>31</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>IF(NOT(H77="Shared"),VLOOKUP(O77,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H77="Shared"),VLOOKUP(P77,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J77" s="1" t="str">
-        <f>IF(NOT(H77="Shared"),VLOOKUP(O77,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H77="Shared"),VLOOKUP(P77,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="N77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P77" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="P77" s="71"/>
       <c r="Q77" s="71"/>
-      <c r="R77" s="1" t="s">
+      <c r="R77" s="71"/>
+      <c r="S77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W77" s="1" t="str">
+      <c r="X77" s="1" t="str">
         <f>B77&amp;"-"&amp;A77</f>
         <v>32-119</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" s="12">
         <v>200</v>
       </c>
@@ -12467,35 +12518,35 @@
         <v>1428</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>IF(H78&lt;&gt;"Shared",VLOOKUP(O78,DiscoSheet!C:P,13,0),VLOOKUP(O78,KPN_input!F:W,17,0)*VLOOKUP(O78,KPN_input!F:W,18,0))</f>
+        <f>IF(H78&lt;&gt;"Shared",VLOOKUP(P78,DiscoSheet!C:P,13,0),VLOOKUP(P78,KPN_input!F:W,17,0)*VLOOKUP(P78,KPN_input!F:W,18,0))</f>
         <v>2.0</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f>IF(H78&lt;&gt;"Shared",VLOOKUP(O78,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O78,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H78&lt;&gt;"Shared",VLOOKUP(P78,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P78,KPN_input!F:U,16,0)/1024,0))</f>
         <v>4.0</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>IF(NOT(H78="Shared"),VLOOKUP(O78,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H78="Shared"),VLOOKUP(P78,DiscoSheet!C:P,14,0),"")</f>
         <v>2.0</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f>IF(NOT(H78="Shared"),VLOOKUP(O78,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H78="Shared"),VLOOKUP(P78,DiscoSheet!C:J,8,0),"")</f>
         <v>4.0</v>
       </c>
-      <c r="L78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O78" s="1" t="s">
+      <c r="M78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="R78" s="1" t="s">
+      <c r="S78" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" s="12">
         <v>201</v>
       </c>
@@ -12513,33 +12564,33 @@
         <v>1429</v>
       </c>
       <c r="F79" s="1">
-        <f>IF(H79&lt;&gt;"Shared",VLOOKUP(O79,DiscoSheet!C:P,13,0),VLOOKUP(O79,KPN_input!F:W,17,0)*VLOOKUP(O79,KPN_input!F:W,18,0))</f>
+        <f>IF(H79&lt;&gt;"Shared",VLOOKUP(P79,DiscoSheet!C:P,13,0),VLOOKUP(P79,KPN_input!F:W,17,0)*VLOOKUP(P79,KPN_input!F:W,18,0))</f>
         <v>4</v>
       </c>
       <c r="G79" s="1">
-        <f>IF(H79&lt;&gt;"Shared",VLOOKUP(O79,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O79,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H79&lt;&gt;"Shared",VLOOKUP(P79,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P79,KPN_input!F:U,16,0)/1024,0))</f>
         <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O79" s="1" t="s">
+      <c r="M79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P79" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="Q79" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="R79" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="S79" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" s="12">
         <v>202</v>
       </c>
@@ -12557,38 +12608,38 @@
         <v>1429</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>IF(H80&lt;&gt;"Shared",VLOOKUP(O80,DiscoSheet!C:P,13,0),VLOOKUP(O80,KPN_input!F:W,17,0)*VLOOKUP(O80,KPN_input!F:W,18,0))</f>
+        <f>IF(H80&lt;&gt;"Shared",VLOOKUP(P80,DiscoSheet!C:P,13,0),VLOOKUP(P80,KPN_input!F:W,17,0)*VLOOKUP(P80,KPN_input!F:W,18,0))</f>
         <v>4.0</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f>IF(H80&lt;&gt;"Shared",VLOOKUP(O80,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O80,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H80&lt;&gt;"Shared",VLOOKUP(P80,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P80,KPN_input!F:U,16,0)/1024,0))</f>
         <v>8.0</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>IF(NOT(H80="Shared"),VLOOKUP(O80,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H80="Shared"),VLOOKUP(P80,DiscoSheet!C:P,14,0),"")</f>
         <v>4.0</v>
       </c>
       <c r="J80" s="1" t="str">
-        <f>IF(NOT(H80="Shared"),VLOOKUP(O80,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H80="Shared"),VLOOKUP(P80,DiscoSheet!C:J,8,0),"")</f>
         <v>8.0</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="L80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="O80" s="1" t="s">
+      <c r="M80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P80" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="R80" s="1" t="s">
+      <c r="S80" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" s="12">
         <v>203</v>
       </c>
@@ -12606,39 +12657,39 @@
         <v>1428</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>IF(H81&lt;&gt;"Shared",VLOOKUP(O81,DiscoSheet!C:P,13,0),VLOOKUP(O81,KPN_input!F:W,17,0)*VLOOKUP(O81,KPN_input!F:W,18,0))</f>
+        <f>IF(H81&lt;&gt;"Shared",VLOOKUP(P81,DiscoSheet!C:P,13,0),VLOOKUP(P81,KPN_input!F:W,17,0)*VLOOKUP(P81,KPN_input!F:W,18,0))</f>
         <v>4.0</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f>IF(H81&lt;&gt;"Shared",VLOOKUP(O81,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(O81,KPN_input!F:U,16,0)/1024,0))</f>
+        <f>IF(H81&lt;&gt;"Shared",VLOOKUP(P81,DiscoSheet!C:I,7,0),ROUND(VLOOKUP(P81,KPN_input!F:U,16,0)/1024,0))</f>
         <v>2.0</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>IF(NOT(H81="Shared"),VLOOKUP(O81,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H81="Shared"),VLOOKUP(P81,DiscoSheet!C:P,14,0),"")</f>
         <v>4.0</v>
       </c>
       <c r="J81" s="1" t="str">
-        <f>IF(NOT(H81="Shared"),VLOOKUP(O81,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H81="Shared"),VLOOKUP(P81,DiscoSheet!C:J,8,0),"")</f>
         <v>2.0</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O81" s="1" t="s">
+      <c r="M81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P81" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="R81" s="1" t="s">
+      <c r="S81" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="W81" s="1" t="str">
+      <c r="X81" s="1" t="str">
         <f>B81&amp;"-"&amp;A81</f>
         <v>14-203</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" s="12">
         <v>204</v>
       </c>
@@ -12656,30 +12707,30 @@
         <v>1430</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>IF(NOT(H82="Shared"),VLOOKUP(O82,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H82="Shared"),VLOOKUP(P82,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J82" s="1" t="str">
-        <f>IF(NOT(H82="Shared"),VLOOKUP(O82,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H82="Shared"),VLOOKUP(P82,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O82" s="1" t="s">
+      <c r="M82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P82" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="Q82" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="Q82" s="1" t="s">
+      <c r="R82" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R82" s="1" t="s">
+      <c r="S82" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" s="12">
         <v>205</v>
       </c>
@@ -12697,30 +12748,30 @@
         <v>1430</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>IF(NOT(H83="Shared"),VLOOKUP(O83,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H83="Shared"),VLOOKUP(P83,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J83" s="1" t="str">
-        <f>IF(NOT(H83="Shared"),VLOOKUP(O83,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H83="Shared"),VLOOKUP(P83,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O83" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="Q83" s="1" t="s">
+      <c r="R83" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R83" s="1" t="s">
+      <c r="S83" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" s="12">
         <v>206</v>
       </c>
@@ -12738,30 +12789,30 @@
         <v>1430</v>
       </c>
       <c r="I84" s="1" t="str">
-        <f>IF(NOT(H84="Shared"),VLOOKUP(O84,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H84="Shared"),VLOOKUP(P84,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J84" s="1" t="str">
-        <f>IF(NOT(H84="Shared"),VLOOKUP(O84,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H84="Shared"),VLOOKUP(P84,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O84" s="1" t="s">
+      <c r="M84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="Q84" s="1" t="s">
+      <c r="R84" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R84" s="1" t="s">
+      <c r="S84" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" s="12">
         <v>207</v>
       </c>
@@ -12778,23 +12829,23 @@
       <c r="H85" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O85" s="1" t="s">
+      <c r="L85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P85" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="Q85" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="Q85" s="1" t="s">
+      <c r="R85" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="S85" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" s="12">
         <v>208</v>
       </c>
@@ -12812,30 +12863,30 @@
         <v>1430</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>IF(NOT(H86="Shared"),VLOOKUP(O86,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H86="Shared"),VLOOKUP(P86,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J86" s="1" t="str">
-        <f>IF(NOT(H86="Shared"),VLOOKUP(O86,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H86="Shared"),VLOOKUP(P86,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O86" s="1" t="s">
+      <c r="M86" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P86" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="Q86" s="1" t="s">
+      <c r="R86" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R86" s="1" t="s">
+      <c r="S86" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" s="12">
         <v>209</v>
       </c>
@@ -12853,30 +12904,30 @@
         <v>1430</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>IF(NOT(H87="Shared"),VLOOKUP(O87,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H87="Shared"),VLOOKUP(P87,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J87" s="1" t="str">
-        <f>IF(NOT(H87="Shared"),VLOOKUP(O87,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H87="Shared"),VLOOKUP(P87,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O87" s="1" t="s">
+      <c r="L87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P87" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="Q87" s="1" t="s">
+      <c r="R87" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R87" s="1" t="s">
+      <c r="S87" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" s="12">
         <v>211</v>
       </c>
@@ -12894,43 +12945,36 @@
         <v>1430</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>IF(NOT(H88="Shared"),VLOOKUP(O88,DiscoSheet!C:P,14,0),"")</f>
+        <f>IF(NOT(H88="Shared"),VLOOKUP(P88,DiscoSheet!C:P,14,0),"")</f>
         <v/>
       </c>
       <c r="J88" s="1" t="str">
-        <f>IF(NOT(H88="Shared"),VLOOKUP(O88,DiscoSheet!C:J,8,0),"")</f>
+        <f>IF(NOT(H88="Shared"),VLOOKUP(P88,DiscoSheet!C:J,8,0),"")</f>
         <v/>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O88" s="1" t="s">
+      <c r="L88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P88" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="Q88" s="1" t="s">
+      <c r="R88" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="R88" s="1" t="s">
+      <c r="S88" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W88">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:U78">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="O34" r:id="rId1"/>
-    <hyperlink ref="O51" r:id="rId2" display="ftp.tep.nl"/>
+    <hyperlink ref="P34" r:id="rId1"/>
+    <hyperlink ref="P51" r:id="rId2" display="ftp.tep.nl"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -13038,8 +13082,8 @@
         <v>All4One</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>VLOOKUP(C2,Servers!A:O,15,0)</f>
-        <v>r0682i1.rwe.com</v>
+        <f>VLOOKUP(C2,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -13052,8 +13096,8 @@
         <v>Informatica</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>VLOOKUP(G2,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G2,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -13091,8 +13135,8 @@
         <v>Aprimo</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>VLOOKUP(C3,Servers!A:O,15,0)</f>
-        <v>SWESR119</v>
+        <f>VLOOKUP(C3,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -13105,8 +13149,8 @@
         <v>RMS</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f>VLOOKUP(G3,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G3,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -13141,8 +13185,8 @@
         <v>Aprimo</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>VLOOKUP(C4,Servers!A:O,15,0)</f>
-        <v>SWESR119</v>
+        <f>VLOOKUP(C4,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -13155,8 +13199,8 @@
         <v>Aprimo</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>VLOOKUP(G4,Servers!A:O,15,0)</f>
-        <v>SWESR117</v>
+        <f>VLOOKUP(G4,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
@@ -13188,8 +13232,8 @@
         <v>Aprimo</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>VLOOKUP(C5,Servers!A:O,15,0)</f>
-        <v>SWESR119</v>
+        <f>VLOOKUP(C5,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -13202,8 +13246,8 @@
         <v>Aprimo</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>VLOOKUP(G5,Servers!A:O,15,0)</f>
-        <v>SWESR118</v>
+        <f>VLOOKUP(G5,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -13235,8 +13279,8 @@
         <v>Aprimo</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>VLOOKUP(C6,Servers!A:O,15,0)</f>
-        <v>SUESZ158</v>
+        <f>VLOOKUP(C6,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -13249,8 +13293,8 @@
         <v>Aprimo</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>VLOOKUP(G6,Servers!A:O,15,0)</f>
-        <v>SWESR119</v>
+        <f>VLOOKUP(G6,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>10</v>
@@ -13282,8 +13326,8 @@
         <v>Aprimo</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>VLOOKUP(C7,Servers!A:O,15,0)</f>
-        <v>SUESZ159</v>
+        <f>VLOOKUP(C7,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -13296,8 +13340,8 @@
         <v>Aprimo</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>VLOOKUP(G7,Servers!A:O,15,0)</f>
-        <v>SWESR119</v>
+        <f>VLOOKUP(G7,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
@@ -13329,8 +13373,8 @@
         <v>Aprimo</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>VLOOKUP(C8,Servers!A:O,15,0)</f>
-        <v>SUESZ160</v>
+        <f>VLOOKUP(C8,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -13343,8 +13387,8 @@
         <v>Aprimo</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>VLOOKUP(G8,Servers!A:O,15,0)</f>
-        <v>SWESR119</v>
+        <f>VLOOKUP(G8,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>10</v>
@@ -13376,8 +13420,8 @@
         <v>Avaya</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>VLOOKUP(C9,Servers!A:O,15,0)</f>
-        <v>CMS-AIC-01</v>
+        <f>VLOOKUP(C9,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F9" s="1">
         <v>13</v>
@@ -13390,8 +13434,8 @@
         <v>Totalview</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>VLOOKUP(G9,Servers!A:O,15,0)</f>
-        <v>ES1VM0325</v>
+        <f>VLOOKUP(G9,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>10</v>
@@ -13423,8 +13467,8 @@
         <v>Avaya</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>VLOOKUP(C10,Servers!A:O,15,0)</f>
-        <v>CMS-AIC-01</v>
+        <f>VLOOKUP(C10,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F10" s="1">
         <v>14</v>
@@ -13437,8 +13481,8 @@
         <v>PIF</v>
       </c>
       <c r="I10" s="1" t="str">
-        <f>VLOOKUP(G10,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G10,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>10</v>
@@ -13476,8 +13520,8 @@
         <v>Avaya</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>VLOOKUP(C11,Servers!A:O,15,0)</f>
-        <v>CMS-AIC-01</v>
+        <f>VLOOKUP(C11,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
@@ -13490,8 +13534,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f>VLOOKUP(G11,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G11,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>10</v>
@@ -13529,8 +13573,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>VLOOKUP(C12,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(C12,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F12" s="1">
         <v>5</v>
@@ -13543,8 +13587,8 @@
         <v>Sharepoint</v>
       </c>
       <c r="I12" s="1" t="str">
-        <f>VLOOKUP(G12,Servers!A:O,15,0)</f>
-        <v>https://teamatwork-sharepoint.rwe.com</v>
+        <f>VLOOKUP(G12,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>10</v>
@@ -13579,8 +13623,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>VLOOKUP(C13,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(C13,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
@@ -13593,8 +13637,8 @@
         <v>Qlikview</v>
       </c>
       <c r="I13" s="1" t="str">
-        <f>VLOOKUP(G13,Servers!A:O,15,0)</f>
-        <v>ES1WI1462</v>
+        <f>VLOOKUP(G13,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>10</v>
@@ -13629,8 +13673,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>VLOOKUP(C14,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(C14,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F14" s="1">
         <v>19</v>
@@ -13643,8 +13687,8 @@
         <v>Thinconnect</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f>VLOOKUP(G14,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-067</v>
+        <f>VLOOKUP(G14,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
@@ -13679,8 +13723,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>VLOOKUP(C15,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(C15,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F15" s="1">
         <v>3</v>
@@ -13693,8 +13737,8 @@
         <v>XM2</v>
       </c>
       <c r="I15" s="1" t="str">
-        <f>VLOOKUP(G15,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(G15,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>10</v>
@@ -13729,8 +13773,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>VLOOKUP(C16,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(C16,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -13743,8 +13787,8 @@
         <v>RMS</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>VLOOKUP(G16,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G16,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>10</v>
@@ -13779,8 +13823,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>VLOOKUP(C17,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(C17,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F17" s="1">
         <v>4</v>
@@ -13793,8 +13837,8 @@
         <v>Digip</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>VLOOKUP(G17,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <f>VLOOKUP(G17,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>10</v>
@@ -13829,8 +13873,8 @@
         <v>Digip</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>VLOOKUP(C18,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <f>VLOOKUP(C18,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F18" s="1">
         <v>14</v>
@@ -13843,8 +13887,8 @@
         <v>PIF</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>VLOOKUP(G18,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G18,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>10</v>
@@ -13882,8 +13926,8 @@
         <v>Digip</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>VLOOKUP(C19,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <f>VLOOKUP(C19,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F19" s="1">
         <v>6</v>
@@ -13896,8 +13940,8 @@
         <v>Qlikview</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>VLOOKUP(G19,Servers!A:O,15,0)</f>
-        <v>ES1WI1462</v>
+        <f>VLOOKUP(G19,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>10</v>
@@ -13932,8 +13976,8 @@
         <v>Digip</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>VLOOKUP(C20,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <f>VLOOKUP(C20,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F20" s="1">
         <v>20</v>
@@ -13946,8 +13990,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>VLOOKUP(G20,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G20,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>10</v>
@@ -13985,8 +14029,8 @@
         <v>Digip</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>VLOOKUP(C21,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-079</v>
+        <f>VLOOKUP(C21,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -13999,8 +14043,8 @@
         <v>Digip</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>VLOOKUP(G21,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <f>VLOOKUP(G21,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>10</v>
@@ -14035,8 +14079,8 @@
         <v>EDSN Gateway</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>VLOOKUP(C22,Servers!A:O,15,0)</f>
-        <v>sues-nlams1-051-vip</v>
+        <f>VLOOKUP(C22,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F22" s="1">
         <v>10</v>
@@ -14049,8 +14093,8 @@
         <v>Informatica</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>VLOOKUP(G22,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G22,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>10</v>
@@ -14088,8 +14132,8 @@
         <v>Informatica</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>VLOOKUP(C23,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(C23,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F23" s="1">
         <v>11</v>
@@ -14102,8 +14146,8 @@
         <v>Vaultage</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>VLOOKUP(G23,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS-011</v>
+        <f>VLOOKUP(G23,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>10</v>
@@ -14141,8 +14185,8 @@
         <v>Informatica</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>VLOOKUP(C24,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(C24,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F24" s="1">
         <v>34</v>
@@ -14155,8 +14199,8 @@
         <v>Automount</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>VLOOKUP(G24,Servers!A:O,15,0)</f>
-        <v>swes-nlams1-081</v>
+        <f>VLOOKUP(G24,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>10</v>
@@ -14194,8 +14238,8 @@
         <v>iProcess</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>VLOOKUP(C25,Servers!A:O,15,0)</f>
-        <v>SUESZ159</v>
+        <f>VLOOKUP(C25,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -14208,8 +14252,8 @@
         <v>XM2</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>VLOOKUP(G25,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(G25,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>10</v>
@@ -14241,8 +14285,8 @@
         <v>iProcess</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>VLOOKUP(C26,Servers!A:O,15,0)</f>
-        <v>SUESZ159</v>
+        <f>VLOOKUP(C26,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F26" s="1">
         <v>10</v>
@@ -14255,8 +14299,8 @@
         <v>Informatica</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>VLOOKUP(G26,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G26,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>10</v>
@@ -14294,8 +14338,8 @@
         <v>iProcess</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>VLOOKUP(C27,Servers!A:O,15,0)</f>
-        <v>SUESZ160</v>
+        <f>VLOOKUP(C27,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -14308,8 +14352,8 @@
         <v>Informatica</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>VLOOKUP(G27,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G27,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>10</v>
@@ -14347,8 +14391,8 @@
         <v>iProcess</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>VLOOKUP(C28,Servers!A:O,15,0)</f>
-        <v>SUESZ152</v>
+        <f>VLOOKUP(C28,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F28" s="1">
         <v>14</v>
@@ -14361,8 +14405,8 @@
         <v>PIF</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>VLOOKUP(G28,Servers!A:O,15,0)</f>
-        <v>ES1WI1212</v>
+        <f>VLOOKUP(G28,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>10</v>
@@ -14400,8 +14444,8 @@
         <v>IP Storage</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>VLOOKUP(C29,Servers!A:O,15,0)</f>
-        <v>10.233.2.134</v>
+        <f>VLOOKUP(C29,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
@@ -14414,8 +14458,8 @@
         <v>Informatica</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>VLOOKUP(G29,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G29,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>10</v>
@@ -14453,8 +14497,8 @@
         <v>ODS</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>VLOOKUP(C30,Servers!A:O,15,0)</f>
-        <v>SUESZ091</v>
+        <f>VLOOKUP(C30,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
@@ -14467,8 +14511,8 @@
         <v>RMS</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>VLOOKUP(G30,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G30,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>10</v>
@@ -14499,8 +14543,8 @@
         <v>PIF</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>VLOOKUP(C31,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C31,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F31" s="1">
         <v>18</v>
@@ -14513,8 +14557,8 @@
         <v>Audit Base</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>VLOOKUP(G31,Servers!A:O,15,0)</f>
-        <v>ftp.auditbase.nl</v>
+        <f>VLOOKUP(G31,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
@@ -14552,8 +14596,8 @@
         <v>PIF</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>VLOOKUP(C32,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C32,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F32" s="1">
         <v>6</v>
@@ -14566,8 +14610,8 @@
         <v>Qlikview</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>VLOOKUP(G32,Servers!A:O,15,0)</f>
-        <v>ES1WI1462</v>
+        <f>VLOOKUP(G32,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>10</v>
@@ -14605,8 +14649,8 @@
         <v>PIF</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>VLOOKUP(C33,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C33,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
@@ -14619,8 +14663,8 @@
         <v>Digip</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>VLOOKUP(G33,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <f>VLOOKUP(G33,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>10</v>
@@ -14658,8 +14702,8 @@
         <v>PIF</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>VLOOKUP(C34,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C34,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F34" s="1">
         <v>7</v>
@@ -14672,8 +14716,8 @@
         <v>iProcess</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>VLOOKUP(G34,Servers!A:O,15,0)</f>
-        <v>SUESZ152</v>
+        <f>VLOOKUP(G34,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>10</v>
@@ -14711,8 +14755,8 @@
         <v>PIF</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>VLOOKUP(C35,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C35,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
@@ -14725,8 +14769,8 @@
         <v>Sharepoint</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>VLOOKUP(G35,Servers!A:O,15,0)</f>
-        <v>https://teamatwork-sharepoint.rwe.com</v>
+        <f>VLOOKUP(G35,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>10</v>
@@ -14764,8 +14808,8 @@
         <v>PIF</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>VLOOKUP(C36,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C36,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F36" s="1">
         <v>22</v>
@@ -14778,8 +14822,8 @@
         <v>TIJSS</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>VLOOKUP(G36,Servers!A:O,15,0)</f>
-        <v xml:space="preserve">S031A0006.rwe.com </v>
+        <f>VLOOKUP(G36,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>10</v>
@@ -14817,8 +14861,8 @@
         <v>PIF</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>VLOOKUP(C37,Servers!A:O,15,0)</f>
-        <v>ES1WI1212</v>
+        <f>VLOOKUP(C37,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F37" s="1">
         <v>20</v>
@@ -14831,8 +14875,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>VLOOKUP(G37,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G37,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>10</v>
@@ -14870,8 +14914,8 @@
         <v>PIF</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>VLOOKUP(C38,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C38,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F38" s="1">
         <v>20</v>
@@ -14884,8 +14928,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f>VLOOKUP(G38,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G38,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>10</v>
@@ -14923,8 +14967,8 @@
         <v>PIF</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>VLOOKUP(C39,Servers!A:O,15,0)</f>
-        <v>ES1WI1212</v>
+        <f>VLOOKUP(C39,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F39" s="1">
         <v>14</v>
@@ -14937,8 +14981,8 @@
         <v>PIF</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f>VLOOKUP(G39,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G39,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>10</v>
@@ -14970,8 +15014,8 @@
         <v>PIF</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>VLOOKUP(C40,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(C40,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F40" s="1">
         <v>14</v>
@@ -14984,8 +15028,8 @@
         <v>PIF</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f>VLOOKUP(G40,Servers!A:O,15,0)</f>
-        <v>W2K3-FOR03P</v>
+        <f>VLOOKUP(G40,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>10</v>
@@ -15017,8 +15061,8 @@
         <v>RMS</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>VLOOKUP(C41,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C41,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -15031,8 +15075,8 @@
         <v>Aprimo</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f>VLOOKUP(G41,Servers!A:O,15,0)</f>
-        <v>SWESR119</v>
+        <f>VLOOKUP(G41,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>10</v>
@@ -15067,8 +15111,8 @@
         <v>RMS</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>VLOOKUP(C42,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C42,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F42" s="1">
         <v>15</v>
@@ -15081,8 +15125,8 @@
         <v>SAS</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f>VLOOKUP(G42,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-082</v>
+        <f>VLOOKUP(G42,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>10</v>
@@ -15117,8 +15161,8 @@
         <v>RMS</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>VLOOKUP(C43,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C43,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F43" s="1">
         <v>27</v>
@@ -15131,8 +15175,8 @@
         <v>mail.essent.nl</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f>VLOOKUP(G43,Servers!A:O,15,0)</f>
-        <v>mail.essent.nl</v>
+        <f>VLOOKUP(G43,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>10</v>
@@ -15170,8 +15214,8 @@
         <v>RMS</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>VLOOKUP(C44,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C44,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F44" s="1">
         <v>26</v>
@@ -15184,8 +15228,8 @@
         <v>RMS Portal</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f>VLOOKUP(G44,Servers!A:O,15,0)</f>
-        <v>W2K3-RMS02P</v>
+        <f>VLOOKUP(G44,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>10</v>
@@ -15220,8 +15264,8 @@
         <v>RMS</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>VLOOKUP(C45,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C45,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F45" s="1">
         <v>14</v>
@@ -15234,8 +15278,8 @@
         <v>PIF</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f>VLOOKUP(G45,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G45,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>9</v>
@@ -15273,8 +15317,8 @@
         <v>RMS</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>VLOOKUP(C46,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C46,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F46" s="1">
         <v>20</v>
@@ -15287,8 +15331,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f>VLOOKUP(G46,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G46,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>10</v>
@@ -15323,8 +15367,8 @@
         <v>RMS</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>VLOOKUP(C47,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C47,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F47" s="1">
         <v>31</v>
@@ -15337,8 +15381,8 @@
         <v>RWE ftp</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f>VLOOKUP(G47,Servers!A:O,15,0)</f>
-        <v>ftpservice.rwe.com</v>
+        <f>VLOOKUP(G47,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>10</v>
@@ -15369,8 +15413,8 @@
         <v>RMS</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>VLOOKUP(C48,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C48,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -15383,8 +15427,8 @@
         <v>XM2</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f>VLOOKUP(G48,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(G48,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>10</v>
@@ -15415,8 +15459,8 @@
         <v>RMS</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>VLOOKUP(C49,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C49,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F49" s="1">
         <v>32</v>
@@ -15429,8 +15473,8 @@
         <v>ODS</v>
       </c>
       <c r="I49" s="1" t="str">
-        <f>VLOOKUP(G49,Servers!A:O,15,0)</f>
-        <v>SUESZ091</v>
+        <f>VLOOKUP(G49,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>10</v>
@@ -15461,8 +15505,8 @@
         <v>RMS</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>VLOOKUP(C50,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(C50,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F50" s="1">
         <v>25</v>
@@ -15475,8 +15519,8 @@
         <v>Wasstraat</v>
       </c>
       <c r="I50" s="1" t="str">
-        <f>VLOOKUP(G50,Servers!A:O,15,0)</f>
-        <v>W2K-DWH01P</v>
+        <f>VLOOKUP(G50,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>10</v>
@@ -15507,8 +15551,8 @@
         <v>RMS</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>VLOOKUP(C51,Servers!A:O,15,0)</f>
-        <v>ES1VM0145</v>
+        <f>VLOOKUP(C51,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F51" s="1">
         <v>2</v>
@@ -15521,8 +15565,8 @@
         <v>RMS</v>
       </c>
       <c r="I51" s="1" t="str">
-        <f>VLOOKUP(G51,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G51,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>10</v>
@@ -15547,8 +15591,8 @@
         <v>RMS Portal</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>VLOOKUP(C52,Servers!A:O,15,0)</f>
-        <v>W2K3-RMS02P</v>
+        <f>VLOOKUP(C52,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F52" s="1">
         <v>2</v>
@@ -15561,8 +15605,8 @@
         <v>RMS</v>
       </c>
       <c r="I52" s="1" t="str">
-        <f>VLOOKUP(G52,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G52,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>10</v>
@@ -15597,8 +15641,8 @@
         <v>RWE AD servers</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>VLOOKUP(C53,Servers!A:O,15,0)</f>
-        <v>GROUP.RWE.COM/DATA</v>
+        <f>VLOOKUP(C53,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F53" s="1">
         <v>14</v>
@@ -15611,8 +15655,8 @@
         <v>PIF</v>
       </c>
       <c r="I53" s="1" t="str">
-        <f>VLOOKUP(G53,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G53,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>10</v>
@@ -15650,8 +15694,8 @@
         <v>RWE ftp</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>VLOOKUP(C54,Servers!A:O,15,0)</f>
-        <v>ftpservice.rwe.com</v>
+        <f>VLOOKUP(C54,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F54" s="1">
         <v>2</v>
@@ -15664,8 +15708,8 @@
         <v>RMS</v>
       </c>
       <c r="I54" s="1" t="str">
-        <f>VLOOKUP(G54,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G54,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>10</v>
@@ -15696,8 +15740,8 @@
         <v>SAP CRM</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>VLOOKUP(C55,Servers!A:O,15,0)</f>
-        <v>SUESZ078</v>
+        <f>VLOOKUP(C55,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -15710,8 +15754,8 @@
         <v>XM2</v>
       </c>
       <c r="I55" s="1" t="str">
-        <f>VLOOKUP(G55,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(G55,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>10</v>
@@ -15746,8 +15790,8 @@
         <v>SAP CRM</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>VLOOKUP(C56,Servers!A:O,15,0)</f>
-        <v>SUESZ078</v>
+        <f>VLOOKUP(C56,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F56" s="1">
         <v>10</v>
@@ -15760,8 +15804,8 @@
         <v>Informatica</v>
       </c>
       <c r="I56" s="1" t="str">
-        <f>VLOOKUP(G56,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G56,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>10</v>
@@ -15799,8 +15843,8 @@
         <v>SAP CRM</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>VLOOKUP(C57,Servers!A:O,15,0)</f>
-        <v>SUESZ079</v>
+        <f>VLOOKUP(C57,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F57" s="1">
         <v>10</v>
@@ -15813,8 +15857,8 @@
         <v>Informatica</v>
       </c>
       <c r="I57" s="1" t="str">
-        <f>VLOOKUP(G57,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G57,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>10</v>
@@ -15852,8 +15896,8 @@
         <v>SAP CRM</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>VLOOKUP(C58,Servers!A:O,15,0)</f>
-        <v>SUESZ080</v>
+        <f>VLOOKUP(C58,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F58" s="1">
         <v>10</v>
@@ -15866,8 +15910,8 @@
         <v>Informatica</v>
       </c>
       <c r="I58" s="1" t="str">
-        <f>VLOOKUP(G58,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G58,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>10</v>
@@ -15905,8 +15949,8 @@
         <v>SAP ISU</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>VLOOKUP(C59,Servers!A:O,15,0)</f>
-        <v>SUESZ081</v>
+        <f>VLOOKUP(C59,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
@@ -15919,8 +15963,8 @@
         <v>XM2</v>
       </c>
       <c r="I59" s="1" t="str">
-        <f>VLOOKUP(G59,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(G59,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>10</v>
@@ -15955,8 +15999,8 @@
         <v>SAP ISU</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>VLOOKUP(C60,Servers!A:O,15,0)</f>
-        <v>SUESZ081</v>
+        <f>VLOOKUP(C60,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F60" s="1">
         <v>10</v>
@@ -15969,8 +16013,8 @@
         <v>Informatica</v>
       </c>
       <c r="I60" s="1" t="str">
-        <f>VLOOKUP(G60,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G60,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>10</v>
@@ -16008,8 +16052,8 @@
         <v>SAP ISU</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>VLOOKUP(C61,Servers!A:O,15,0)</f>
-        <v>SUESZ082</v>
+        <f>VLOOKUP(C61,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F61" s="1">
         <v>10</v>
@@ -16022,8 +16066,8 @@
         <v>Informatica</v>
       </c>
       <c r="I61" s="1" t="str">
-        <f>VLOOKUP(G61,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G61,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>10</v>
@@ -16061,8 +16105,8 @@
         <v>SAP ISU</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>VLOOKUP(C62,Servers!A:O,15,0)</f>
-        <v>SUESZ083</v>
+        <f>VLOOKUP(C62,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F62" s="1">
         <v>10</v>
@@ -16075,8 +16119,8 @@
         <v>Informatica</v>
       </c>
       <c r="I62" s="1" t="str">
-        <f>VLOOKUP(G62,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G62,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>10</v>
@@ -16114,8 +16158,8 @@
         <v>SAS</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>VLOOKUP(C63,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-082</v>
+        <f>VLOOKUP(C63,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F63" s="1">
         <v>2</v>
@@ -16128,8 +16172,8 @@
         <v>RMS</v>
       </c>
       <c r="I63" s="1" t="str">
-        <f>VLOOKUP(G63,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G63,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>10</v>
@@ -16164,8 +16208,8 @@
         <v>Sharepoint</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>VLOOKUP(C64,Servers!A:O,15,0)</f>
-        <v>https://teamatwork-sharepoint.rwe.com</v>
+        <f>VLOOKUP(C64,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F64" s="1">
         <v>14</v>
@@ -16178,8 +16222,8 @@
         <v>PIF</v>
       </c>
       <c r="I64" s="1" t="str">
-        <f>VLOOKUP(G64,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G64,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>10</v>
@@ -16217,8 +16261,8 @@
         <v>Thinconnect</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>VLOOKUP(C65,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-067</v>
+        <f>VLOOKUP(C65,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F65" s="1">
         <v>14</v>
@@ -16231,8 +16275,8 @@
         <v>PIF</v>
       </c>
       <c r="I65" s="1" t="str">
-        <f>VLOOKUP(G65,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G65,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>10</v>
@@ -16270,8 +16314,8 @@
         <v>Thinconnect</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>VLOOKUP(C66,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-067</v>
+        <f>VLOOKUP(C66,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F66" s="1">
         <v>3</v>
@@ -16284,8 +16328,8 @@
         <v>XM2</v>
       </c>
       <c r="I66" s="1" t="str">
-        <f>VLOOKUP(G66,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(G66,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>10</v>
@@ -16317,8 +16361,8 @@
         <v>Thinconnect</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>VLOOKUP(C67,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-067</v>
+        <f>VLOOKUP(C67,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F67" s="1">
         <v>20</v>
@@ -16331,8 +16375,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I67" s="1" t="str">
-        <f>VLOOKUP(G67,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G67,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>10</v>
@@ -16367,8 +16411,8 @@
         <v>Thinconnect</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>VLOOKUP(C68,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-067</v>
+        <f>VLOOKUP(C68,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F68" s="1">
         <v>20</v>
@@ -16381,8 +16425,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I68" s="1" t="str">
-        <f>VLOOKUP(G68,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G68,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>10</v>
@@ -16417,8 +16461,8 @@
         <v>Totalview</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>VLOOKUP(C69,Servers!A:O,15,0)</f>
-        <v>ES1VM0325</v>
+        <f>VLOOKUP(C69,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F69" s="1">
         <v>14</v>
@@ -16431,8 +16475,8 @@
         <v>PIF</v>
       </c>
       <c r="I69" s="1" t="str">
-        <f>VLOOKUP(G69,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G69,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>10</v>
@@ -16470,8 +16514,8 @@
         <v>Totalview</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>VLOOKUP(C70,Servers!A:O,15,0)</f>
-        <v>ES1VM0325</v>
+        <f>VLOOKUP(C70,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F70" s="1">
         <v>14</v>
@@ -16484,8 +16528,8 @@
         <v>PIF</v>
       </c>
       <c r="I70" s="1" t="str">
-        <f>VLOOKUP(G70,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G70,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>10</v>
@@ -16523,8 +16567,8 @@
         <v>Totalview</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>VLOOKUP(C71,Servers!A:O,15,0)</f>
-        <v>ES1VM0325</v>
+        <f>VLOOKUP(C71,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F71" s="1">
         <v>20</v>
@@ -16537,8 +16581,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I71" s="1" t="str">
-        <f>VLOOKUP(G71,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G71,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>10</v>
@@ -16573,8 +16617,8 @@
         <v>Totalview</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>VLOOKUP(C72,Servers!A:O,15,0)</f>
-        <v>ES1VM0325</v>
+        <f>VLOOKUP(C72,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F72" s="1">
         <v>20</v>
@@ -16587,8 +16631,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I72" s="1" t="str">
-        <f>VLOOKUP(G72,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G72,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>10</v>
@@ -16623,8 +16667,8 @@
         <v>Totalview</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>VLOOKUP(C73,Servers!A:O,15,0)</f>
-        <v>ES1VM0325</v>
+        <f>VLOOKUP(C73,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F73" s="1">
         <v>10</v>
@@ -16637,8 +16681,8 @@
         <v>Informatica</v>
       </c>
       <c r="I73" s="1" t="str">
-        <f>VLOOKUP(G73,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G73,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>10</v>
@@ -16676,8 +16720,8 @@
         <v>Totalview</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>VLOOKUP(C74,Servers!A:O,15,0)</f>
-        <v>ES1VM0325</v>
+        <f>VLOOKUP(C74,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F74" s="1">
         <v>13</v>
@@ -16690,8 +16734,8 @@
         <v>Totalview</v>
       </c>
       <c r="I74" s="1" t="str">
-        <f>VLOOKUP(G74,Servers!A:O,15,0)</f>
-        <v>ES1VM0324</v>
+        <f>VLOOKUP(G74,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>10</v>
@@ -16723,8 +16767,8 @@
         <v>TPM</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>VLOOKUP(C75,Servers!A:O,15,0)</f>
-        <v>SUESZ158</v>
+        <f>VLOOKUP(C75,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F75" s="1">
         <v>10</v>
@@ -16737,8 +16781,8 @@
         <v>Informatica</v>
       </c>
       <c r="I75" s="1" t="str">
-        <f>VLOOKUP(G75,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G75,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>10</v>
@@ -16776,8 +16820,8 @@
         <v>Vaultage</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>VLOOKUP(C76,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS-011</v>
+        <f>VLOOKUP(C76,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F76" s="1">
         <v>6</v>
@@ -16790,8 +16834,8 @@
         <v>Qlikview</v>
       </c>
       <c r="I76" s="1" t="str">
-        <f>VLOOKUP(G76,Servers!A:O,15,0)</f>
-        <v>ES1WI1462</v>
+        <f>VLOOKUP(G76,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>10</v>
@@ -16826,8 +16870,8 @@
         <v>Vaultage</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>VLOOKUP(C77,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS-011</v>
+        <f>VLOOKUP(C77,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F77" s="1">
         <v>10</v>
@@ -16840,8 +16884,8 @@
         <v>Informatica</v>
       </c>
       <c r="I77" s="1" t="str">
-        <f>VLOOKUP(G77,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G77,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>10</v>
@@ -16876,8 +16920,8 @@
         <v>Vaultage</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>VLOOKUP(C78,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS-011</v>
+        <f>VLOOKUP(C78,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F78" s="1">
         <v>20</v>
@@ -16890,8 +16934,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I78" s="1" t="str">
-        <f>VLOOKUP(G78,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G78,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>10</v>
@@ -16926,8 +16970,8 @@
         <v>Wasstraat</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>VLOOKUP(C79,Servers!A:O,15,0)</f>
-        <v>W2K-DWH01P</v>
+        <f>VLOOKUP(C79,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F79" s="1">
         <v>2</v>
@@ -16940,8 +16984,8 @@
         <v>RMS</v>
       </c>
       <c r="I79" s="1" t="str">
-        <f>VLOOKUP(G79,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G79,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>9</v>
@@ -16976,8 +17020,8 @@
         <v>XM2</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>VLOOKUP(C80,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C80,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F80" s="1">
         <v>2</v>
@@ -16990,8 +17034,8 @@
         <v>RMS</v>
       </c>
       <c r="I80" s="1" t="str">
-        <f>VLOOKUP(G80,Servers!A:O,15,0)</f>
-        <v>ES1WI1423</v>
+        <f>VLOOKUP(G80,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>10</v>
@@ -17026,8 +17070,8 @@
         <v>XM2</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>VLOOKUP(C81,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C81,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F81" s="1">
         <v>4</v>
@@ -17040,8 +17084,8 @@
         <v>Digip</v>
       </c>
       <c r="I81" s="1" t="str">
-        <f>VLOOKUP(G81,Servers!A:O,15,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <f>VLOOKUP(G81,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>10</v>
@@ -17079,8 +17123,8 @@
         <v>XM2</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>VLOOKUP(C82,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C82,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F82" s="1">
         <v>6</v>
@@ -17093,8 +17137,8 @@
         <v>Qlikview</v>
       </c>
       <c r="I82" s="1" t="str">
-        <f>VLOOKUP(G82,Servers!A:O,15,0)</f>
-        <v>ES1WI1462</v>
+        <f>VLOOKUP(G82,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>10</v>
@@ -17129,8 +17173,8 @@
         <v>XM2</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>VLOOKUP(C83,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C83,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F83" s="1">
         <v>14</v>
@@ -17143,8 +17187,8 @@
         <v>PIF</v>
       </c>
       <c r="I83" s="1" t="str">
-        <f>VLOOKUP(G83,Servers!A:O,15,0)</f>
-        <v>ES1WI1470</v>
+        <f>VLOOKUP(G83,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>10</v>
@@ -17182,8 +17226,8 @@
         <v>XM2</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>VLOOKUP(C84,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C84,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F84" s="1">
         <v>16</v>
@@ -17195,9 +17239,9 @@
         <f>VLOOKUP(F84,Applications!A:N,3,0)</f>
         <v>ACL</v>
       </c>
-      <c r="I84" s="1">
-        <f>VLOOKUP(G84,Servers!A:O,15,0)</f>
-        <v>0</v>
+      <c r="I84" s="1" t="str">
+        <f>VLOOKUP(G84,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>10</v>
@@ -17232,8 +17276,8 @@
         <v>XM2</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>VLOOKUP(C85,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C85,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F85" s="1">
         <v>7</v>
@@ -17245,9 +17289,9 @@
         <f>VLOOKUP(F85,Applications!A:N,3,0)</f>
         <v>iProcess</v>
       </c>
-      <c r="I85" s="1">
-        <f>VLOOKUP(G85,Servers!A:O,15,0)</f>
-        <v>0</v>
+      <c r="I85" s="1" t="str">
+        <f>VLOOKUP(G85,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>10</v>
@@ -17282,8 +17326,8 @@
         <v>XM2</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>VLOOKUP(C86,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C86,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F86" s="1">
         <v>10</v>
@@ -17296,8 +17340,8 @@
         <v>Informatica</v>
       </c>
       <c r="I86" s="1" t="str">
-        <f>VLOOKUP(G86,Servers!A:O,15,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <f>VLOOKUP(G86,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>10</v>
@@ -17332,8 +17376,8 @@
         <v>TEP</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>VLOOKUP(C87,Servers!A:O,15,0)</f>
-        <v>31.222.183.64 (rackspace cloud)</v>
+        <f>VLOOKUP(C87,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F87" s="1">
         <v>20</v>
@@ -17346,8 +17390,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I87" s="1" t="str">
-        <f>VLOOKUP(G87,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G87,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>10</v>
@@ -17382,8 +17426,8 @@
         <v>XM2</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>VLOOKUP(C88,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C88,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F88" s="1">
         <v>20</v>
@@ -17396,8 +17440,8 @@
         <v>BPS DWH</v>
       </c>
       <c r="I88" s="1" t="str">
-        <f>VLOOKUP(G88,Servers!A:O,15,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <f>VLOOKUP(G88,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>10</v>
@@ -17432,8 +17476,8 @@
         <v>XM2</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>VLOOKUP(C89,Servers!A:O,15,0)</f>
-        <v>SUESZ102</v>
+        <f>VLOOKUP(C89,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F89" s="1">
         <v>27</v>
@@ -17446,8 +17490,8 @@
         <v>mail.essent.nl</v>
       </c>
       <c r="I89" s="1" t="str">
-        <f>VLOOKUP(G89,Servers!A:O,15,0)</f>
-        <v>mail.essent.nl</v>
+        <f>VLOOKUP(G89,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>10</v>
@@ -17482,8 +17526,8 @@
         <v>Qlikview</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>VLOOKUP(C90,Servers!A:O,15,0)</f>
-        <v>ES1WI1463</v>
+        <f>VLOOKUP(C90,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F90" s="1">
         <v>6</v>
@@ -17496,8 +17540,8 @@
         <v>Qlikview</v>
       </c>
       <c r="I90" s="1" t="str">
-        <f>VLOOKUP(G90,Servers!A:O,15,0)</f>
-        <v>ES1WI1462</v>
+        <f>VLOOKUP(G90,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>10</v>
@@ -17532,8 +17576,8 @@
         <v>AIA ITP B2B</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>VLOOKUP(C91,Servers!A:O,15,0)</f>
-        <v>SWESR069</v>
+        <f>VLOOKUP(C91,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F91" s="1">
         <v>36</v>
@@ -17546,8 +17590,8 @@
         <v>Tibco BW B2B</v>
       </c>
       <c r="I91" s="1" t="str">
-        <f>VLOOKUP(G91,Servers!A:O,15,0)</f>
-        <v>SUESZ010*</v>
+        <f>VLOOKUP(G91,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>10</v>
@@ -17578,8 +17622,8 @@
         <v>Tibco BW B2B</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>VLOOKUP(C92,Servers!A:O,15,0)</f>
-        <v>SUESZ010*</v>
+        <f>VLOOKUP(C92,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="F92" s="1">
         <v>29</v>
@@ -17592,8 +17636,8 @@
         <v>AIA ITP B2B</v>
       </c>
       <c r="I92" s="1" t="str">
-        <f>VLOOKUP(G92,Servers!A:O,15,0)</f>
-        <v>SWESR069</v>
+        <f>VLOOKUP(G92,Servers!A:P,15,0)</f>
+        <v>X</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>10</v>
@@ -17714,11 +17758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AQ332"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+      <selection activeCell="Z318" sqref="Z318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.875" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -17883,7 +17926,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="2" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A2" s="26" t="s">
         <v>181</v>
       </c>
@@ -17965,7 +18008,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="3" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A3" s="26" t="s">
         <v>181</v>
       </c>
@@ -18047,7 +18090,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="4" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A4" s="26" t="s">
         <v>181</v>
       </c>
@@ -18129,7 +18172,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="5" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A5" s="26" t="s">
         <v>181</v>
       </c>
@@ -18215,7 +18258,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="6" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A6" s="26" t="s">
         <v>181</v>
       </c>
@@ -18299,7 +18342,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="7" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A7" s="26" t="s">
         <v>181</v>
       </c>
@@ -18383,7 +18426,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="8" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A8" s="26" t="s">
         <v>216</v>
       </c>
@@ -18473,7 +18516,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="9" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A9" s="26" t="s">
         <v>216</v>
       </c>
@@ -18563,7 +18606,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="10" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A10" s="26" t="s">
         <v>233</v>
       </c>
@@ -18653,7 +18696,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="11" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A11" s="26" t="s">
         <v>233</v>
       </c>
@@ -18741,7 +18784,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="12" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A12" s="26" t="s">
         <v>233</v>
       </c>
@@ -18841,7 +18884,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="13" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A13" s="26" t="s">
         <v>248</v>
       </c>
@@ -18933,7 +18976,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="14" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A14" s="26" t="s">
         <v>248</v>
       </c>
@@ -19023,7 +19066,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="15" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A15" s="26" t="s">
         <v>233</v>
       </c>
@@ -19107,7 +19150,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="16" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A16" s="26" t="s">
         <v>233</v>
       </c>
@@ -19197,7 +19240,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="17" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A17" s="26" t="s">
         <v>233</v>
       </c>
@@ -19291,7 +19334,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="18" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A18" s="26" t="s">
         <v>233</v>
       </c>
@@ -19383,7 +19426,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="19" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A19" s="26" t="s">
         <v>233</v>
       </c>
@@ -19475,7 +19518,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="20" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A20" s="26" t="s">
         <v>233</v>
       </c>
@@ -19573,7 +19616,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="21" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A21" s="26" t="s">
         <v>233</v>
       </c>
@@ -19671,7 +19714,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="22" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A22" s="26" t="s">
         <v>233</v>
       </c>
@@ -19763,7 +19806,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="23" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A23" s="26" t="s">
         <v>233</v>
       </c>
@@ -19855,7 +19898,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="24" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A24" s="26" t="s">
         <v>233</v>
       </c>
@@ -19947,7 +19990,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="25" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A25" s="26" t="s">
         <v>181</v>
       </c>
@@ -20038,7 +20081,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="26" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A26" s="26" t="s">
         <v>181</v>
       </c>
@@ -20127,7 +20170,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="27" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A27" s="26" t="s">
         <v>300</v>
       </c>
@@ -20211,7 +20254,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="28" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A28" s="26" t="s">
         <v>300</v>
       </c>
@@ -20295,7 +20338,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="29" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A29" s="26" t="s">
         <v>300</v>
       </c>
@@ -20379,7 +20422,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="30" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A30" s="26" t="s">
         <v>300</v>
       </c>
@@ -20465,7 +20508,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="31" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A31" s="26" t="s">
         <v>313</v>
       </c>
@@ -20554,7 +20597,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="32" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="32" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A32" s="26" t="s">
         <v>313</v>
       </c>
@@ -20643,7 +20686,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="33" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A33" s="26" t="s">
         <v>313</v>
       </c>
@@ -20732,7 +20775,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="34" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A34" s="26" t="s">
         <v>313</v>
       </c>
@@ -20821,7 +20864,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="35" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A35" s="26" t="s">
         <v>313</v>
       </c>
@@ -20914,7 +20957,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="36" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A36" s="26" t="s">
         <v>313</v>
       </c>
@@ -21007,7 +21050,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="37" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A37" s="26" t="s">
         <v>313</v>
       </c>
@@ -21100,7 +21143,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="38" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A38" s="26" t="s">
         <v>313</v>
       </c>
@@ -21193,7 +21236,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="39" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A39" s="26" t="s">
         <v>313</v>
       </c>
@@ -21286,7 +21329,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="40" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A40" s="26" t="s">
         <v>313</v>
       </c>
@@ -21385,7 +21428,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="41" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A41" s="26" t="s">
         <v>313</v>
       </c>
@@ -21478,7 +21521,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="42" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="42" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A42" s="26" t="s">
         <v>313</v>
       </c>
@@ -21571,7 +21614,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="43" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="43" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A43" s="26" t="s">
         <v>313</v>
       </c>
@@ -21664,7 +21707,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="44" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="44" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A44" s="26" t="s">
         <v>313</v>
       </c>
@@ -21757,7 +21800,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="45" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="45" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A45" s="26" t="s">
         <v>313</v>
       </c>
@@ -21852,7 +21895,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="46" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="46" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A46" s="26" t="s">
         <v>313</v>
       </c>
@@ -21947,7 +21990,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="47" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="47" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A47" s="26" t="s">
         <v>313</v>
       </c>
@@ -22042,7 +22085,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="48" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A48" s="26" t="s">
         <v>313</v>
       </c>
@@ -22137,7 +22180,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="49" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A49" s="26" t="s">
         <v>313</v>
       </c>
@@ -22232,7 +22275,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="50" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A50" s="26" t="s">
         <v>313</v>
       </c>
@@ -22327,7 +22370,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="51" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A51" s="26" t="s">
         <v>313</v>
       </c>
@@ -22422,7 +22465,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="52" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="52" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A52" s="26" t="s">
         <v>313</v>
       </c>
@@ -22517,7 +22560,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="53" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="53" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A53" s="26" t="s">
         <v>313</v>
       </c>
@@ -22612,7 +22655,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="54" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A54" s="26" t="s">
         <v>313</v>
       </c>
@@ -22707,7 +22750,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="55" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A55" s="26" t="s">
         <v>313</v>
       </c>
@@ -22802,7 +22845,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="56" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A56" s="26" t="s">
         <v>233</v>
       </c>
@@ -22902,7 +22945,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="57" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="57" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A57" s="26" t="s">
         <v>300</v>
       </c>
@@ -22994,7 +23037,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="58" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="58" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A58" s="26" t="s">
         <v>300</v>
       </c>
@@ -23086,7 +23129,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="59" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A59" s="26" t="s">
         <v>248</v>
       </c>
@@ -23178,7 +23221,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="60" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="60" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A60" s="26" t="s">
         <v>248</v>
       </c>
@@ -23270,7 +23313,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="61" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A61" s="26" t="s">
         <v>233</v>
       </c>
@@ -23370,7 +23413,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="62" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="62" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A62" s="26" t="s">
         <v>216</v>
       </c>
@@ -23462,7 +23505,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="63" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A63" s="26" t="s">
         <v>216</v>
       </c>
@@ -23554,7 +23597,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="64" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="64" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A64" s="26" t="s">
         <v>216</v>
       </c>
@@ -23646,7 +23689,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="65" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A65" s="26" t="s">
         <v>300</v>
       </c>
@@ -23752,7 +23795,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="66" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A66" s="26" t="s">
         <v>300</v>
       </c>
@@ -23858,7 +23901,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="67" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A67" s="26" t="s">
         <v>216</v>
       </c>
@@ -23950,7 +23993,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="68" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="68" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A68" s="26" t="s">
         <v>300</v>
       </c>
@@ -24046,7 +24089,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="69" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="69" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A69" s="26" t="s">
         <v>300</v>
       </c>
@@ -24142,7 +24185,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="70" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="70" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A70" s="26" t="s">
         <v>248</v>
       </c>
@@ -24234,7 +24277,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="71" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A71" s="26" t="s">
         <v>248</v>
       </c>
@@ -24326,7 +24369,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="72" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="72" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A72" s="26" t="s">
         <v>248</v>
       </c>
@@ -24418,7 +24461,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="73" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A73" s="26" t="s">
         <v>248</v>
       </c>
@@ -24510,7 +24553,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="74" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A74" s="26" t="s">
         <v>216</v>
       </c>
@@ -24604,7 +24647,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="75" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A75" s="26" t="s">
         <v>216</v>
       </c>
@@ -24696,7 +24739,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="76" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="76" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A76" s="26" t="s">
         <v>216</v>
       </c>
@@ -24788,7 +24831,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="77" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="77" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A77" s="26" t="s">
         <v>216</v>
       </c>
@@ -24884,7 +24927,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="78" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="78" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A78" s="26" t="s">
         <v>216</v>
       </c>
@@ -24978,7 +25021,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="79" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="79" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A79" s="26" t="s">
         <v>300</v>
       </c>
@@ -25080,7 +25123,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="80" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="80" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A80" s="26" t="s">
         <v>300</v>
       </c>
@@ -25182,7 +25225,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="81" spans="1:42" s="26" customFormat="1" ht="12" hidden="1">
+    <row r="81" spans="1:42" s="26" customFormat="1" ht="12">
       <c r="A81" s="38" t="s">
         <v>233</v>
       </c>
@@ -25272,7 +25315,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="1:42" s="26" customFormat="1" ht="12" hidden="1">
+    <row r="82" spans="1:42" s="26" customFormat="1" ht="12">
       <c r="A82" s="38" t="s">
         <v>233</v>
       </c>
@@ -25364,7 +25407,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="83" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="83" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A83" s="26" t="s">
         <v>216</v>
       </c>
@@ -25648,7 +25691,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="86" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="86" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A86" s="26" t="s">
         <v>313</v>
       </c>
@@ -25738,7 +25781,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="87" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A87" s="26" t="s">
         <v>248</v>
       </c>
@@ -25830,7 +25873,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="88" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A88" s="26" t="s">
         <v>248</v>
       </c>
@@ -25926,7 +25969,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="89" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="89" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A89" s="26" t="s">
         <v>233</v>
       </c>
@@ -26018,7 +26061,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="90" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="90" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A90" s="26" t="s">
         <v>248</v>
       </c>
@@ -26110,7 +26153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="91" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A91" s="26" t="s">
         <v>248</v>
       </c>
@@ -26202,7 +26245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="92" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A92" s="26" t="s">
         <v>248</v>
       </c>
@@ -26296,7 +26339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="93" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A93" s="26" t="s">
         <v>248</v>
       </c>
@@ -26390,7 +26433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="94" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A94" s="26" t="s">
         <v>248</v>
       </c>
@@ -26482,7 +26525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="95" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A95" s="26" t="s">
         <v>248</v>
       </c>
@@ -26574,7 +26617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="96" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A96" s="26" t="s">
         <v>248</v>
       </c>
@@ -26666,7 +26709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="97" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A97" s="26" t="s">
         <v>248</v>
       </c>
@@ -26760,7 +26803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="98" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A98" s="26" t="s">
         <v>248</v>
       </c>
@@ -26852,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="99" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A99" s="26" t="s">
         <v>248</v>
       </c>
@@ -26944,7 +26987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="100" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A100" s="26" t="s">
         <v>248</v>
       </c>
@@ -27036,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="101" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A101" s="26" t="s">
         <v>248</v>
       </c>
@@ -27312,7 +27355,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="104" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="104" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A104" s="26" t="s">
         <v>313</v>
       </c>
@@ -27400,7 +27443,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="105" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="105" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A105" s="26" t="s">
         <v>216</v>
       </c>
@@ -27490,7 +27533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="106" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A106" s="26" t="s">
         <v>300</v>
       </c>
@@ -27594,7 +27637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="107" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A107" s="26" t="s">
         <v>300</v>
       </c>
@@ -27698,7 +27741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="108" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A108" s="26" t="s">
         <v>216</v>
       </c>
@@ -27788,7 +27831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="109" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A109" s="26" t="s">
         <v>630</v>
       </c>
@@ -27888,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="110" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A110" s="26" t="s">
         <v>300</v>
       </c>
@@ -27980,7 +28023,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="111" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="111" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A111" s="26" t="s">
         <v>300</v>
       </c>
@@ -28074,7 +28117,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="112" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="112" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A112" s="26" t="s">
         <v>300</v>
       </c>
@@ -28170,7 +28213,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="113" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="113" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A113" s="26" t="s">
         <v>248</v>
       </c>
@@ -28260,7 +28303,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="114" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="114" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A114" s="26" t="s">
         <v>248</v>
       </c>
@@ -28350,7 +28393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="115" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A115" s="26" t="s">
         <v>248</v>
       </c>
@@ -28440,7 +28483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="116" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A116" s="26" t="s">
         <v>300</v>
       </c>
@@ -28538,7 +28581,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="117" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="117" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A117" s="26" t="s">
         <v>233</v>
       </c>
@@ -28630,7 +28673,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="118" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A118" s="26" t="s">
         <v>216</v>
       </c>
@@ -28720,7 +28763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="119" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A119" s="26" t="s">
         <v>248</v>
       </c>
@@ -28816,7 +28859,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="120" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="120" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A120" s="26" t="s">
         <v>216</v>
       </c>
@@ -28908,7 +28951,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="121" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="121" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A121" s="26" t="s">
         <v>216</v>
       </c>
@@ -29000,7 +29043,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="122" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="122" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A122" s="26" t="s">
         <v>216</v>
       </c>
@@ -29092,7 +29135,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="123" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="123" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A123" s="26" t="s">
         <v>216</v>
       </c>
@@ -29184,7 +29227,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="124" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="124" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A124" s="26" t="s">
         <v>216</v>
       </c>
@@ -29276,7 +29319,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="125" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="125" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A125" s="26" t="s">
         <v>216</v>
       </c>
@@ -29370,7 +29413,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="126" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="126" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A126" s="26" t="s">
         <v>216</v>
       </c>
@@ -29464,7 +29507,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="127" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="127" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A127" s="26" t="s">
         <v>216</v>
       </c>
@@ -29560,7 +29603,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="128" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="128" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A128" s="26" t="s">
         <v>216</v>
       </c>
@@ -29656,7 +29699,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="129" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="129" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A129" s="26" t="s">
         <v>300</v>
       </c>
@@ -29750,7 +29793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="130" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A130" s="26" t="s">
         <v>216</v>
       </c>
@@ -29846,7 +29889,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="131" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="131" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A131" s="26" t="s">
         <v>216</v>
       </c>
@@ -29942,7 +29985,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="132" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="132" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A132" s="26" t="s">
         <v>216</v>
       </c>
@@ -30036,7 +30079,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="133" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="133" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A133" s="26" t="s">
         <v>216</v>
       </c>
@@ -30128,7 +30171,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="134" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="134" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A134" s="26" t="s">
         <v>216</v>
       </c>
@@ -30220,7 +30263,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="135" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="135" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A135" s="26" t="s">
         <v>216</v>
       </c>
@@ -30314,7 +30357,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="136" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="136" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A136" s="26" t="s">
         <v>216</v>
       </c>
@@ -30412,7 +30455,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="137" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="137" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A137" s="26" t="s">
         <v>216</v>
       </c>
@@ -30510,7 +30553,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="138" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="138" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A138" s="26" t="s">
         <v>216</v>
       </c>
@@ -30600,7 +30643,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="139" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="139" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A139" s="26" t="s">
         <v>216</v>
       </c>
@@ -30690,7 +30733,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="140" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="140" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A140" s="26" t="s">
         <v>216</v>
       </c>
@@ -30784,7 +30827,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="141" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="141" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A141" s="26" t="s">
         <v>216</v>
       </c>
@@ -30878,7 +30921,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="142" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="142" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A142" s="26" t="s">
         <v>216</v>
       </c>
@@ -30972,7 +31015,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="143" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="143" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A143" s="26" t="s">
         <v>216</v>
       </c>
@@ -31070,7 +31113,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="144" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="144" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A144" s="26" t="s">
         <v>216</v>
       </c>
@@ -31166,7 +31209,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="145" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="145" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A145" s="26" t="s">
         <v>216</v>
       </c>
@@ -31262,7 +31305,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="146" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="146" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A146" s="26" t="s">
         <v>216</v>
       </c>
@@ -31350,7 +31393,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="147" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="147" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A147" s="26" t="s">
         <v>216</v>
       </c>
@@ -31438,7 +31481,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="148" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="148" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A148" s="26" t="s">
         <v>216</v>
       </c>
@@ -31526,7 +31569,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="149" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="149" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A149" s="26" t="s">
         <v>216</v>
       </c>
@@ -31614,7 +31657,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="150" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="150" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A150" s="26" t="s">
         <v>216</v>
       </c>
@@ -31708,7 +31751,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="151" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="151" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A151" s="26" t="s">
         <v>216</v>
       </c>
@@ -31802,7 +31845,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="152" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="152" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A152" s="26" t="s">
         <v>216</v>
       </c>
@@ -31896,7 +31939,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="153" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="153" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A153" s="26" t="s">
         <v>216</v>
       </c>
@@ -31990,7 +32033,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="154" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="154" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A154" s="26" t="s">
         <v>216</v>
       </c>
@@ -32084,7 +32127,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="155" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="155" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A155" s="26" t="s">
         <v>216</v>
       </c>
@@ -32168,7 +32211,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="156" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="156" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A156" s="26" t="s">
         <v>216</v>
       </c>
@@ -32254,7 +32297,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="157" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="157" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A157" s="26" t="s">
         <v>216</v>
       </c>
@@ -32354,7 +32397,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="158" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="158" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A158" s="26" t="s">
         <v>216</v>
       </c>
@@ -32450,7 +32493,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="159" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="159" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A159" s="26" t="s">
         <v>216</v>
       </c>
@@ -32546,7 +32589,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="160" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="160" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A160" s="26" t="s">
         <v>216</v>
       </c>
@@ -32642,7 +32685,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="161" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="161" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A161" s="26" t="s">
         <v>216</v>
       </c>
@@ -32738,7 +32781,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="162" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="162" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A162" s="26" t="s">
         <v>216</v>
       </c>
@@ -32834,7 +32877,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="163" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="163" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A163" s="26" t="s">
         <v>216</v>
       </c>
@@ -32928,7 +32971,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="164" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="164" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A164" s="26" t="s">
         <v>216</v>
       </c>
@@ -33024,7 +33067,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="165" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="165" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A165" s="26" t="s">
         <v>216</v>
       </c>
@@ -33120,7 +33163,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="166" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="166" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A166" s="26" t="s">
         <v>216</v>
       </c>
@@ -33216,7 +33259,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="167" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="167" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A167" s="26" t="s">
         <v>216</v>
       </c>
@@ -33312,7 +33355,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="168" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="168" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A168" s="26" t="s">
         <v>216</v>
       </c>
@@ -33408,7 +33451,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="169" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="169" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A169" s="26" t="s">
         <v>216</v>
       </c>
@@ -33502,7 +33545,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="170" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="170" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A170" s="26" t="s">
         <v>216</v>
       </c>
@@ -33598,7 +33641,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="171" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="171" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A171" s="26" t="s">
         <v>216</v>
       </c>
@@ -33694,7 +33737,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="172" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="172" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A172" s="26" t="s">
         <v>216</v>
       </c>
@@ -33790,7 +33833,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="173" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="173" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A173" s="26" t="s">
         <v>216</v>
       </c>
@@ -34502,8 +34545,8 @@
       <c r="Q180" s="30"/>
       <c r="R180" s="29"/>
       <c r="S180" s="30"/>
-      <c r="T180" s="28" t="s">
-        <v>542</v>
+      <c r="T180" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="U180" s="31">
         <v>72417</v>
@@ -34560,7 +34603,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="181" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="181" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A181" s="26" t="s">
         <v>233</v>
       </c>
@@ -34670,7 +34713,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="182" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="182" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A182" s="26" t="s">
         <v>248</v>
       </c>
@@ -34770,7 +34813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="183" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A183" s="26" t="s">
         <v>248</v>
       </c>
@@ -34870,7 +34913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="184" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A184" s="26" t="s">
         <v>248</v>
       </c>
@@ -34972,7 +35015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="185" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A185" s="26" t="s">
         <v>248</v>
       </c>
@@ -35078,7 +35121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="186" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A186" s="26" t="s">
         <v>248</v>
       </c>
@@ -35180,7 +35223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="187" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A187" s="26" t="s">
         <v>248</v>
       </c>
@@ -35284,7 +35327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="188" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A188" s="26" t="s">
         <v>248</v>
       </c>
@@ -35388,7 +35431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="189" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A189" s="26" t="s">
         <v>248</v>
       </c>
@@ -35492,7 +35535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="190" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A190" s="26" t="s">
         <v>300</v>
       </c>
@@ -35596,7 +35639,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="191" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="191" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A191" s="26" t="s">
         <v>300</v>
       </c>
@@ -35704,7 +35747,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="192" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="192" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A192" s="26" t="s">
         <v>300</v>
       </c>
@@ -35812,7 +35855,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="193" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="193" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A193" s="26" t="s">
         <v>216</v>
       </c>
@@ -35920,7 +35963,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="194" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="194" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A194" s="26" t="s">
         <v>216</v>
       </c>
@@ -36028,7 +36071,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="195" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="195" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A195" s="26" t="s">
         <v>216</v>
       </c>
@@ -36136,7 +36179,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="196" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="196" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A196" s="26" t="s">
         <v>313</v>
       </c>
@@ -36240,7 +36283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="197" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A197" s="26" t="s">
         <v>216</v>
       </c>
@@ -36344,7 +36387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="198" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A198" s="26" t="s">
         <v>300</v>
       </c>
@@ -36452,7 +36495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="199" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A199" s="26" t="s">
         <v>300</v>
       </c>
@@ -36560,7 +36603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="200" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A200" s="26" t="s">
         <v>300</v>
       </c>
@@ -36664,7 +36707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="201" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A201" s="26" t="s">
         <v>216</v>
       </c>
@@ -36768,7 +36811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="202" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A202" s="26" t="s">
         <v>300</v>
       </c>
@@ -36876,7 +36919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="203" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A203" s="26" t="s">
         <v>300</v>
       </c>
@@ -36982,7 +37025,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="204" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="204" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A204" s="26" t="s">
         <v>233</v>
       </c>
@@ -37088,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="205" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A205" s="26" t="s">
         <v>300</v>
       </c>
@@ -37192,7 +37235,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="206" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="206" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A206" s="26" t="s">
         <v>216</v>
       </c>
@@ -37296,7 +37339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="207" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A207" s="26" t="s">
         <v>300</v>
       </c>
@@ -37400,7 +37443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="208" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A208" s="26" t="s">
         <v>300</v>
       </c>
@@ -37508,7 +37551,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="209" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="209" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A209" s="26" t="s">
         <v>300</v>
       </c>
@@ -37616,7 +37659,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="210" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="210" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A210" s="26" t="s">
         <v>630</v>
       </c>
@@ -37720,7 +37763,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="211" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="211" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A211" s="26" t="s">
         <v>630</v>
       </c>
@@ -38020,7 +38063,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="214" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="214" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A214" s="26" t="s">
         <v>300</v>
       </c>
@@ -38120,7 +38163,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="215" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="215" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A215" s="26" t="s">
         <v>300</v>
       </c>
@@ -38220,7 +38263,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="216" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="216" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A216" s="26" t="s">
         <v>216</v>
       </c>
@@ -38320,7 +38363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="217" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A217" s="26" t="s">
         <v>216</v>
       </c>
@@ -38420,7 +38463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="218" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A218" s="26" t="s">
         <v>216</v>
       </c>
@@ -38520,7 +38563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="219" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A219" s="26" t="s">
         <v>216</v>
       </c>
@@ -38620,7 +38663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="220" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A220" s="26" t="s">
         <v>216</v>
       </c>
@@ -38720,7 +38763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="221" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A221" s="26" t="s">
         <v>216</v>
       </c>
@@ -38820,7 +38863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="222" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A222" s="26" t="s">
         <v>216</v>
       </c>
@@ -38920,7 +38963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="223" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A223" s="26" t="s">
         <v>300</v>
       </c>
@@ -39020,7 +39063,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="224" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="224" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A224" s="26" t="s">
         <v>300</v>
       </c>
@@ -39120,7 +39163,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="225" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="225" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A225" s="26" t="s">
         <v>300</v>
       </c>
@@ -39220,7 +39263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="226" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A226" s="26" t="s">
         <v>300</v>
       </c>
@@ -39320,7 +39363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="227" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A227" s="26" t="s">
         <v>313</v>
       </c>
@@ -39422,7 +39465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="228" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A228" s="26" t="s">
         <v>233</v>
       </c>
@@ -39526,7 +39569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="229" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A229" s="26" t="s">
         <v>216</v>
       </c>
@@ -39630,7 +39673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="230" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A230" s="26" t="s">
         <v>216</v>
       </c>
@@ -39734,7 +39777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="231" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A231" s="26" t="s">
         <v>216</v>
       </c>
@@ -39838,7 +39881,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="232" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="232" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A232" s="26" t="s">
         <v>248</v>
       </c>
@@ -39942,7 +39985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="233" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A233" s="26" t="s">
         <v>248</v>
       </c>
@@ -40046,7 +40089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="234" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A234" s="26" t="s">
         <v>248</v>
       </c>
@@ -40150,7 +40193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="235" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A235" s="26" t="s">
         <v>248</v>
       </c>
@@ -40254,7 +40297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="236" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A236" s="26" t="s">
         <v>248</v>
       </c>
@@ -40358,7 +40401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="237" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A237" s="26" t="s">
         <v>248</v>
       </c>
@@ -40462,7 +40505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="238" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A238" s="26" t="s">
         <v>300</v>
       </c>
@@ -40566,7 +40609,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="239" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="239" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A239" s="26" t="s">
         <v>300</v>
       </c>
@@ -40670,7 +40713,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="240" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="240" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A240" s="26" t="s">
         <v>300</v>
       </c>
@@ -40770,7 +40813,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="241" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="241" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A241" s="26" t="s">
         <v>313</v>
       </c>
@@ -40866,7 +40909,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="242" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="242" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A242" s="26" t="s">
         <v>630</v>
       </c>
@@ -40962,7 +41005,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="243" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="243" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A243" s="26" t="s">
         <v>630</v>
       </c>
@@ -41058,7 +41101,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="244" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="244" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A244" s="26" t="s">
         <v>630</v>
       </c>
@@ -41154,7 +41197,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="245" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="245" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A245" s="26" t="s">
         <v>248</v>
       </c>
@@ -41254,7 +41297,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="246" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="246" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A246" s="26" t="s">
         <v>248</v>
       </c>
@@ -41354,7 +41397,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="247" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="247" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A247" s="26" t="s">
         <v>248</v>
       </c>
@@ -41454,7 +41497,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="248" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="248" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A248" s="26" t="s">
         <v>248</v>
       </c>
@@ -41554,7 +41597,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="249" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="249" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A249" s="26" t="s">
         <v>248</v>
       </c>
@@ -41654,7 +41697,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="250" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="250" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A250" s="26" t="s">
         <v>248</v>
       </c>
@@ -41750,7 +41793,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="251" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="251" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A251" s="26" t="s">
         <v>248</v>
       </c>
@@ -41840,7 +41883,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="252" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="252" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A252" s="26" t="s">
         <v>248</v>
       </c>
@@ -41930,7 +41973,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="253" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="253" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A253" s="26" t="s">
         <v>248</v>
       </c>
@@ -42020,7 +42063,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="254" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="254" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A254" s="26" t="s">
         <v>248</v>
       </c>
@@ -42118,7 +42161,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="255" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="255" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A255" s="26" t="s">
         <v>233</v>
       </c>
@@ -42216,7 +42259,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="256" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="256" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A256" s="26" t="s">
         <v>233</v>
       </c>
@@ -42316,7 +42359,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="257" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="257" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A257" s="26" t="s">
         <v>233</v>
       </c>
@@ -42414,7 +42457,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="258" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="258" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A258" s="26" t="s">
         <v>233</v>
       </c>
@@ -42520,7 +42563,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="259" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="259" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A259" s="26" t="s">
         <v>630</v>
       </c>
@@ -42618,7 +42661,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="260" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="260" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A260" s="26" t="s">
         <v>233</v>
       </c>
@@ -42716,7 +42759,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="261" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="261" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A261" s="26" t="s">
         <v>313</v>
       </c>
@@ -42818,7 +42861,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="262" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="262" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A262" s="26" t="s">
         <v>313</v>
       </c>
@@ -42920,7 +42963,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="263" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="263" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A263" s="26" t="s">
         <v>248</v>
       </c>
@@ -43018,7 +43061,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="264" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="264" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A264" s="26" t="s">
         <v>248</v>
       </c>
@@ -43116,7 +43159,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="265" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="265" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A265" s="26" t="s">
         <v>248</v>
       </c>
@@ -43216,7 +43259,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="266" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="266" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A266" s="26" t="s">
         <v>248</v>
       </c>
@@ -43314,7 +43357,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="267" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="267" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A267" s="26" t="s">
         <v>248</v>
       </c>
@@ -43412,7 +43455,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="268" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="268" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A268" s="26" t="s">
         <v>630</v>
       </c>
@@ -43510,7 +43553,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="269" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="269" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A269" s="26" t="s">
         <v>630</v>
       </c>
@@ -43606,7 +43649,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="270" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="270" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A270" s="26" t="s">
         <v>233</v>
       </c>
@@ -43702,7 +43745,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="271" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="271" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A271" s="26" t="s">
         <v>233</v>
       </c>
@@ -43808,7 +43851,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="272" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="272" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A272" s="26" t="s">
         <v>313</v>
       </c>
@@ -43904,7 +43947,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="273" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="273" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A273" s="26" t="s">
         <v>300</v>
       </c>
@@ -44006,7 +44049,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="274" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="274" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A274" s="26" t="s">
         <v>248</v>
       </c>
@@ -44104,7 +44147,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="275" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="275" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A275" s="26" t="s">
         <v>233</v>
       </c>
@@ -44200,7 +44243,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="276" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="276" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A276" s="26" t="s">
         <v>233</v>
       </c>
@@ -44296,7 +44339,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="277" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="277" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A277" s="26" t="s">
         <v>233</v>
       </c>
@@ -44392,7 +44435,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="278" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="278" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A278" s="26" t="s">
         <v>233</v>
       </c>
@@ -44488,7 +44531,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="279" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="279" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A279" s="26" t="s">
         <v>233</v>
       </c>
@@ -44580,7 +44623,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="280" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="280" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A280" s="26" t="s">
         <v>630</v>
       </c>
@@ -44678,7 +44721,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="281" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="281" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A281" s="26" t="s">
         <v>313</v>
       </c>
@@ -44772,7 +44815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="282" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A282" s="26" t="s">
         <v>630</v>
       </c>
@@ -44860,7 +44903,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="283" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="283" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A283" s="26" t="s">
         <v>248</v>
       </c>
@@ -44950,7 +44993,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="284" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="284" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A284" s="26" t="s">
         <v>313</v>
       </c>
@@ -45038,7 +45081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="285" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A285" s="26" t="s">
         <v>233</v>
       </c>
@@ -45128,7 +45171,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="286" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="286" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A286" s="26" t="s">
         <v>233</v>
       </c>
@@ -45218,7 +45261,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="287" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="287" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A287" s="26" t="s">
         <v>233</v>
       </c>
@@ -45308,7 +45351,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="288" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="288" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A288" s="26" t="s">
         <v>216</v>
       </c>
@@ -45402,7 +45445,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="289" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="289" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A289" s="26" t="s">
         <v>216</v>
       </c>
@@ -45492,7 +45535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="290" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A290" s="26" t="s">
         <v>216</v>
       </c>
@@ -45584,7 +45627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="291" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A291" s="26" t="s">
         <v>233</v>
       </c>
@@ -45674,7 +45717,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="292" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="292" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A292" s="26" t="s">
         <v>248</v>
       </c>
@@ -45752,7 +45795,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="293" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="293" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A293" s="26" t="s">
         <v>248</v>
       </c>
@@ -45852,7 +45895,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="294" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="294" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A294" s="26" t="s">
         <v>248</v>
       </c>
@@ -45946,7 +45989,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="295" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="295" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A295" s="26" t="s">
         <v>248</v>
       </c>
@@ -46036,7 +46079,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="296" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="296" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A296" s="26" t="s">
         <v>248</v>
       </c>
@@ -46128,7 +46171,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="297" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="297" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A297" s="26" t="s">
         <v>248</v>
       </c>
@@ -46220,7 +46263,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="298" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="298" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A298" s="26" t="s">
         <v>248</v>
       </c>
@@ -46308,7 +46351,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="299" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="299" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A299" s="26" t="s">
         <v>313</v>
       </c>
@@ -46410,7 +46453,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="300" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="300" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A300" s="26" t="s">
         <v>248</v>
       </c>
@@ -46504,7 +46547,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="301" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="301" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A301" s="26" t="s">
         <v>248</v>
       </c>
@@ -46600,7 +46643,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="302" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="302" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A302" s="26" t="s">
         <v>248</v>
       </c>
@@ -46696,7 +46739,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="303" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="303" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A303" s="26" t="s">
         <v>216</v>
       </c>
@@ -46788,7 +46831,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="304" spans="1:42" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="304" spans="1:42" s="26" customFormat="1" ht="16">
       <c r="A304" s="26" t="s">
         <v>216</v>
       </c>
@@ -46878,7 +46921,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="305" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="305" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A305" s="26" t="s">
         <v>300</v>
       </c>
@@ -46984,7 +47027,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="306" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="306" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A306" s="26" t="s">
         <v>300</v>
       </c>
@@ -47088,7 +47131,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="307" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="307" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A307" s="26" t="s">
         <v>300</v>
       </c>
@@ -47198,7 +47241,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="308" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="308" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A308" s="26" t="s">
         <v>300</v>
       </c>
@@ -47308,7 +47351,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="309" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="309" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A309" s="26" t="s">
         <v>181</v>
       </c>
@@ -47398,7 +47441,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="310" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="310" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A310" s="26" t="s">
         <v>181</v>
       </c>
@@ -47486,7 +47529,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="311" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="311" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A311" s="26" t="s">
         <v>181</v>
       </c>
@@ -47574,7 +47617,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="312" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="312" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A312" s="26" t="s">
         <v>181</v>
       </c>
@@ -47658,7 +47701,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="313" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="313" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A313" s="26" t="s">
         <v>233</v>
       </c>
@@ -47679,7 +47722,7 @@
         <v>34</v>
       </c>
       <c r="J313" s="1" t="e">
-        <f>VLOOKUP(H313,Servers!B:R,12,0)</f>
+        <f>VLOOKUP(H313,Servers!B:S,12,0)</f>
         <v>#N/A</v>
       </c>
       <c r="K313" s="30" t="s">
@@ -47751,7 +47794,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="314" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="314" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A314" s="26" t="s">
         <v>233</v>
       </c>
@@ -47849,7 +47892,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="315" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="315" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A315" s="26" t="s">
         <v>233</v>
       </c>
@@ -47947,7 +47990,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="316" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="316" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A316" s="26" t="s">
         <v>233</v>
       </c>
@@ -48053,7 +48096,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="317" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="317" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A317" s="26" t="s">
         <v>233</v>
       </c>
@@ -48157,7 +48200,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="318" spans="1:43" s="26" customFormat="1" ht="16" hidden="1">
+    <row r="318" spans="1:43" s="26" customFormat="1" ht="16">
       <c r="A318" s="26" t="s">
         <v>233</v>
       </c>
@@ -48251,7 +48294,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="319" spans="1:43" s="28" customFormat="1" ht="12" hidden="1">
+    <row r="319" spans="1:43" s="28" customFormat="1" ht="12">
       <c r="A319" s="28" t="s">
         <v>630</v>
       </c>
@@ -48310,7 +48353,7 @@
       </c>
       <c r="AQ319" s="26"/>
     </row>
-    <row r="320" spans="1:43" s="28" customFormat="1" ht="12" hidden="1">
+    <row r="320" spans="1:43" s="28" customFormat="1" ht="12">
       <c r="A320" s="28" t="s">
         <v>630</v>
       </c>
@@ -48593,13 +48636,6 @@
       <c r="AP332" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP320">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="TIBCO NON GF"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="B1:AP1">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>IF(MOD(ROW()+2,5),0,1)</formula>
@@ -48610,7 +48646,7 @@
       <formula>NOT(ISERROR(SEARCH("BIBA",A191)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM333:AM1048576 AB1:AL1048576 AN1:XFD1048576 AM1:AM320 X333:X1048576 Y290:Z297 Y300:Z301 Y307:Z310 Y203:Z212 Y227:Z239 Y241:Z281 Y316:Z1048576 Y288:Z288 U241:W281 U227:W239 U203:W212 U316:W318 U307:W310 U300:W301 U290:W297 U288:W288 Y192:Z201 U192:W201 Y182:Z182 Y165:Z178 Y186:Z187 Y189:Z190 Y157:Z157 Y159:AA163 AA164:AA1048576 AA156:AA158 A127:T318 U127:W155 U159:W163 U157:W157 U189:W190 U186:W187 U165:W178 U182:W182 X1:X318 A1:W126 Y1:AA155 A319:W1048576">
+  <conditionalFormatting sqref="AM333:AM1048576 AB1:AL1048576 AN1:XFD1048576 AM1:AM320 X333:X1048576 Y290:Z297 Y300:Z301 Y307:Z310 Y203:Z212 Y227:Z239 Y241:Z281 Y316:Z1048576 Y288:Z288 U241:W281 U227:W239 U203:W212 U316:W318 U307:W310 U300:W301 U290:W297 U288:W288 Y192:Z201 U192:W201 Y182:Z182 Y165:Z178 Y186:Z187 Y189:Z190 Y157:Z157 Y159:AA163 AA164:AA1048576 AA156:AA158 A127:T179 U127:W155 U159:W163 U157:W157 U189:W190 U186:W187 U165:W178 U182:W182 X1:X318 A1:W126 Y1:AA155 A319:W1048576 A181:T318 A180:S180">
     <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="KPN">
       <formula>NOT(ISERROR(SEARCH("KPN",A1)))</formula>
     </cfRule>
@@ -48630,7 +48666,7 @@
       <formula>NOT(ISERROR(SEARCH("BIBA",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y158:Z319 X1:X319 Y1:Z156 A157:T157 A1:W156 A158:W319 A320:XFD1048576 AA1:XFD319">
+  <conditionalFormatting sqref="Y158:Z319 X1:X319 Y1:Z156 A157:T157 A1:W156 A158:W179 A320:XFD1048576 AA1:XFD319 A181:W319 A180:S180 U180:W180">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Phase Out">
       <formula>NOT(ISERROR(SEARCH("Phase Out",A1)))</formula>
     </cfRule>

--- a/bin/appoverview.xlsx
+++ b/bin/appoverview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Applications" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applications!$A$1:$Q$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Interfaces!$A$1:$P$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Interfaces!$A$1:$P$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">KPN_input!$A$1:$AP$320</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Servers!$A$1:$Y$93</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11275" uniqueCount="2091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11286" uniqueCount="2094">
   <si>
     <t>Storage</t>
   </si>
@@ -6419,6 +6419,15 @@
   </si>
   <si>
     <t>Campaign responses from frontends</t>
+  </si>
+  <si>
+    <t>File based input data for reports</t>
+  </si>
+  <si>
+    <t>File based data on callcenter users</t>
+  </si>
+  <si>
+    <t>File based data on EDSN messages and reports</t>
   </si>
 </sst>
 </file>
@@ -6699,7 +6708,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="883">
+  <cellStyleXfs count="890">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7542,6 +7551,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7770,7 +7786,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="883">
+  <cellStyles count="890">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8445,6 +8461,13 @@
     <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="881" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="883" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="885" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="887" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="889" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -10216,8 +10239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y93"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10366,7 +10389,7 @@
         <v>78</v>
       </c>
       <c r="R2" s="1" t="str">
-        <f>VLOOKUP(P2,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P2,RWEservers!B:D,3,0)),"",(VLOOKUP(P2,RWEservers!B:D,3,0)))</f>
         <v>S030A1962</v>
       </c>
       <c r="S2" s="1" t="str">
@@ -10424,7 +10447,7 @@
         <v>79</v>
       </c>
       <c r="R3" s="1" t="str">
-        <f>VLOOKUP(P3,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P3,RWEservers!B:D,3,0)),"",(VLOOKUP(P3,RWEservers!B:D,3,0)))</f>
         <v>S030A1964</v>
       </c>
       <c r="S3" s="1" t="str">
@@ -10482,7 +10505,7 @@
         <v>80</v>
       </c>
       <c r="R4" s="1" t="str">
-        <f>VLOOKUP(P4,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P4,RWEservers!B:D,3,0)),"",(VLOOKUP(P4,RWEservers!B:D,3,0)))</f>
         <v>S030A1965</v>
       </c>
       <c r="S4" s="1" t="str">
@@ -10545,9 +10568,9 @@
       <c r="Q5" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="R5" s="1" t="e">
-        <f>VLOOKUP(P5,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R5" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P5,RWEservers!B:D,3,0)),"",(VLOOKUP(P5,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S5" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R5,RWEservers!D:J,7,0)),VLOOKUP(Q5,RWEoracle!C:G,5,0),VLOOKUP(R5,RWEservers!D:J,7,0))</f>
@@ -10609,9 +10632,9 @@
       <c r="Q6" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="R6" s="1" t="e">
-        <f>VLOOKUP(P6,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R6" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P6,RWEservers!B:D,3,0)),"",(VLOOKUP(P6,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S6" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R6,RWEservers!D:J,7,0)),VLOOKUP(Q6,RWEoracle!C:G,5,0),VLOOKUP(R6,RWEservers!D:J,7,0))</f>
@@ -10670,9 +10693,9 @@
       <c r="Q7" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="R7" s="1" t="e">
-        <f>VLOOKUP(P7,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R7" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P7,RWEservers!B:D,3,0)),"",(VLOOKUP(P7,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S7" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R7,RWEservers!D:J,7,0)),VLOOKUP(Q7,RWEoracle!C:G,5,0),VLOOKUP(R7,RWEservers!D:J,7,0))</f>
@@ -10734,9 +10757,9 @@
       <c r="Q8" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="R8" s="1" t="e">
-        <f>VLOOKUP(P8,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R8" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P8,RWEservers!B:D,3,0)),"",(VLOOKUP(P8,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S8" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R8,RWEservers!D:J,7,0)),VLOOKUP(Q8,RWEoracle!C:G,5,0),VLOOKUP(R8,RWEservers!D:J,7,0))</f>
@@ -10793,7 +10816,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f>VLOOKUP(P9,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P9,RWEservers!B:D,3,0)),"",(VLOOKUP(P9,RWEservers!B:D,3,0)))</f>
         <v>S030A1960</v>
       </c>
       <c r="S9" s="1" t="str">
@@ -10856,9 +10879,9 @@
       <c r="Q10" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="R10" s="1" t="e">
-        <f>VLOOKUP(P10,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R10" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P10,RWEservers!B:D,3,0)),"",(VLOOKUP(P10,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S10" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R10,RWEservers!D:J,7,0)),VLOOKUP(Q10,RWEoracle!C:G,5,0),VLOOKUP(R10,RWEservers!D:J,7,0))</f>
@@ -10916,7 +10939,7 @@
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="1" t="str">
-        <f>VLOOKUP(P11,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P11,RWEservers!B:D,3,0)),"",(VLOOKUP(P11,RWEservers!B:D,3,0)))</f>
         <v>S030A1970</v>
       </c>
       <c r="S11" s="1" t="str">
@@ -10977,7 +11000,7 @@
         <v>102</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f>VLOOKUP(P12,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P12,RWEservers!B:D,3,0)),"",(VLOOKUP(P12,RWEservers!B:D,3,0)))</f>
         <v>S060A0543</v>
       </c>
       <c r="S12" s="1" t="str">
@@ -11035,7 +11058,7 @@
         <v>104</v>
       </c>
       <c r="R13" s="1" t="str">
-        <f>VLOOKUP(P13,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P13,RWEservers!B:D,3,0)),"",(VLOOKUP(P13,RWEservers!B:D,3,0)))</f>
         <v>S030A1989</v>
       </c>
       <c r="S13" s="1" t="str">
@@ -11093,7 +11116,7 @@
         <v>105</v>
       </c>
       <c r="R14" s="1" t="str">
-        <f>VLOOKUP(P14,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P14,RWEservers!B:D,3,0)),"",(VLOOKUP(P14,RWEservers!B:D,3,0)))</f>
         <v>S030A1954</v>
       </c>
       <c r="S14" s="1" t="str">
@@ -11151,7 +11174,7 @@
         <v>108</v>
       </c>
       <c r="R15" s="1" t="str">
-        <f>VLOOKUP(P15,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P15,RWEservers!B:D,3,0)),"",(VLOOKUP(P15,RWEservers!B:D,3,0)))</f>
         <v>S030L0205</v>
       </c>
       <c r="S15" s="1" t="str">
@@ -11203,9 +11226,9 @@
       <c r="Q16" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="R16" s="1" t="e">
-        <f>VLOOKUP(P16,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R16" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P16,RWEservers!B:D,3,0)),"",(VLOOKUP(P16,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S16" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R16,RWEservers!D:J,7,0)),VLOOKUP(Q16,RWEoracle!C:G,5,0),VLOOKUP(R16,RWEservers!D:J,7,0))</f>
@@ -11256,9 +11279,9 @@
       <c r="Q17" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="R17" s="1" t="e">
-        <f>VLOOKUP(P17,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R17" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P17,RWEservers!B:D,3,0)),"",(VLOOKUP(P17,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S17" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R17,RWEservers!D:J,7,0)),VLOOKUP(Q17,RWEoracle!C:G,5,0),VLOOKUP(R17,RWEservers!D:J,7,0))</f>
@@ -11320,9 +11343,9 @@
       <c r="Q18" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="R18" s="1" t="e">
-        <f>VLOOKUP(P18,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R18" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P18,RWEservers!B:D,3,0)),"",(VLOOKUP(P18,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S18" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R18,RWEservers!D:J,7,0)),VLOOKUP(Q18,RWEoracle!C:G,5,0),VLOOKUP(R18,RWEservers!D:J,7,0))</f>
@@ -11379,7 +11402,7 @@
         <v>110</v>
       </c>
       <c r="R19" s="1" t="str">
-        <f>VLOOKUP(P19,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P19,RWEservers!B:D,3,0)),"",(VLOOKUP(P19,RWEservers!B:D,3,0)))</f>
         <v>S030A1971</v>
       </c>
       <c r="S19" s="1" t="str">
@@ -11440,7 +11463,7 @@
         <v>111</v>
       </c>
       <c r="R20" s="1" t="str">
-        <f>VLOOKUP(P20,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P20,RWEservers!B:D,3,0)),"",(VLOOKUP(P20,RWEservers!B:D,3,0)))</f>
         <v>S060A0534</v>
       </c>
       <c r="S20" s="1" t="str">
@@ -11498,7 +11521,7 @@
         <v>112</v>
       </c>
       <c r="R21" s="1" t="str">
-        <f>VLOOKUP(P21,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P21,RWEservers!B:D,3,0)),"",(VLOOKUP(P21,RWEservers!B:D,3,0)))</f>
         <v>S060A0540</v>
       </c>
       <c r="S21" s="1" t="str">
@@ -11559,7 +11582,7 @@
         <v>114</v>
       </c>
       <c r="R22" s="1" t="str">
-        <f>VLOOKUP(P22,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P22,RWEservers!B:D,3,0)),"",(VLOOKUP(P22,RWEservers!B:D,3,0)))</f>
         <v>S060A0545</v>
       </c>
       <c r="S22" s="1" t="str">
@@ -11620,7 +11643,7 @@
         <v>115</v>
       </c>
       <c r="R23" s="1" t="str">
-        <f>VLOOKUP(P23,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P23,RWEservers!B:D,3,0)),"",(VLOOKUP(P23,RWEservers!B:D,3,0)))</f>
         <v>S060A0539</v>
       </c>
       <c r="S23" s="1" t="str">
@@ -11681,7 +11704,7 @@
         <v>116</v>
       </c>
       <c r="R24" s="1" t="str">
-        <f>VLOOKUP(P24,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P24,RWEservers!B:D,3,0)),"",(VLOOKUP(P24,RWEservers!B:D,3,0)))</f>
         <v>From EVA process</v>
       </c>
       <c r="S24" s="1" t="str">
@@ -11742,7 +11765,7 @@
         <v>117</v>
       </c>
       <c r="R25" s="1" t="str">
-        <f>VLOOKUP(P25,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P25,RWEservers!B:D,3,0)),"",(VLOOKUP(P25,RWEservers!B:D,3,0)))</f>
         <v>S060A0526</v>
       </c>
       <c r="S25" s="1" t="str">
@@ -11803,7 +11826,7 @@
         <v>118</v>
       </c>
       <c r="R26" s="1" t="str">
-        <f>VLOOKUP(P26,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P26,RWEservers!B:D,3,0)),"",(VLOOKUP(P26,RWEservers!B:D,3,0)))</f>
         <v>From EVA process</v>
       </c>
       <c r="S26" s="1" t="str">
@@ -11870,7 +11893,7 @@
         <v>120</v>
       </c>
       <c r="R27" s="1" t="str">
-        <f>VLOOKUP(P27,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P27,RWEservers!B:D,3,0)),"",(VLOOKUP(P27,RWEservers!B:D,3,0)))</f>
         <v>S030A1961</v>
       </c>
       <c r="S27" s="1" t="str">
@@ -11931,9 +11954,9 @@
       <c r="Q28" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="R28" s="1" t="e">
-        <f>VLOOKUP(P28,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R28" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P28,RWEservers!B:D,3,0)),"",(VLOOKUP(P28,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S28" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R28,RWEservers!D:J,7,0)),VLOOKUP(Q28,RWEoracle!C:G,5,0),VLOOKUP(R28,RWEservers!D:J,7,0))</f>
@@ -11989,9 +12012,9 @@
       <c r="P29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R29" s="1" t="e">
-        <f>VLOOKUP(P29,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R29" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P29,RWEservers!B:D,3,0)),"",(VLOOKUP(P29,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S29" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R29,RWEservers!D:J,7,0)),VLOOKUP(Q29,RWEoracle!C:G,5,0),VLOOKUP(R29,RWEservers!D:J,7,0))</f>
@@ -12048,7 +12071,7 @@
         <v>123</v>
       </c>
       <c r="R30" s="1" t="str">
-        <f>VLOOKUP(P30,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P30,RWEservers!B:D,3,0)),"",(VLOOKUP(P30,RWEservers!B:D,3,0)))</f>
         <v>S030A1968</v>
       </c>
       <c r="S30" s="1" t="str">
@@ -12099,9 +12122,9 @@
       <c r="P31" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="R31" s="1" t="e">
-        <f>VLOOKUP(P31,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R31" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P31,RWEservers!B:D,3,0)),"",(VLOOKUP(P31,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S31" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R31,RWEservers!D:J,7,0)),VLOOKUP(Q31,RWEoracle!C:G,5,0),VLOOKUP(R31,RWEservers!D:J,7,0))</f>
@@ -12148,9 +12171,9 @@
       <c r="P32" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="R32" s="1" t="e">
-        <f>VLOOKUP(P32,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R32" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P32,RWEservers!B:D,3,0)),"",(VLOOKUP(P32,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S32" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R32,RWEservers!D:J,7,0)),VLOOKUP(Q32,RWEoracle!C:G,5,0),VLOOKUP(R32,RWEservers!D:J,7,0))</f>
@@ -12201,7 +12224,7 @@
         <v>1009</v>
       </c>
       <c r="R33" s="1" t="str">
-        <f>VLOOKUP(P33,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P33,RWEservers!B:D,3,0)),"",(VLOOKUP(P33,RWEservers!B:D,3,0)))</f>
         <v>S030L0208</v>
       </c>
       <c r="S33" s="1" t="str">
@@ -12250,9 +12273,9 @@
       <c r="P34" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="R34" s="1" t="e">
-        <f>VLOOKUP(P34,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R34" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P34,RWEservers!B:D,3,0)),"",(VLOOKUP(P34,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S34" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R34,RWEservers!D:J,7,0)),VLOOKUP(Q34,RWEoracle!C:G,5,0),VLOOKUP(R34,RWEservers!D:J,7,0))</f>
@@ -12299,9 +12322,9 @@
       <c r="P35" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="R35" s="1" t="e">
-        <f>VLOOKUP(P35,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R35" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P35,RWEservers!B:D,3,0)),"",(VLOOKUP(P35,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S35" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R35,RWEservers!D:J,7,0)),VLOOKUP(Q35,RWEoracle!C:G,5,0),VLOOKUP(R35,RWEservers!D:J,7,0))</f>
@@ -12348,9 +12371,9 @@
       <c r="P36" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="R36" s="1" t="e">
-        <f>VLOOKUP(P36,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R36" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P36,RWEservers!B:D,3,0)),"",(VLOOKUP(P36,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S36" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R36,RWEservers!D:J,7,0)),VLOOKUP(Q36,RWEoracle!C:G,5,0),VLOOKUP(R36,RWEservers!D:J,7,0))</f>
@@ -12400,9 +12423,9 @@
       <c r="P37" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="R37" s="1" t="e">
-        <f>VLOOKUP(P37,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R37" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P37,RWEservers!B:D,3,0)),"",(VLOOKUP(P37,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S37" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R37,RWEservers!D:J,7,0)),VLOOKUP(Q37,RWEoracle!C:G,5,0),VLOOKUP(R37,RWEservers!D:J,7,0))</f>
@@ -12449,9 +12472,9 @@
       <c r="P38" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="R38" s="1" t="e">
-        <f>VLOOKUP(P38,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R38" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P38,RWEservers!B:D,3,0)),"",(VLOOKUP(P38,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S38" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R38,RWEservers!D:J,7,0)),VLOOKUP(Q38,RWEoracle!C:G,5,0),VLOOKUP(R38,RWEservers!D:J,7,0))</f>
@@ -12498,9 +12521,9 @@
       <c r="P39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="R39" s="1" t="e">
-        <f>VLOOKUP(P39,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R39" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P39,RWEservers!B:D,3,0)),"",(VLOOKUP(P39,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S39" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R39,RWEservers!D:J,7,0)),VLOOKUP(Q39,RWEoracle!C:G,5,0),VLOOKUP(R39,RWEservers!D:J,7,0))</f>
@@ -12547,9 +12570,9 @@
       <c r="P40" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R40" s="1" t="e">
-        <f>VLOOKUP(P40,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R40" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P40,RWEservers!B:D,3,0)),"",(VLOOKUP(P40,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S40" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R40,RWEservers!D:J,7,0)),VLOOKUP(Q40,RWEoracle!C:G,5,0),VLOOKUP(R40,RWEservers!D:J,7,0))</f>
@@ -12596,9 +12619,9 @@
       <c r="P41" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="R41" s="1" t="e">
-        <f>VLOOKUP(P41,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R41" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P41,RWEservers!B:D,3,0)),"",(VLOOKUP(P41,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S41" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R41,RWEservers!D:J,7,0)),VLOOKUP(Q41,RWEoracle!C:G,5,0),VLOOKUP(R41,RWEservers!D:J,7,0))</f>
@@ -12645,9 +12668,9 @@
       <c r="P42" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="R42" s="1" t="e">
-        <f>VLOOKUP(P42,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R42" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P42,RWEservers!B:D,3,0)),"",(VLOOKUP(P42,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S42" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R42,RWEservers!D:J,7,0)),VLOOKUP(Q42,RWEoracle!C:G,5,0),VLOOKUP(R42,RWEservers!D:J,7,0))</f>
@@ -12694,9 +12717,9 @@
       <c r="P43" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="R43" s="1" t="e">
-        <f>VLOOKUP(P43,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R43" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P43,RWEservers!B:D,3,0)),"",(VLOOKUP(P43,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S43" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R43,RWEservers!D:J,7,0)),VLOOKUP(Q43,RWEoracle!C:G,5,0),VLOOKUP(R43,RWEservers!D:J,7,0))</f>
@@ -12743,9 +12766,9 @@
       <c r="P44" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="R44" s="1" t="e">
-        <f>VLOOKUP(P44,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R44" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P44,RWEservers!B:D,3,0)),"",(VLOOKUP(P44,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S44" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R44,RWEservers!D:J,7,0)),VLOOKUP(Q44,RWEoracle!C:G,5,0),VLOOKUP(R44,RWEservers!D:J,7,0))</f>
@@ -12792,9 +12815,9 @@
       <c r="P45" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="R45" s="1" t="e">
-        <f>VLOOKUP(P45,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R45" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P45,RWEservers!B:D,3,0)),"",(VLOOKUP(P45,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S45" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R45,RWEservers!D:J,7,0)),VLOOKUP(Q45,RWEoracle!C:G,5,0),VLOOKUP(R45,RWEservers!D:J,7,0))</f>
@@ -12841,9 +12864,9 @@
       <c r="P46" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="R46" s="1" t="e">
-        <f>VLOOKUP(P46,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R46" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P46,RWEservers!B:D,3,0)),"",(VLOOKUP(P46,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S46" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R46,RWEservers!D:J,7,0)),VLOOKUP(Q46,RWEoracle!C:G,5,0),VLOOKUP(R46,RWEservers!D:J,7,0))</f>
@@ -12890,9 +12913,9 @@
       <c r="P47" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="R47" s="1" t="e">
-        <f>VLOOKUP(P47,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R47" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P47,RWEservers!B:D,3,0)),"",(VLOOKUP(P47,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S47" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R47,RWEservers!D:J,7,0)),VLOOKUP(Q47,RWEoracle!C:G,5,0),VLOOKUP(R47,RWEservers!D:J,7,0))</f>
@@ -12939,9 +12962,9 @@
       <c r="P48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R48" s="1" t="e">
-        <f>VLOOKUP(P48,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R48" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P48,RWEservers!B:D,3,0)),"",(VLOOKUP(P48,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S48" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R48,RWEservers!D:J,7,0)),VLOOKUP(Q48,RWEoracle!C:G,5,0),VLOOKUP(R48,RWEservers!D:J,7,0))</f>
@@ -12988,9 +13011,9 @@
       <c r="P49" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="R49" s="1" t="e">
-        <f>VLOOKUP(P49,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R49" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P49,RWEservers!B:D,3,0)),"",(VLOOKUP(P49,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S49" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R49,RWEservers!D:J,7,0)),VLOOKUP(Q49,RWEoracle!C:G,5,0),VLOOKUP(R49,RWEservers!D:J,7,0))</f>
@@ -13037,9 +13060,9 @@
       <c r="P50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R50" s="1" t="e">
-        <f>VLOOKUP(P50,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R50" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P50,RWEservers!B:D,3,0)),"",(VLOOKUP(P50,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S50" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R50,RWEservers!D:J,7,0)),VLOOKUP(Q50,RWEoracle!C:G,5,0),VLOOKUP(R50,RWEservers!D:J,7,0))</f>
@@ -13098,9 +13121,9 @@
       <c r="Q51" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="R51" s="1" t="e">
-        <f>VLOOKUP(P51,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R51" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P51,RWEservers!B:D,3,0)),"",(VLOOKUP(P51,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S51" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R51,RWEservers!D:J,7,0)),VLOOKUP(Q51,RWEoracle!C:G,5,0),VLOOKUP(R51,RWEservers!D:J,7,0))</f>
@@ -13150,9 +13173,9 @@
       <c r="P52" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="R52" s="1" t="e">
-        <f>VLOOKUP(P52,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R52" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P52,RWEservers!B:D,3,0)),"",(VLOOKUP(P52,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S52" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R52,RWEservers!D:J,7,0)),VLOOKUP(Q52,RWEoracle!C:G,5,0),VLOOKUP(R52,RWEservers!D:J,7,0))</f>
@@ -13199,9 +13222,9 @@
       <c r="P53" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="R53" s="1" t="e">
-        <f>VLOOKUP(P53,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R53" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P53,RWEservers!B:D,3,0)),"",(VLOOKUP(P53,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S53" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R53,RWEservers!D:J,7,0)),VLOOKUP(Q53,RWEoracle!C:G,5,0),VLOOKUP(R53,RWEservers!D:J,7,0))</f>
@@ -13248,9 +13271,9 @@
       <c r="P54" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="R54" s="1" t="e">
-        <f>VLOOKUP(P54,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R54" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P54,RWEservers!B:D,3,0)),"",(VLOOKUP(P54,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S54" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R54,RWEservers!D:J,7,0)),VLOOKUP(Q54,RWEoracle!C:G,5,0),VLOOKUP(R54,RWEservers!D:J,7,0))</f>
@@ -13298,9 +13321,9 @@
         <v>1251</v>
       </c>
       <c r="Q55" s="5"/>
-      <c r="R55" s="1" t="e">
-        <f>VLOOKUP(P55,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R55" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P55,RWEservers!B:D,3,0)),"",(VLOOKUP(P55,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S55" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R55,RWEservers!D:J,7,0)),VLOOKUP(Q55,RWEoracle!C:G,5,0),VLOOKUP(R55,RWEservers!D:J,7,0))</f>
@@ -13346,9 +13369,9 @@
       </c>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="1" t="e">
-        <f>VLOOKUP(P56,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R56" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P56,RWEservers!B:D,3,0)),"",(VLOOKUP(P56,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S56" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R56,RWEservers!D:J,7,0)),VLOOKUP(Q56,RWEoracle!C:G,5,0),VLOOKUP(R56,RWEservers!D:J,7,0))</f>
@@ -13394,9 +13417,9 @@
       </c>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="1" t="e">
-        <f>VLOOKUP(P57,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R57" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P57,RWEservers!B:D,3,0)),"",(VLOOKUP(P57,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S57" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R57,RWEservers!D:J,7,0)),VLOOKUP(Q57,RWEoracle!C:G,5,0),VLOOKUP(R57,RWEservers!D:J,7,0))</f>
@@ -13444,9 +13467,9 @@
         <v>1548</v>
       </c>
       <c r="Q58" s="5"/>
-      <c r="R58" s="1" t="e">
-        <f>VLOOKUP(P58,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R58" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P58,RWEservers!B:D,3,0)),"",(VLOOKUP(P58,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S58" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R58,RWEservers!D:J,7,0)),VLOOKUP(Q58,RWEoracle!C:G,5,0),VLOOKUP(R58,RWEservers!D:J,7,0))</f>
@@ -13495,7 +13518,7 @@
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="1" t="str">
-        <f>VLOOKUP(P59,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P59,RWEservers!B:D,3,0)),"",(VLOOKUP(P59,RWEservers!B:D,3,0)))</f>
         <v>S030L0208</v>
       </c>
       <c r="S59" s="1" t="str">
@@ -13550,7 +13573,7 @@
         <v>1118</v>
       </c>
       <c r="R60" s="1" t="str">
-        <f>VLOOKUP(P60,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P60,RWEservers!B:D,3,0)),"",(VLOOKUP(P60,RWEservers!B:D,3,0)))</f>
         <v>S030A1972</v>
       </c>
       <c r="S60" s="1" t="str">
@@ -13604,7 +13627,7 @@
         <v>1121</v>
       </c>
       <c r="R61" s="1" t="str">
-        <f>VLOOKUP(P61,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P61,RWEservers!B:D,3,0)),"",(VLOOKUP(P61,RWEservers!B:D,3,0)))</f>
         <v>S030A1982</v>
       </c>
       <c r="S61" s="1" t="str">
@@ -13658,7 +13681,7 @@
         <v>1124</v>
       </c>
       <c r="R62" s="1" t="str">
-        <f>VLOOKUP(P62,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P62,RWEservers!B:D,3,0)),"",(VLOOKUP(P62,RWEservers!B:D,3,0)))</f>
         <v>S030A1983</v>
       </c>
       <c r="S62" s="1" t="str">
@@ -13709,9 +13732,9 @@
       <c r="Q63" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="R63" s="1" t="e">
-        <f>VLOOKUP(P63,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R63" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P63,RWEservers!B:D,3,0)),"",(VLOOKUP(P63,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S63" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R63,RWEservers!D:J,7,0)),VLOOKUP(Q63,RWEoracle!C:G,5,0),VLOOKUP(R63,RWEservers!D:J,7,0))</f>
@@ -13761,9 +13784,9 @@
       <c r="Q64" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="R64" s="1" t="e">
-        <f>VLOOKUP(P64,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R64" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P64,RWEservers!B:D,3,0)),"",(VLOOKUP(P64,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S64" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R64,RWEservers!D:J,7,0)),VLOOKUP(Q64,RWEoracle!C:G,5,0),VLOOKUP(R64,RWEservers!D:J,7,0))</f>
@@ -13813,9 +13836,9 @@
       <c r="Q65" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="R65" s="1" t="e">
-        <f>VLOOKUP(P65,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R65" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P65,RWEservers!B:D,3,0)),"",(VLOOKUP(P65,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S65" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R65,RWEservers!D:J,7,0)),VLOOKUP(Q65,RWEoracle!C:G,5,0),VLOOKUP(R65,RWEservers!D:J,7,0))</f>
@@ -13862,9 +13885,9 @@
       <c r="Q66" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="R66" s="1" t="e">
-        <f>VLOOKUP(P66,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R66" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P66,RWEservers!B:D,3,0)),"",(VLOOKUP(P66,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S66" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R66,RWEservers!D:J,7,0)),VLOOKUP(Q66,RWEoracle!C:G,5,0),VLOOKUP(R66,RWEservers!D:J,7,0))</f>
@@ -13917,7 +13940,7 @@
         <v>238</v>
       </c>
       <c r="R67" s="1" t="str">
-        <f>VLOOKUP(P67,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P67,RWEservers!B:D,3,0)),"",(VLOOKUP(P67,RWEservers!B:D,3,0)))</f>
         <v>S030A1985</v>
       </c>
       <c r="S67" s="1" t="str">
@@ -13973,9 +13996,9 @@
       <c r="Q68" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="R68" s="1" t="e">
-        <f>VLOOKUP(P68,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R68" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P68,RWEservers!B:D,3,0)),"",(VLOOKUP(P68,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S68" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R68,RWEservers!D:J,7,0)),VLOOKUP(Q68,RWEoracle!C:G,5,0),VLOOKUP(R68,RWEservers!D:J,7,0))</f>
@@ -14028,7 +14051,7 @@
         <v>1101</v>
       </c>
       <c r="R69" s="1" t="str">
-        <f>VLOOKUP(P69,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P69,RWEservers!B:D,3,0)),"",(VLOOKUP(P69,RWEservers!B:D,3,0)))</f>
         <v>S030A1974</v>
       </c>
       <c r="S69" s="1" t="str">
@@ -14082,7 +14105,7 @@
         <v>1106</v>
       </c>
       <c r="R70" s="1" t="str">
-        <f>VLOOKUP(P70,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P70,RWEservers!B:D,3,0)),"",(VLOOKUP(P70,RWEservers!B:D,3,0)))</f>
         <v>S060A0542</v>
       </c>
       <c r="S70" s="1" t="str">
@@ -14136,7 +14159,7 @@
         <v>243</v>
       </c>
       <c r="R71" s="1" t="str">
-        <f>VLOOKUP(P71,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P71,RWEservers!B:D,3,0)),"",(VLOOKUP(P71,RWEservers!B:D,3,0)))</f>
         <v>S030A1953</v>
       </c>
       <c r="S71" s="1" t="str">
@@ -14190,7 +14213,7 @@
         <v>665</v>
       </c>
       <c r="R72" s="1" t="str">
-        <f>VLOOKUP(P72,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P72,RWEservers!B:D,3,0)),"",(VLOOKUP(P72,RWEservers!B:D,3,0)))</f>
         <v>s030L0242</v>
       </c>
       <c r="S72" s="1" t="str">
@@ -14235,9 +14258,9 @@
       <c r="Q73" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="R73" s="1" t="e">
-        <f>VLOOKUP(P73,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R73" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P73,RWEservers!B:D,3,0)),"",(VLOOKUP(P73,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S73" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R73,RWEservers!D:J,7,0)),VLOOKUP(Q73,RWEoracle!C:G,5,0),VLOOKUP(R73,RWEservers!D:J,7,0))</f>
@@ -14281,9 +14304,9 @@
       <c r="Q74" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="R74" s="1" t="e">
-        <f>VLOOKUP(P74,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R74" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P74,RWEservers!B:D,3,0)),"",(VLOOKUP(P74,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S74" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R74,RWEservers!D:J,7,0)),VLOOKUP(Q74,RWEoracle!C:G,5,0),VLOOKUP(R74,RWEservers!D:J,7,0))</f>
@@ -14338,9 +14361,9 @@
       <c r="Q75" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="R75" s="1" t="e">
-        <f>VLOOKUP(P75,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R75" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P75,RWEservers!B:D,3,0)),"",(VLOOKUP(P75,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S75" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R75,RWEservers!D:J,7,0)),VLOOKUP(Q75,RWEoracle!C:G,5,0),VLOOKUP(R75,RWEservers!D:J,7,0))</f>
@@ -14396,7 +14419,7 @@
         <v>264</v>
       </c>
       <c r="R76" s="1" t="str">
-        <f>VLOOKUP(P76,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P76,RWEservers!B:D,3,0)),"",(VLOOKUP(P76,RWEservers!B:D,3,0)))</f>
         <v>S060A0535</v>
       </c>
       <c r="S76" s="1" t="str">
@@ -14450,7 +14473,7 @@
         <v>1220</v>
       </c>
       <c r="R77" s="1" t="str">
-        <f>VLOOKUP(P77,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P77,RWEservers!B:D,3,0)),"",(VLOOKUP(P77,RWEservers!B:D,3,0)))</f>
         <v>S060A0530</v>
       </c>
       <c r="S77" s="1" t="str">
@@ -14508,7 +14531,7 @@
         <v>1158</v>
       </c>
       <c r="R78" s="1" t="str">
-        <f>VLOOKUP(P78,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P78,RWEservers!B:D,3,0)),"",(VLOOKUP(P78,RWEservers!B:D,3,0)))</f>
         <v>S030A1969</v>
       </c>
       <c r="S78" s="1" t="str">
@@ -14571,9 +14594,9 @@
       <c r="Q79" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="R79" s="1" t="e">
-        <f>VLOOKUP(P79,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R79" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P79,RWEservers!B:D,3,0)),"",(VLOOKUP(P79,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S79" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R79,RWEservers!D:J,7,0)),VLOOKUP(Q79,RWEoracle!C:G,5,0),VLOOKUP(R79,RWEservers!D:J,7,0))</f>
@@ -14635,9 +14658,9 @@
       <c r="Q80" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="R80" s="1" t="e">
-        <f>VLOOKUP(P80,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R80" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P80,RWEservers!B:D,3,0)),"",(VLOOKUP(P80,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S80" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R80,RWEservers!D:J,7,0)),VLOOKUP(Q80,RWEoracle!C:G,5,0),VLOOKUP(R80,RWEservers!D:J,7,0))</f>
@@ -14694,7 +14717,7 @@
         <v>1126</v>
       </c>
       <c r="R81" s="1" t="str">
-        <f>VLOOKUP(P81,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P81,RWEservers!B:D,3,0)),"",(VLOOKUP(P81,RWEservers!B:D,3,0)))</f>
         <v>S030A1973</v>
       </c>
       <c r="S81" s="1" t="str">
@@ -14743,7 +14766,7 @@
         <v>1564</v>
       </c>
       <c r="R82" s="1" t="str">
-        <f>VLOOKUP(P82,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P82,RWEservers!B:D,3,0)),"",(VLOOKUP(P82,RWEservers!B:D,3,0)))</f>
         <v>S030A1986</v>
       </c>
       <c r="S82" s="1" t="str">
@@ -14800,7 +14823,7 @@
         <v>560</v>
       </c>
       <c r="R83" s="1" t="str">
-        <f>VLOOKUP(P83,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P83,RWEservers!B:D,3,0)),"",(VLOOKUP(P83,RWEservers!B:D,3,0)))</f>
         <v>s030L0241</v>
       </c>
       <c r="S83" s="1" t="str">
@@ -14854,7 +14877,7 @@
         <v>1214</v>
       </c>
       <c r="R84" s="1" t="str">
-        <f>VLOOKUP(P84,RWEservers!B:D,3,0)</f>
+        <f>IF(ISERROR(VLOOKUP(P84,RWEservers!B:D,3,0)),"",(VLOOKUP(P84,RWEservers!B:D,3,0)))</f>
         <v>S060A0529</v>
       </c>
       <c r="S84" s="1" t="str">
@@ -14903,9 +14926,9 @@
       <c r="Q85" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="R85" s="1" t="e">
-        <f>VLOOKUP(P85,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R85" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P85,RWEservers!B:D,3,0)),"",(VLOOKUP(P85,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S85" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R85,RWEservers!D:J,7,0)),VLOOKUP(Q85,RWEoracle!C:G,5,0),VLOOKUP(R85,RWEservers!D:J,7,0))</f>
@@ -14949,9 +14972,9 @@
       <c r="Q86" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="R86" s="1" t="e">
-        <f>VLOOKUP(P86,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R86" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P86,RWEservers!B:D,3,0)),"",(VLOOKUP(P86,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S86" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R86,RWEservers!D:J,7,0)),VLOOKUP(Q86,RWEoracle!C:G,5,0),VLOOKUP(R86,RWEservers!D:J,7,0))</f>
@@ -14995,9 +15018,9 @@
       <c r="Q87" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="R87" s="1" t="e">
-        <f>VLOOKUP(P87,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R87" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P87,RWEservers!B:D,3,0)),"",(VLOOKUP(P87,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S87" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R87,RWEservers!D:J,7,0)),VLOOKUP(Q87,RWEoracle!C:G,5,0),VLOOKUP(R87,RWEservers!D:J,7,0))</f>
@@ -15041,9 +15064,9 @@
       <c r="Q88" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="R88" s="1" t="e">
-        <f>VLOOKUP(P88,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R88" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P88,RWEservers!B:D,3,0)),"",(VLOOKUP(P88,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S88" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R88,RWEservers!D:J,7,0)),VLOOKUP(Q88,RWEoracle!C:G,5,0),VLOOKUP(R88,RWEservers!D:J,7,0))</f>
@@ -15087,9 +15110,9 @@
       <c r="Q89" s="1" t="s">
         <v>2082</v>
       </c>
-      <c r="R89" s="1" t="e">
-        <f>VLOOKUP(P89,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R89" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P89,RWEservers!B:D,3,0)),"",(VLOOKUP(P89,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S89" s="1" t="e">
         <f>IF(ISERROR(VLOOKUP(R89,RWEservers!D:J,7,0)),VLOOKUP(Q89,RWEoracle!C:G,5,0),VLOOKUP(R89,RWEservers!D:J,7,0))</f>
@@ -15125,9 +15148,9 @@
       <c r="Q90" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="R90" s="1" t="e">
-        <f>VLOOKUP(P90,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R90" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P90,RWEservers!B:D,3,0)),"",(VLOOKUP(P90,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S90" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R90,RWEservers!D:J,7,0)),VLOOKUP(Q90,RWEoracle!C:G,5,0),VLOOKUP(R90,RWEservers!D:J,7,0))</f>
@@ -15171,9 +15194,9 @@
       <c r="Q91" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="R91" s="1" t="e">
-        <f>VLOOKUP(P91,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R91" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P91,RWEservers!B:D,3,0)),"",(VLOOKUP(P91,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S91" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R91,RWEservers!D:J,7,0)),VLOOKUP(Q91,RWEoracle!C:G,5,0),VLOOKUP(R91,RWEservers!D:J,7,0))</f>
@@ -15217,9 +15240,9 @@
       <c r="Q92" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="R92" s="1" t="e">
-        <f>VLOOKUP(P92,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R92" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P92,RWEservers!B:D,3,0)),"",(VLOOKUP(P92,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S92" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R92,RWEservers!D:J,7,0)),VLOOKUP(Q92,RWEoracle!C:G,5,0),VLOOKUP(R92,RWEservers!D:J,7,0))</f>
@@ -15263,9 +15286,9 @@
       <c r="Q93" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="R93" s="1" t="e">
-        <f>VLOOKUP(P93,RWEservers!B:D,3,0)</f>
-        <v>#N/A</v>
+      <c r="R93" s="1" t="str">
+        <f>IF(ISERROR(VLOOKUP(P93,RWEservers!B:D,3,0)),"",(VLOOKUP(P93,RWEservers!B:D,3,0)))</f>
+        <v/>
       </c>
       <c r="S93" s="1" t="str">
         <f>IF(ISERROR(VLOOKUP(R93,RWEservers!D:J,7,0)),VLOOKUP(Q93,RWEoracle!C:G,5,0),VLOOKUP(R93,RWEservers!D:J,7,0))</f>
@@ -15295,13 +15318,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15422,13 +15445,13 @@
         <v>1300</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P28" si="0">D2&amp;H2</f>
+        <f t="shared" ref="P2:P29" si="0">D2&amp;H2</f>
         <v>All4OneInformatica</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A87" si="1">ROW()-1</f>
+        <f t="shared" ref="A3:A67" si="1">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -16429,51 +16452,48 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1" t="str">
         <f>VLOOKUP(B23,Applications!A:N,3,0)</f>
-        <v>Informatica</v>
+        <v>EDSN Gateway</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>VLOOKUP(C23,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <v>sues-nlams1-051-vip</v>
       </c>
       <c r="F23" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="str">
         <f>VLOOKUP(F23,Applications!A:N,3,0)</f>
-        <v>Vaultage</v>
+        <v>Informatica</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>VLOOKUP(G23,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS-011</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="3">
-        <v>100000</v>
+        <v>47</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>1297</v>
+        <v>2093</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>InformaticaVaultage</v>
+        <f t="shared" ref="P23" si="9">D23&amp;H23</f>
+        <v>EDSN GatewayInformatica</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -16496,37 +16516,37 @@
         <v>SUES-NLAMS1-020</v>
       </c>
       <c r="F24" s="1">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>VLOOKUP(F24,Applications!A:N,3,0)</f>
-        <v>Automount</v>
+        <v>Vaultage</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>VLOOKUP(G24,Servers!A:P,16,0)</f>
-        <v>swes-nlams1-081</v>
+        <v>SUES-NLAMS-011</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1000</v>
+        <v>29</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100000</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>InformaticaAutomount</v>
+        <v>InformaticaVaultage</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -16535,45 +16555,51 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>VLOOKUP(B25,Applications!A:N,3,0)</f>
-        <v>iProcess</v>
+        <v>Informatica</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>VLOOKUP(C25,Servers!A:P,16,0)</f>
-        <v>SUESZ159</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="F25" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>VLOOKUP(F25,Applications!A:N,3,0)</f>
-        <v>XM2</v>
+        <v>Automount</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>VLOOKUP(G25,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
+        <v>swes-nlams1-081</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>1244</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>1313</v>
+        <v>1302</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>iProcessXM2</v>
+        <v>InformaticaAutomount</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -16582,51 +16608,45 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="str">
         <f>VLOOKUP(B26,Applications!A:N,3,0)</f>
-        <v>iProcess</v>
+        <v>Tibco BW</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>VLOOKUP(C26,Servers!A:P,16,0)</f>
-        <v>SUESZ159</v>
+        <v>SUESZ152</v>
       </c>
       <c r="F26" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>VLOOKUP(F26,Applications!A:N,3,0)</f>
-        <v>Informatica</v>
+        <v>XM2</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>VLOOKUP(G26,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <v>SUESZ102</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>1284</v>
+        <v>40</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>1294</v>
+        <v>1313</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>iProcessInformatica</v>
+        <v>Tibco BWXM2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -16635,18 +16655,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="str">
         <f>VLOOKUP(B27,Applications!A:N,3,0)</f>
-        <v>iProcess</v>
+        <v>Tibco BW</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>VLOOKUP(C27,Servers!A:P,16,0)</f>
-        <v>SUESZ160</v>
+        <v>SUESZ152</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -16679,7 +16699,7 @@
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>iProcessInformatica</v>
+        <v>Tibco BWInformatica</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -16688,51 +16708,51 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="str">
         <f>VLOOKUP(B28,Applications!A:N,3,0)</f>
-        <v>iProcess</v>
+        <v>Tibco BW</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>VLOOKUP(C28,Servers!A:P,16,0)</f>
         <v>SUESZ152</v>
       </c>
       <c r="F28" s="1">
+        <v>10</v>
+      </c>
+      <c r="G28" s="1">
         <v>14</v>
-      </c>
-      <c r="G28" s="1">
-        <v>18</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>VLOOKUP(F28,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>Informatica</v>
       </c>
       <c r="I28" s="1" t="str">
         <f>VLOOKUP(G28,Servers!A:P,16,0)</f>
-        <v>ES1WI1212</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="1">
-        <v>5000</v>
+        <v>47</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1000</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1241</v>
+        <v>1284</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>1335</v>
+        <v>1294</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>iProcessPIF</v>
+        <v>Tibco BWInformatica</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -16741,50 +16761,51 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>51</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>VLOOKUP(B29,Applications!A:N,3,0)</f>
+        <v>Tibco BW</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>VLOOKUP(C29,Servers!A:P,16,0)</f>
-        <v>10.233.2.134</v>
+        <v>SUESZ152</v>
       </c>
       <c r="F29" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>VLOOKUP(F29,Applications!A:N,3,0)</f>
-        <v>Informatica</v>
+        <v>PIF</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>VLOOKUP(G29,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <v>ES1WI1212</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L29" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>1284</v>
+        <v>1241</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>1301</v>
+        <v>1335</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" ref="P29" si="9">D29&amp;H29</f>
-        <v>iProcessInformatica</v>
+        <f t="shared" si="0"/>
+        <v>Tibco BWPIF</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -16793,44 +16814,51 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>VLOOKUP(B30,Applications!A:N,3,0)</f>
-        <v>ODS</v>
+        <v>Tibco BW</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>VLOOKUP(C30,Servers!A:P,16,0)</f>
-        <v>SUESZ091</v>
+        <v>SUESZ152</v>
       </c>
       <c r="F30" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>VLOOKUP(F30,Applications!A:N,3,0)</f>
-        <v>Tibco BW</v>
+        <v>Informatica</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>VLOOKUP(G30,Servers!A:P,16,0)</f>
-        <v>SUESZ152</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1000</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>1262</v>
+        <v>1284</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>2088</v>
+        <v>1301</v>
+      </c>
+      <c r="P30" s="1" t="str">
+        <f t="shared" ref="P30" si="10">D30&amp;H30</f>
+        <v>Tibco BWInformatica</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -16876,7 +16904,7 @@
         <v>1262</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -16885,32 +16913,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>VLOOKUP(B32,Applications!A:N,3,0)</f>
-        <v>Tibco BW</v>
+        <v>ODS</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>VLOOKUP(C32,Servers!A:P,16,0)</f>
-        <v>SUESZ152</v>
+        <v>SUESZ091</v>
       </c>
       <c r="F32" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>VLOOKUP(F32,Applications!A:N,3,0)</f>
-        <v>ODS</v>
+        <v>Tibco BW</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>VLOOKUP(G32,Servers!A:P,16,0)</f>
-        <v>SUESZ091</v>
+        <v>SUESZ152</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>10</v>
@@ -16922,41 +16950,41 @@
         <v>1262</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="str">
         <f>VLOOKUP(B33,Applications!A:N,3,0)</f>
-        <v>RMS</v>
+        <v>Tibco BW</v>
       </c>
       <c r="E33" s="1" t="str">
         <f>VLOOKUP(C33,Servers!A:P,16,0)</f>
-        <v>ES1WI1423</v>
+        <v>SUESZ152</v>
       </c>
       <c r="F33" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G33" s="1">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>VLOOKUP(F33,Applications!A:N,3,0)</f>
-        <v>Tibco BW</v>
+        <v>ODS</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>VLOOKUP(G33,Servers!A:P,16,0)</f>
-        <v>SUESZ152</v>
+        <v>SUESZ091</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>10</v>
@@ -16968,41 +16996,41 @@
         <v>1262</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="str">
         <f>VLOOKUP(B34,Applications!A:N,3,0)</f>
-        <v>Tibco BW</v>
+        <v>RMS</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>VLOOKUP(C34,Servers!A:P,16,0)</f>
-        <v>SUESZ152</v>
+        <v>ES1WI1423</v>
       </c>
       <c r="F34" s="1">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G34" s="1">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="H34" s="1" t="str">
         <f>VLOOKUP(F34,Applications!A:N,3,0)</f>
-        <v>RMS</v>
+        <v>Tibco BW</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>VLOOKUP(G34,Servers!A:P,16,0)</f>
-        <v>ES1WI1423</v>
+        <v>SUESZ152</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>10</v>
@@ -17014,12 +17042,12 @@
         <v>1262</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <f>ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -17037,18 +17065,18 @@
         <v>SUESZ152</v>
       </c>
       <c r="F35" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="H35" s="1" t="str">
         <f>VLOOKUP(F35,Applications!A:N,3,0)</f>
-        <v>ODS</v>
+        <v>RMS</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>VLOOKUP(G35,Servers!A:P,16,0)</f>
-        <v>SUESZ091</v>
+        <v>ES1WI1423</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>10</v>
@@ -17060,60 +17088,53 @@
         <v>1262</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <f t="shared" ref="A36" si="10">ROW()-1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D36" s="1" t="str">
         <f>VLOOKUP(B36,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>Tibco BW</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>VLOOKUP(C36,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>SUESZ152</v>
       </c>
       <c r="F36" s="1">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G36" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H36" s="1" t="str">
         <f>VLOOKUP(F36,Applications!A:N,3,0)</f>
-        <v>Audit Base</v>
+        <v>ODS</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>VLOOKUP(G36,Servers!A:P,16,0)</f>
-        <v>ftp.auditbase.nl</v>
+        <v>SUESZ091</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="1">
-        <v>750</v>
+        <v>62</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>1242</v>
+        <v>1262</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="P36" s="1" t="str">
-        <f t="shared" ref="P36:P51" si="11">D36&amp;H36</f>
-        <v>PIFAudit Base</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -17136,37 +17157,37 @@
         <v>ES1WI1470</v>
       </c>
       <c r="F37" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="str">
         <f>VLOOKUP(F37,Applications!A:N,3,0)</f>
-        <v>Qlikview</v>
+        <v>Audit Base</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>VLOOKUP(G37,Servers!A:P,16,0)</f>
-        <v>ES1WI1462</v>
+        <v>ftp.auditbase.nl</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L37" s="1">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>PIFQlikview</v>
+        <f t="shared" ref="P37:P52" si="11">D37&amp;H37</f>
+        <v>PIFAudit Base</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -17189,18 +17210,18 @@
         <v>ES1WI1470</v>
       </c>
       <c r="F38" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="1" t="str">
         <f>VLOOKUP(F38,Applications!A:N,3,0)</f>
-        <v>Digip</v>
+        <v>Qlikview</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>VLOOKUP(G38,Servers!A:P,16,0)</f>
-        <v>SWES-NLAMS1-080</v>
+        <v>ES1WI1462</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>10</v>
@@ -17209,17 +17230,17 @@
         <v>29</v>
       </c>
       <c r="L38" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>PIFDigip</v>
+        <v>PIFQlikview</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -17242,40 +17263,37 @@
         <v>ES1WI1470</v>
       </c>
       <c r="F39" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>VLOOKUP(F39,Applications!A:N,3,0)</f>
-        <v>iProcess</v>
+        <v>Digip</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>VLOOKUP(G39,Servers!A:P,16,0)</f>
-        <v>SUESZ152</v>
+        <v>SWES-NLAMS1-080</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="L39" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="O39" s="97" t="s">
-        <v>2083</v>
+        <v>1330</v>
       </c>
       <c r="P39" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>PIFiProcess</v>
+        <v>PIFDigip</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -17298,37 +17316,40 @@
         <v>ES1WI1470</v>
       </c>
       <c r="F40" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H40" s="1" t="str">
         <f>VLOOKUP(F40,Applications!A:N,3,0)</f>
-        <v>Sharepoint</v>
+        <v>iProcess</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>VLOOKUP(G40,Servers!A:P,16,0)</f>
-        <v>https://teamatwork-sharepoint.rwe.com</v>
+        <v>SUESZ152</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
+      </c>
+      <c r="O40" s="97" t="s">
+        <v>2083</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>PIFSharepoint</v>
+        <v>PIFiProcess</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -17351,37 +17372,37 @@
         <v>ES1WI1470</v>
       </c>
       <c r="F41" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G41" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="1" t="str">
         <f>VLOOKUP(F41,Applications!A:N,3,0)</f>
-        <v>TIJSS</v>
+        <v>Sharepoint</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>VLOOKUP(G41,Servers!A:P,16,0)</f>
-        <v xml:space="preserve">S031A0006.rwe.com </v>
+        <v>https://teamatwork-sharepoint.rwe.com</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="L41" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1244</v>
+        <v>1254</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1245</v>
+        <v>1332</v>
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>PIFTIJSS</v>
+        <v>PIFSharepoint</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -17393,7 +17414,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1" t="str">
         <f>VLOOKUP(B42,Applications!A:N,3,0)</f>
@@ -17401,40 +17422,40 @@
       </c>
       <c r="E42" s="1" t="str">
         <f>VLOOKUP(C42,Servers!A:P,16,0)</f>
-        <v>ES1WI1212</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="F42" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>VLOOKUP(F42,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
+        <v>TIJSS</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>VLOOKUP(G42,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v xml:space="preserve">S031A0006.rwe.com </v>
       </c>
       <c r="J42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="L42" s="1">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1268</v>
+        <v>1245</v>
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>PIFBPS DWH</v>
+        <v>PIFTIJSS</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -17446,7 +17467,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="str">
         <f>VLOOKUP(B43,Applications!A:N,3,0)</f>
@@ -17454,7 +17475,7 @@
       </c>
       <c r="E43" s="1" t="str">
         <f>VLOOKUP(C43,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>ES1WI1212</v>
       </c>
       <c r="F43" s="1">
         <v>20</v>
@@ -17483,7 +17504,7 @@
         <v>1239</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="11"/>
@@ -17499,7 +17520,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44" s="1" t="str">
         <f>VLOOKUP(B44,Applications!A:N,3,0)</f>
@@ -17507,21 +17528,21 @@
       </c>
       <c r="E44" s="1" t="str">
         <f>VLOOKUP(C44,Servers!A:P,16,0)</f>
-        <v>ES1WI1212</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="F44" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G44" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1" t="str">
         <f>VLOOKUP(F44,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>VLOOKUP(G44,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>10</v>
@@ -17529,12 +17550,18 @@
       <c r="K44" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="L44" s="1">
+        <v>2000</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>1239</v>
+      </c>
       <c r="N44" s="1" t="s">
-        <v>1342</v>
+        <v>1269</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f t="shared" ref="P44" si="12">D44&amp;H44</f>
-        <v>PIFPIF</v>
+        <f t="shared" si="11"/>
+        <v>PIFBPS DWH</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -17546,7 +17573,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="str">
         <f>VLOOKUP(B45,Applications!A:N,3,0)</f>
@@ -17554,13 +17581,13 @@
       </c>
       <c r="E45" s="1" t="str">
         <f>VLOOKUP(C45,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>ES1WI1212</v>
       </c>
       <c r="F45" s="1">
         <v>14</v>
       </c>
       <c r="G45" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" s="1" t="str">
         <f>VLOOKUP(F45,Applications!A:N,3,0)</f>
@@ -17568,7 +17595,7 @@
       </c>
       <c r="I45" s="1" t="str">
         <f>VLOOKUP(G45,Servers!A:P,16,0)</f>
-        <v>W2K3-FOR03P</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>10</v>
@@ -17580,7 +17607,7 @@
         <v>1342</v>
       </c>
       <c r="P45" s="1" t="str">
-        <f t="shared" ref="P45" si="13">D45&amp;H45</f>
+        <f t="shared" ref="P45" si="12">D45&amp;H45</f>
         <v>PIFPIF</v>
       </c>
     </row>
@@ -17590,32 +17617,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1" t="str">
         <f>VLOOKUP(B46,Applications!A:N,3,0)</f>
-        <v>RMS</v>
+        <v>PIF</v>
       </c>
       <c r="E46" s="1" t="str">
         <f>VLOOKUP(C46,Servers!A:P,16,0)</f>
-        <v>ES1WI1423</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1" t="str">
         <f>VLOOKUP(F46,Applications!A:N,3,0)</f>
-        <v>Aprimo</v>
+        <v>PIF</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>VLOOKUP(G46,Servers!A:P,16,0)</f>
-        <v>SWESR119</v>
+        <v>W2K3-FOR03P</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>10</v>
@@ -17623,15 +17650,12 @@
       <c r="K46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>1240</v>
-      </c>
       <c r="N46" s="1" t="s">
-        <v>1316</v>
+        <v>1342</v>
       </c>
       <c r="P46" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>RMSAprimo</v>
+        <f t="shared" ref="P46" si="13">D46&amp;H46</f>
+        <v>PIFPIF</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -17654,18 +17678,18 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F47" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G47" s="1">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="H47" s="1" t="str">
         <f>VLOOKUP(F47,Applications!A:N,3,0)</f>
-        <v>SAS</v>
+        <v>Aprimo</v>
       </c>
       <c r="I47" s="1" t="str">
         <f>VLOOKUP(G47,Servers!A:P,16,0)</f>
-        <v>SWES-NLAMS1-082</v>
+        <v>SWESR119</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>10</v>
@@ -17677,11 +17701,11 @@
         <v>1240</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>RMSSAS</v>
+        <v>RMSAprimo</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -17704,37 +17728,34 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F48" s="1">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G48" s="1">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="str">
         <f>VLOOKUP(F48,Applications!A:N,3,0)</f>
-        <v>mail.essent.nl</v>
+        <v>SAS</v>
       </c>
       <c r="I48" s="1" t="str">
         <f>VLOOKUP(G48,Servers!A:P,16,0)</f>
-        <v>mail.essent.nl</v>
+        <v>SWES-NLAMS1-082</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L48" s="1">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>1259</v>
+        <v>1240</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="P48" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>RMSmail.essent.nl</v>
+        <v>RMSSAS</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -17757,34 +17778,37 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F49" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G49" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H49" s="1" t="str">
         <f>VLOOKUP(F49,Applications!A:N,3,0)</f>
-        <v>RMS Portal</v>
+        <v>mail.essent.nl</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>VLOOKUP(G49,Servers!A:P,16,0)</f>
-        <v>W2K3-RMS02P</v>
+        <v>mail.essent.nl</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>1240</v>
+        <v>1259</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="P49" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>RMSRMS Portal</v>
+        <v>RMSmail.essent.nl</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -17807,37 +17831,34 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F50" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G50" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H50" s="1" t="str">
         <f>VLOOKUP(F50,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>RMS Portal</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>VLOOKUP(G50,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>W2K3-RMS02P</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L50" s="1">
-        <v>1000</v>
-      </c>
       <c r="M50" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="P50" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>RMSPIF</v>
+        <v>RMSRMS Portal</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -17860,34 +17881,37 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F51" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H51" s="1" t="str">
         <f>VLOOKUP(F51,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
+        <v>PIF</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>VLOOKUP(G51,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="L51" s="1">
+        <v>1000</v>
+      </c>
       <c r="M51" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P51" s="1" t="str">
         <f t="shared" si="11"/>
-        <v>RMSBPS DWH</v>
+        <v>RMSPIF</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -17910,30 +17934,34 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F52" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G52" s="1">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H52" s="1" t="str">
         <f>VLOOKUP(F52,Applications!A:N,3,0)</f>
-        <v>RWE ftp</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>VLOOKUP(G52,Servers!A:P,16,0)</f>
-        <v>ftpservice.rwe.com</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
+      </c>
+      <c r="P52" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>RMSBPS DWH</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -17956,30 +17984,30 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F53" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G53" s="1">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H53" s="1" t="str">
         <f>VLOOKUP(F53,Applications!A:N,3,0)</f>
-        <v>XM2</v>
+        <v>RWE ftp</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>VLOOKUP(G53,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
+        <v>ftpservice.rwe.com</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>1240</v>
+        <v>1258</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>1315</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -18002,30 +18030,30 @@
         <v>ES1WI1423</v>
       </c>
       <c r="F54" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H54" s="1" t="str">
         <f>VLOOKUP(F54,Applications!A:N,3,0)</f>
-        <v>Wasstraat</v>
+        <v>XM2</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>VLOOKUP(G54,Servers!A:P,16,0)</f>
-        <v>W2K-DWH01P</v>
+        <v>SUESZ102</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>1264</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -18037,7 +18065,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" s="1" t="str">
         <f>VLOOKUP(B55,Applications!A:N,3,0)</f>
@@ -18045,27 +18073,33 @@
       </c>
       <c r="E55" s="1" t="str">
         <f>VLOOKUP(C55,Servers!A:P,16,0)</f>
-        <v>ES1VM0145</v>
+        <v>ES1WI1423</v>
       </c>
       <c r="F55" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G55" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H55" s="1" t="str">
         <f>VLOOKUP(F55,Applications!A:N,3,0)</f>
-        <v>RMS</v>
+        <v>Wasstraat</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>VLOOKUP(G55,Servers!A:P,16,0)</f>
-        <v>ES1WI1423</v>
+        <v>W2K-DWH01P</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>1240</v>
+      </c>
       <c r="N55" s="1" t="s">
-        <v>1342</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -18074,18 +18108,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D56" s="1" t="str">
         <f>VLOOKUP(B56,Applications!A:N,3,0)</f>
-        <v>RMS Portal</v>
+        <v>RMS</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>VLOOKUP(C56,Servers!A:P,16,0)</f>
-        <v>W2K3-RMS02P</v>
+        <v>ES1VM0145</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
@@ -18104,18 +18138,8 @@
       <c r="J56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>1240</v>
-      </c>
       <c r="N56" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="P56" s="1" t="str">
-        <f>D56&amp;H56</f>
-        <v>RMS PortalRMS</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -18124,51 +18148,48 @@
         <v>56</v>
       </c>
       <c r="B57" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1" t="str">
         <f>VLOOKUP(B57,Applications!A:N,3,0)</f>
-        <v>RWE AD servers</v>
+        <v>RMS Portal</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>VLOOKUP(C57,Servers!A:P,16,0)</f>
-        <v>GROUP.RWE.COM/DATA</v>
+        <v>W2K3-RMS02P</v>
       </c>
       <c r="F57" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H57" s="1" t="str">
         <f>VLOOKUP(F57,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>RMS</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>VLOOKUP(G57,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>ES1WI1423</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L57" s="1">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="P57" s="1" t="str">
         <f>D57&amp;H57</f>
-        <v>RWE AD serversPIF</v>
+        <v>RMS PortalRMS</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -18177,44 +18198,51 @@
         <v>57</v>
       </c>
       <c r="B58" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="str">
         <f>VLOOKUP(B58,Applications!A:N,3,0)</f>
-        <v>RWE ftp</v>
+        <v>RWE AD servers</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>VLOOKUP(C58,Servers!A:P,16,0)</f>
-        <v>ftpservice.rwe.com</v>
+        <v>GROUP.RWE.COM/DATA</v>
       </c>
       <c r="F58" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G58" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H58" s="1" t="str">
         <f>VLOOKUP(F58,Applications!A:N,3,0)</f>
-        <v>RMS</v>
+        <v>PIF</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>VLOOKUP(G58,Servers!A:P,16,0)</f>
-        <v>ES1WI1423</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="L58" s="1">
+        <v>500</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>1325</v>
+        <v>1340</v>
+      </c>
+      <c r="P58" s="1" t="str">
+        <f>D58&amp;H58</f>
+        <v>RWE AD serversPIF</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -18223,48 +18251,44 @@
         <v>58</v>
       </c>
       <c r="B59" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D59" s="1" t="str">
         <f>VLOOKUP(B59,Applications!A:N,3,0)</f>
-        <v>SAP CRM</v>
+        <v>RWE ftp</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>VLOOKUP(C59,Servers!A:P,16,0)</f>
-        <v>SUESZ078</v>
+        <v>ftpservice.rwe.com</v>
       </c>
       <c r="F59" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H59" s="1" t="str">
         <f>VLOOKUP(F59,Applications!A:N,3,0)</f>
-        <v>XM2</v>
+        <v>RMS</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>VLOOKUP(G59,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
+        <v>ES1WI1423</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L59" s="3">
-        <v>50000</v>
+        <v>43</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>1258</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="P59" s="1" t="str">
-        <f t="shared" ref="P59:P92" si="14">D59&amp;H59</f>
-        <v>SAP CRMXM2</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -18287,37 +18311,34 @@
         <v>SUESZ078</v>
       </c>
       <c r="F60" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H60" s="1" t="str">
         <f>VLOOKUP(F60,Applications!A:N,3,0)</f>
-        <v>Informatica</v>
+        <v>XM2</v>
       </c>
       <c r="I60" s="1" t="str">
         <f>VLOOKUP(G60,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <v>SUESZ102</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>1283</v>
+        <v>29</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>1285</v>
+        <v>50000</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>1296</v>
       </c>
       <c r="P60" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>SAP CRMInformatica</v>
+        <f t="shared" ref="P60:P95" si="14">D60&amp;H60</f>
+        <v>SAP CRMXM2</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -18329,7 +18350,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" s="1" t="str">
         <f>VLOOKUP(B61,Applications!A:N,3,0)</f>
@@ -18337,7 +18358,7 @@
       </c>
       <c r="E61" s="1" t="str">
         <f>VLOOKUP(C61,Servers!A:P,16,0)</f>
-        <v>SUESZ079</v>
+        <v>SUESZ078</v>
       </c>
       <c r="F61" s="1">
         <v>10</v>
@@ -18382,7 +18403,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" s="1" t="str">
         <f>VLOOKUP(B62,Applications!A:N,3,0)</f>
@@ -18390,7 +18411,7 @@
       </c>
       <c r="E62" s="1" t="str">
         <f>VLOOKUP(C62,Servers!A:P,16,0)</f>
-        <v>SUESZ080</v>
+        <v>SUESZ079</v>
       </c>
       <c r="F62" s="1">
         <v>10</v>
@@ -18413,7 +18434,7 @@
         <v>1283</v>
       </c>
       <c r="L62" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>1285</v>
@@ -18432,48 +18453,51 @@
         <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" s="1" t="str">
         <f>VLOOKUP(B63,Applications!A:N,3,0)</f>
-        <v>SAP ISU</v>
+        <v>SAP CRM</v>
       </c>
       <c r="E63" s="1" t="str">
         <f>VLOOKUP(C63,Servers!A:P,16,0)</f>
-        <v>SUESZ081</v>
+        <v>SUESZ080</v>
       </c>
       <c r="F63" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G63" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1" t="str">
         <f>VLOOKUP(F63,Applications!A:N,3,0)</f>
-        <v>XM2</v>
+        <v>Informatica</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>VLOOKUP(G63,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>29</v>
+        <v>1283</v>
       </c>
       <c r="L63" s="3">
-        <v>125000</v>
+        <v>5000</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>1285</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="P63" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SAP ISUXM2</v>
+        <v>SAP CRMInformatica</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -18496,37 +18520,34 @@
         <v>SUESZ081</v>
       </c>
       <c r="F64" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H64" s="1" t="str">
         <f>VLOOKUP(F64,Applications!A:N,3,0)</f>
-        <v>Informatica</v>
+        <v>XM2</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>VLOOKUP(G64,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <v>SUESZ102</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1283</v>
+        <v>29</v>
       </c>
       <c r="L64" s="3">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>1285</v>
+        <v>125000</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="P64" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SAP ISUInformatica</v>
+        <v>SAP ISUXM2</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -18538,7 +18559,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" s="1" t="str">
         <f>VLOOKUP(B65,Applications!A:N,3,0)</f>
@@ -18546,7 +18567,7 @@
       </c>
       <c r="E65" s="1" t="str">
         <f>VLOOKUP(C65,Servers!A:P,16,0)</f>
-        <v>SUESZ082</v>
+        <v>SUESZ081</v>
       </c>
       <c r="F65" s="1">
         <v>10</v>
@@ -18569,7 +18590,7 @@
         <v>1283</v>
       </c>
       <c r="L65" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>1285</v>
@@ -18591,7 +18612,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1" t="str">
         <f>VLOOKUP(B66,Applications!A:N,3,0)</f>
@@ -18599,7 +18620,7 @@
       </c>
       <c r="E66" s="1" t="str">
         <f>VLOOKUP(C66,Servers!A:P,16,0)</f>
-        <v>SUESZ083</v>
+        <v>SUESZ082</v>
       </c>
       <c r="F66" s="1">
         <v>10</v>
@@ -18622,7 +18643,7 @@
         <v>1283</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>1285</v>
@@ -18641,206 +18662,212 @@
         <v>66</v>
       </c>
       <c r="B67" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D67" s="1" t="str">
         <f>VLOOKUP(B67,Applications!A:N,3,0)</f>
-        <v>SAS</v>
+        <v>SAP ISU</v>
       </c>
       <c r="E67" s="1" t="str">
         <f>VLOOKUP(C67,Servers!A:P,16,0)</f>
-        <v>SWES-NLAMS1-082</v>
+        <v>SUESZ083</v>
       </c>
       <c r="F67" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G67" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1" t="str">
         <f>VLOOKUP(F67,Applications!A:N,3,0)</f>
-        <v>RMS</v>
+        <v>Informatica</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>VLOOKUP(G67,Servers!A:P,16,0)</f>
-        <v>ES1WI1423</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>29</v>
+        <v>1283</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>1240</v>
+        <v>1285</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>1327</v>
+        <v>1295</v>
       </c>
       <c r="P67" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>SASRMS</v>
+        <v>SAP ISUInformatica</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A68:A114" si="15">ROW()-1</f>
         <v>67</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D68" s="1" t="str">
         <f>VLOOKUP(B68,Applications!A:N,3,0)</f>
-        <v>Sharepoint</v>
+        <v>SAP ISU</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>VLOOKUP(C68,Servers!A:P,16,0)</f>
-        <v>https://teamatwork-sharepoint.rwe.com</v>
+        <v>SUESZ083</v>
       </c>
       <c r="F68" s="1">
+        <v>10</v>
+      </c>
+      <c r="G68" s="1">
         <v>14</v>
-      </c>
-      <c r="G68" s="1">
-        <v>19</v>
       </c>
       <c r="H68" s="1" t="str">
         <f>VLOOKUP(F68,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>Informatica</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>VLOOKUP(G68,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="P68" s="1" t="str">
+        <f t="shared" ref="P68" si="16">D68&amp;H68</f>
+        <v>SAP ISUInformatica</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1">
+        <v>21</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f>VLOOKUP(B69,Applications!A:N,3,0)</f>
+        <v>SAS</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>VLOOKUP(C69,Servers!A:P,16,0)</f>
+        <v>SWES-NLAMS1-082</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>7</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f>VLOOKUP(F69,Applications!A:N,3,0)</f>
+        <v>RMS</v>
+      </c>
+      <c r="I69" s="1" t="str">
+        <f>VLOOKUP(G69,Servers!A:P,16,0)</f>
+        <v>ES1WI1423</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="P69" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>SASRMS</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <f t="shared" si="15"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>33</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f>VLOOKUP(B70,Applications!A:N,3,0)</f>
+        <v>Sharepoint</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>VLOOKUP(C70,Servers!A:P,16,0)</f>
+        <v>https://teamatwork-sharepoint.rwe.com</v>
+      </c>
+      <c r="F70" s="1">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f>VLOOKUP(F70,Applications!A:N,3,0)</f>
+        <v>PIF</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f>VLOOKUP(G70,Servers!A:P,16,0)</f>
+        <v>ES1WI1470</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L70" s="1">
         <v>1500</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="P68" s="1" t="str">
+      <c r="P70" s="1" t="str">
         <f t="shared" si="14"/>
         <v>SharepointPIF</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
-      <c r="A69" s="1">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="1">
-        <v>19</v>
-      </c>
-      <c r="C69" s="1">
-        <v>28</v>
-      </c>
-      <c r="D69" s="1" t="str">
-        <f>VLOOKUP(B69,Applications!A:N,3,0)</f>
-        <v>Thinconnect</v>
-      </c>
-      <c r="E69" s="1" t="str">
-        <f>VLOOKUP(C69,Servers!A:P,16,0)</f>
-        <v>SWES-NLAMS1-067</v>
-      </c>
-      <c r="F69" s="1">
-        <v>14</v>
-      </c>
-      <c r="G69" s="1">
-        <v>19</v>
-      </c>
-      <c r="H69" s="1" t="str">
-        <f>VLOOKUP(F69,Applications!A:N,3,0)</f>
-        <v>PIF</v>
-      </c>
-      <c r="I69" s="1" t="str">
-        <f>VLOOKUP(G69,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L69" s="1">
-        <v>800</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="P69" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>ThinconnectPIF</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="1">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="1">
-        <v>19</v>
-      </c>
-      <c r="C70" s="1">
-        <v>28</v>
-      </c>
-      <c r="D70" s="1" t="str">
-        <f>VLOOKUP(B70,Applications!A:N,3,0)</f>
-        <v>Thinconnect</v>
-      </c>
-      <c r="E70" s="1" t="str">
-        <f>VLOOKUP(C70,Servers!A:P,16,0)</f>
-        <v>SWES-NLAMS1-067</v>
-      </c>
-      <c r="F70" s="1">
-        <v>3</v>
-      </c>
-      <c r="G70" s="1">
-        <v>9</v>
-      </c>
-      <c r="H70" s="1" t="str">
-        <f>VLOOKUP(F70,Applications!A:N,3,0)</f>
-        <v>XM2</v>
-      </c>
-      <c r="I70" s="1" t="str">
-        <f>VLOOKUP(G70,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="P70" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>ThinconnectXM2</v>
-      </c>
-    </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="B71" s="1">
@@ -18858,18 +18885,18 @@
         <v>SWES-NLAMS1-067</v>
       </c>
       <c r="F71" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G71" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H71" s="1" t="str">
         <f>VLOOKUP(F71,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
+        <v>PIF</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>VLOOKUP(G71,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>10</v>
@@ -18877,20 +18904,23 @@
       <c r="K71" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="L71" s="1">
+        <v>800</v>
+      </c>
       <c r="M71" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>1271</v>
+        <v>1339</v>
       </c>
       <c r="P71" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>ThinconnectBPS DWH</v>
+        <v>ThinconnectPIF</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>71</v>
       </c>
       <c r="B72" s="1">
@@ -18908,145 +18938,136 @@
         <v>SWES-NLAMS1-067</v>
       </c>
       <c r="F72" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G72" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H72" s="1" t="str">
         <f>VLOOKUP(F72,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
+        <v>XM2</v>
       </c>
       <c r="I72" s="1" t="str">
         <f>VLOOKUP(G72,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v>SUESZ102</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>1244</v>
+        <v>29</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>1271</v>
+        <v>1314</v>
       </c>
       <c r="P72" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>ThinconnectBPS DWH</v>
+        <v>ThinconnectXM2</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C73" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1" t="str">
         <f>VLOOKUP(B73,Applications!A:N,3,0)</f>
-        <v>Totalview</v>
+        <v>Thinconnect</v>
       </c>
       <c r="E73" s="1" t="str">
         <f>VLOOKUP(C73,Servers!A:P,16,0)</f>
-        <v>ES1VM0325</v>
+        <v>SWES-NLAMS1-067</v>
       </c>
       <c r="F73" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G73" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H73" s="1" t="str">
         <f>VLOOKUP(F73,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>VLOOKUP(G73,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L73" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1337</v>
+        <v>1271</v>
       </c>
       <c r="P73" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>TotalviewPIF</v>
+        <v>ThinconnectBPS DWH</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>73</v>
       </c>
       <c r="B74" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1" t="str">
         <f>VLOOKUP(B74,Applications!A:N,3,0)</f>
-        <v>Totalview</v>
+        <v>Thinconnect</v>
       </c>
       <c r="E74" s="1" t="str">
         <f>VLOOKUP(C74,Servers!A:P,16,0)</f>
-        <v>ES1VM0325</v>
+        <v>SWES-NLAMS1-067</v>
       </c>
       <c r="F74" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G74" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1" t="str">
         <f>VLOOKUP(F74,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I74" s="1" t="str">
         <f>VLOOKUP(G74,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" s="1">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>1338</v>
+        <v>1271</v>
       </c>
       <c r="P74" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>TotalviewPIF</v>
+        <v>ThinconnectBPS DWH</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -19064,39 +19085,42 @@
         <v>ES1VM0325</v>
       </c>
       <c r="F75" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G75" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H75" s="1" t="str">
         <f>VLOOKUP(F75,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
+        <v>PIF</v>
       </c>
       <c r="I75" s="1" t="str">
         <f>VLOOKUP(G75,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="L75" s="1">
+        <v>100</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>1272</v>
+        <v>1337</v>
       </c>
       <c r="P75" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>TotalviewBPS DWH</v>
+        <v>TotalviewPIF</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="B76" s="1">
@@ -19114,39 +19138,42 @@
         <v>ES1VM0325</v>
       </c>
       <c r="F76" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G76" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H76" s="1" t="str">
         <f>VLOOKUP(F76,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
+        <v>PIF</v>
       </c>
       <c r="I76" s="1" t="str">
         <f>VLOOKUP(G76,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="L76" s="1">
+        <v>100</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>1272</v>
+        <v>1338</v>
       </c>
       <c r="P76" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>TotalviewBPS DWH</v>
+        <v>TotalviewPIF</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -19164,18 +19191,18 @@
         <v>ES1VM0325</v>
       </c>
       <c r="F77" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H77" s="1" t="str">
         <f>VLOOKUP(F77,Applications!A:N,3,0)</f>
-        <v>Informatica</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I77" s="1" t="str">
         <f>VLOOKUP(G77,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>10</v>
@@ -19183,23 +19210,20 @@
       <c r="K77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L77" s="1">
-        <v>10</v>
-      </c>
       <c r="M77" s="1" t="s">
-        <v>1290</v>
+        <v>1237</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="P77" s="1" t="str">
-        <f t="shared" ref="P77" si="15">D77&amp;H77</f>
-        <v>TotalviewInformatica</v>
+        <f t="shared" si="14"/>
+        <v>TotalviewBPS DWH</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
       <c r="B78" s="1">
@@ -19217,51 +19241,54 @@
         <v>ES1VM0325</v>
       </c>
       <c r="F78" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G78" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H78" s="1" t="str">
         <f>VLOOKUP(F78,Applications!A:N,3,0)</f>
-        <v>Totalview</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>VLOOKUP(G78,Servers!A:P,16,0)</f>
-        <v>ES1VM0324</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>1244</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>1342</v>
+        <v>1272</v>
       </c>
       <c r="P78" s="1" t="str">
-        <f t="shared" ref="P78" si="16">D78&amp;H78</f>
-        <v>TotalviewTotalview</v>
+        <f t="shared" si="14"/>
+        <v>TotalviewBPS DWH</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>78</v>
       </c>
       <c r="B79" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C79" s="1">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D79" s="1" t="str">
         <f>VLOOKUP(B79,Applications!A:N,3,0)</f>
-        <v>TPM</v>
+        <v>Totalview</v>
       </c>
       <c r="E79" s="1" t="str">
         <f>VLOOKUP(C79,Servers!A:P,16,0)</f>
-        <v>SUESZ158</v>
+        <v>ES1VM0325</v>
       </c>
       <c r="F79" s="1">
         <v>10</v>
@@ -19284,375 +19311,375 @@
         <v>29</v>
       </c>
       <c r="L79" s="1">
+        <v>10</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="P79" s="1" t="str">
+        <f t="shared" ref="P79" si="17">D79&amp;H79</f>
+        <v>TotalviewInformatica</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <f t="shared" si="15"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1">
+        <v>17</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f>VLOOKUP(B80,Applications!A:N,3,0)</f>
+        <v>Totalview</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>VLOOKUP(C80,Servers!A:P,16,0)</f>
+        <v>ES1VM0325</v>
+      </c>
+      <c r="F80" s="1">
+        <v>10</v>
+      </c>
+      <c r="G80" s="1">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f>VLOOKUP(F80,Applications!A:N,3,0)</f>
+        <v>Informatica</v>
+      </c>
+      <c r="I80" s="1" t="str">
+        <f>VLOOKUP(G80,Servers!A:P,16,0)</f>
+        <v>SUES-NLAMS1-020</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L80" s="1">
+        <v>10</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="P80" s="1" t="str">
+        <f t="shared" ref="P80" si="18">D80&amp;H80</f>
+        <v>TotalviewInformatica</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1">
+        <v>17</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f>VLOOKUP(B81,Applications!A:N,3,0)</f>
+        <v>Totalview</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>VLOOKUP(C81,Servers!A:P,16,0)</f>
+        <v>ES1VM0325</v>
+      </c>
+      <c r="F81" s="1">
+        <v>13</v>
+      </c>
+      <c r="G81" s="1">
+        <v>16</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f>VLOOKUP(F81,Applications!A:N,3,0)</f>
+        <v>Totalview</v>
+      </c>
+      <c r="I81" s="1" t="str">
+        <f>VLOOKUP(G81,Servers!A:P,16,0)</f>
+        <v>ES1VM0324</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P81" s="1" t="str">
+        <f t="shared" ref="P81" si="19">D81&amp;H81</f>
+        <v>TotalviewTotalview</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1">
+        <f t="shared" si="15"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>23</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f>VLOOKUP(B82,Applications!A:N,3,0)</f>
+        <v>TPM</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>VLOOKUP(C82,Servers!A:P,16,0)</f>
+        <v>SUESZ158</v>
+      </c>
+      <c r="F82" s="1">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1">
+        <v>14</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f>VLOOKUP(F82,Applications!A:N,3,0)</f>
+        <v>Informatica</v>
+      </c>
+      <c r="I82" s="1" t="str">
+        <f>VLOOKUP(G82,Servers!A:P,16,0)</f>
+        <v>SUES-NLAMS1-020</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L82" s="1">
         <v>100</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>1299</v>
       </c>
-      <c r="P79" s="1" t="str">
+      <c r="P82" s="1" t="str">
         <f t="shared" si="14"/>
         <v>TPMInformatica</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
-      <c r="A80" s="1">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B80" s="1">
+    <row r="83" spans="1:16">
+      <c r="A83" s="1">
+        <f t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
         <v>11</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C83" s="1">
         <v>15</v>
       </c>
-      <c r="D80" s="1" t="str">
-        <f>VLOOKUP(B80,Applications!A:N,3,0)</f>
+      <c r="D83" s="1" t="str">
+        <f>VLOOKUP(B83,Applications!A:N,3,0)</f>
         <v>Vaultage</v>
       </c>
-      <c r="E80" s="1" t="str">
-        <f>VLOOKUP(C80,Servers!A:P,16,0)</f>
+      <c r="E83" s="1" t="str">
+        <f>VLOOKUP(C83,Servers!A:P,16,0)</f>
         <v>SUES-NLAMS-011</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F83" s="1">
         <v>6</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G83" s="1">
         <v>12</v>
       </c>
-      <c r="H80" s="1" t="str">
-        <f>VLOOKUP(F80,Applications!A:N,3,0)</f>
+      <c r="H83" s="1" t="str">
+        <f>VLOOKUP(F83,Applications!A:N,3,0)</f>
         <v>Qlikview</v>
       </c>
-      <c r="I80" s="1" t="str">
-        <f>VLOOKUP(G80,Servers!A:P,16,0)</f>
+      <c r="I83" s="1" t="str">
+        <f>VLOOKUP(G83,Servers!A:P,16,0)</f>
         <v>ES1WI1462</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="P80" s="1" t="str">
+      <c r="P83" s="1" t="str">
         <f t="shared" si="14"/>
         <v>VaultageQlikview</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="1">
+    <row r="84" spans="1:16">
+      <c r="A84" s="1">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
         <v>11</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C84" s="1">
         <v>15</v>
       </c>
-      <c r="D81" s="1" t="str">
-        <f>VLOOKUP(B81,Applications!A:N,3,0)</f>
+      <c r="D84" s="1" t="str">
+        <f>VLOOKUP(B84,Applications!A:N,3,0)</f>
         <v>Vaultage</v>
       </c>
-      <c r="E81" s="1" t="str">
-        <f>VLOOKUP(C81,Servers!A:P,16,0)</f>
+      <c r="E84" s="1" t="str">
+        <f>VLOOKUP(C84,Servers!A:P,16,0)</f>
         <v>SUES-NLAMS-011</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F84" s="1">
         <v>10</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G84" s="1">
         <v>14</v>
       </c>
-      <c r="H81" s="1" t="str">
-        <f>VLOOKUP(F81,Applications!A:N,3,0)</f>
+      <c r="H84" s="1" t="str">
+        <f>VLOOKUP(F84,Applications!A:N,3,0)</f>
         <v>Informatica</v>
       </c>
-      <c r="I81" s="1" t="str">
-        <f>VLOOKUP(G81,Servers!A:P,16,0)</f>
+      <c r="I84" s="1" t="str">
+        <f>VLOOKUP(G84,Servers!A:P,16,0)</f>
         <v>SUES-NLAMS1-020</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="P81" s="1" t="str">
-        <f t="shared" ref="P81" si="17">D81&amp;H81</f>
+      <c r="P84" s="1" t="str">
+        <f t="shared" ref="P84" si="20">D84&amp;H84</f>
         <v>VaultageInformatica</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" s="1">
+    <row r="85" spans="1:16">
+      <c r="A85" s="1">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
         <v>11</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C85" s="1">
         <v>15</v>
       </c>
-      <c r="D82" s="1" t="str">
-        <f>VLOOKUP(B82,Applications!A:N,3,0)</f>
+      <c r="D85" s="1" t="str">
+        <f>VLOOKUP(B85,Applications!A:N,3,0)</f>
         <v>Vaultage</v>
       </c>
-      <c r="E82" s="1" t="str">
-        <f>VLOOKUP(C82,Servers!A:P,16,0)</f>
+      <c r="E85" s="1" t="str">
+        <f>VLOOKUP(C85,Servers!A:P,16,0)</f>
         <v>SUES-NLAMS-011</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F85" s="1">
         <v>20</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G85" s="1">
         <v>22</v>
       </c>
-      <c r="H82" s="1" t="str">
-        <f>VLOOKUP(F82,Applications!A:N,3,0)</f>
+      <c r="H85" s="1" t="str">
+        <f>VLOOKUP(F85,Applications!A:N,3,0)</f>
         <v>BPS DWH</v>
       </c>
-      <c r="I82" s="1" t="str">
-        <f>VLOOKUP(G82,Servers!A:P,16,0)</f>
+      <c r="I85" s="1" t="str">
+        <f>VLOOKUP(G85,Servers!A:P,16,0)</f>
         <v>SWES-NLAPE1-060</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="N85" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="P82" s="1" t="str">
+      <c r="P85" s="1" t="str">
         <f t="shared" si="14"/>
         <v>VaultageBPS DWH</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="1">
+    <row r="86" spans="1:16">
+      <c r="A86" s="1">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
         <v>25</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C86" s="1">
         <v>23</v>
       </c>
-      <c r="D83" s="1" t="str">
-        <f>VLOOKUP(B83,Applications!A:N,3,0)</f>
+      <c r="D86" s="1" t="str">
+        <f>VLOOKUP(B86,Applications!A:N,3,0)</f>
         <v>Wasstraat</v>
       </c>
-      <c r="E83" s="1" t="str">
-        <f>VLOOKUP(C83,Servers!A:P,16,0)</f>
+      <c r="E86" s="1" t="str">
+        <f>VLOOKUP(C86,Servers!A:P,16,0)</f>
         <v>W2K-DWH01P</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F86" s="1">
         <v>2</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G86" s="1">
         <v>7</v>
       </c>
-      <c r="H83" s="1" t="str">
-        <f>VLOOKUP(F83,Applications!A:N,3,0)</f>
+      <c r="H86" s="1" t="str">
+        <f>VLOOKUP(F86,Applications!A:N,3,0)</f>
         <v>RMS</v>
       </c>
-      <c r="I83" s="1" t="str">
-        <f>VLOOKUP(G83,Servers!A:P,16,0)</f>
+      <c r="I86" s="1" t="str">
+        <f>VLOOKUP(G86,Servers!A:P,16,0)</f>
         <v>ES1WI1423</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>1326</v>
       </c>
-      <c r="P83" s="1" t="str">
+      <c r="P86" s="1" t="str">
         <f t="shared" si="14"/>
         <v>WasstraatRMS</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="1">
-        <v>3</v>
-      </c>
-      <c r="C84" s="1">
-        <v>9</v>
-      </c>
-      <c r="D84" s="1" t="str">
-        <f>VLOOKUP(B84,Applications!A:N,3,0)</f>
-        <v>XM2</v>
-      </c>
-      <c r="E84" s="1" t="str">
-        <f>VLOOKUP(C84,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
-      </c>
-      <c r="F84" s="1">
-        <v>2</v>
-      </c>
-      <c r="G84" s="1">
-        <v>7</v>
-      </c>
-      <c r="H84" s="1" t="str">
-        <f>VLOOKUP(F84,Applications!A:N,3,0)</f>
-        <v>RMS</v>
-      </c>
-      <c r="I84" s="1" t="str">
-        <f>VLOOKUP(G84,Servers!A:P,16,0)</f>
-        <v>ES1WI1423</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P84" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>XM2RMS</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="1">
-        <v>3</v>
-      </c>
-      <c r="C85" s="1">
-        <v>9</v>
-      </c>
-      <c r="D85" s="1" t="str">
-        <f>VLOOKUP(B85,Applications!A:N,3,0)</f>
-        <v>XM2</v>
-      </c>
-      <c r="E85" s="1" t="str">
-        <f>VLOOKUP(C85,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
-      </c>
-      <c r="F85" s="1">
-        <v>4</v>
-      </c>
-      <c r="G85" s="1">
-        <v>11</v>
-      </c>
-      <c r="H85" s="1" t="str">
-        <f>VLOOKUP(F85,Applications!A:N,3,0)</f>
-        <v>Digip</v>
-      </c>
-      <c r="I85" s="1" t="str">
-        <f>VLOOKUP(G85,Servers!A:P,16,0)</f>
-        <v>SWES-NLAMS1-080</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L85" s="1">
-        <v>2000</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="P85" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>XM2Digip</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B86" s="1">
-        <v>3</v>
-      </c>
-      <c r="C86" s="1">
-        <v>9</v>
-      </c>
-      <c r="D86" s="1" t="str">
-        <f>VLOOKUP(B86,Applications!A:N,3,0)</f>
-        <v>XM2</v>
-      </c>
-      <c r="E86" s="1" t="str">
-        <f>VLOOKUP(C86,Servers!A:P,16,0)</f>
-        <v>SUESZ102</v>
-      </c>
-      <c r="F86" s="1">
-        <v>6</v>
-      </c>
-      <c r="G86" s="1">
-        <v>12</v>
-      </c>
-      <c r="H86" s="1" t="str">
-        <f>VLOOKUP(F86,Applications!A:N,3,0)</f>
-        <v>Qlikview</v>
-      </c>
-      <c r="I86" s="1" t="str">
-        <f>VLOOKUP(G86,Servers!A:P,16,0)</f>
-        <v>ES1WI1462</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>1240</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="P86" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>XM2Qlikview</v>
-      </c>
-    </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="B87" s="1">
@@ -19670,42 +19697,39 @@
         <v>SUESZ102</v>
       </c>
       <c r="F87" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G87" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H87" s="1" t="str">
         <f>VLOOKUP(F87,Applications!A:N,3,0)</f>
-        <v>PIF</v>
+        <v>RMS</v>
       </c>
       <c r="I87" s="1" t="str">
         <f>VLOOKUP(G87,Servers!A:P,16,0)</f>
-        <v>ES1WI1470</v>
+        <v>ES1WI1423</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L87" s="1">
-        <v>2500</v>
+        <v>38</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="P87" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>XM2PIF</v>
+        <v>XM2RMS</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1">
-        <f t="shared" ref="A88:A111" si="18">ROW()-1</f>
+        <f t="shared" si="15"/>
         <v>87</v>
       </c>
       <c r="B88" s="1">
@@ -19723,18 +19747,18 @@
         <v>SUESZ102</v>
       </c>
       <c r="F88" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G88" s="1">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H88" s="1" t="str">
         <f>VLOOKUP(F88,Applications!A:N,3,0)</f>
-        <v>ACL</v>
-      </c>
-      <c r="I88" s="1">
+        <v>Digip</v>
+      </c>
+      <c r="I88" s="1" t="str">
         <f>VLOOKUP(G88,Servers!A:P,16,0)</f>
-        <v>0</v>
+        <v>SWES-NLAMS1-080</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>10</v>
@@ -19742,20 +19766,23 @@
       <c r="K88" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="L88" s="1">
+        <v>2000</v>
+      </c>
       <c r="M88" s="1" t="s">
         <v>1263</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="P88" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>XM2ACL</v>
+        <v>XM2Digip</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>88</v>
       </c>
       <c r="B89" s="1">
@@ -19773,39 +19800,39 @@
         <v>SUESZ102</v>
       </c>
       <c r="F89" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G89" s="1">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H89" s="1" t="str">
         <f>VLOOKUP(F89,Applications!A:N,3,0)</f>
-        <v>iProcess</v>
-      </c>
-      <c r="I89" s="1">
+        <v>Qlikview</v>
+      </c>
+      <c r="I89" s="1" t="str">
         <f>VLOOKUP(G89,Servers!A:P,16,0)</f>
-        <v>0</v>
+        <v>ES1WI1462</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>1263</v>
+        <v>1240</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="P89" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>XM2iProcess</v>
+        <v>XM2Qlikview</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>89</v>
       </c>
       <c r="B90" s="1">
@@ -19823,89 +19850,92 @@
         <v>SUESZ102</v>
       </c>
       <c r="F90" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G90" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H90" s="1" t="str">
         <f>VLOOKUP(F90,Applications!A:N,3,0)</f>
-        <v>Informatica</v>
+        <v>PIF</v>
       </c>
       <c r="I90" s="1" t="str">
         <f>VLOOKUP(G90,Servers!A:P,16,0)</f>
-        <v>SUES-NLAMS1-020</v>
+        <v>ES1WI1470</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="L90" s="1">
+        <v>2500</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>1293</v>
+        <v>1310</v>
       </c>
       <c r="P90" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>XM2Informatica</v>
+        <v>XM2PIF</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="B91" s="1">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C91" s="1">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D91" s="1" t="str">
         <f>VLOOKUP(B91,Applications!A:N,3,0)</f>
-        <v>TEP</v>
+        <v>XM2</v>
       </c>
       <c r="E91" s="1" t="str">
         <f>VLOOKUP(C91,Servers!A:P,16,0)</f>
-        <v>31.222.183.64 (rackspace cloud)</v>
+        <v>SUESZ102</v>
       </c>
       <c r="F91" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="H91" s="1" t="str">
         <f>VLOOKUP(F91,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
-      </c>
-      <c r="I91" s="1" t="str">
+        <v>ACL</v>
+      </c>
+      <c r="I91" s="1">
         <f>VLOOKUP(G91,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>1280</v>
+        <v>1311</v>
       </c>
       <c r="P91" s="1" t="str">
-        <f t="shared" ref="P91" si="19">D91&amp;H91</f>
-        <v>TEPBPS DWH</v>
+        <f t="shared" si="14"/>
+        <v>XM2ACL</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>91</v>
       </c>
       <c r="B92" s="1">
@@ -19923,39 +19953,39 @@
         <v>SUESZ102</v>
       </c>
       <c r="F92" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G92" s="1">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H92" s="1" t="str">
         <f>VLOOKUP(F92,Applications!A:N,3,0)</f>
-        <v>BPS DWH</v>
-      </c>
-      <c r="I92" s="1" t="str">
+        <v>iProcess</v>
+      </c>
+      <c r="I92" s="1">
         <f>VLOOKUP(G92,Servers!A:P,16,0)</f>
-        <v>SWES-NLAPE1-060</v>
+        <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>1274</v>
+        <v>1312</v>
       </c>
       <c r="P92" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>XM2BPS DWH</v>
+        <v>XM2iProcess</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -19973,266 +20003,416 @@
         <v>SUESZ102</v>
       </c>
       <c r="F93" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G93" s="1">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H93" s="1" t="str">
         <f>VLOOKUP(F93,Applications!A:N,3,0)</f>
-        <v>mail.essent.nl</v>
+        <v>Informatica</v>
       </c>
       <c r="I93" s="1" t="str">
         <f>VLOOKUP(G93,Servers!A:P,16,0)</f>
-        <v>mail.essent.nl</v>
+        <v>SUES-NLAMS1-020</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1259</v>
+        <v>38</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>1305</v>
+        <v>1240</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>1306</v>
+        <v>1293</v>
       </c>
       <c r="P93" s="1" t="str">
-        <f t="shared" ref="P93" si="20">D93&amp;H93</f>
-        <v>XM2mail.essent.nl</v>
+        <f t="shared" si="14"/>
+        <v>XM2Informatica</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>93</v>
       </c>
       <c r="B94" s="1">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C94" s="1">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D94" s="1" t="str">
         <f>VLOOKUP(B94,Applications!A:N,3,0)</f>
-        <v>Qlikview</v>
+        <v>TEP</v>
       </c>
       <c r="E94" s="1" t="str">
         <f>VLOOKUP(C94,Servers!A:P,16,0)</f>
-        <v>ES1WI1463</v>
+        <v>31.222.183.64 (rackspace cloud)</v>
       </c>
       <c r="F94" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G94" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H94" s="1" t="str">
         <f>VLOOKUP(F94,Applications!A:N,3,0)</f>
-        <v>Qlikview</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I94" s="1" t="str">
         <f>VLOOKUP(G94,Servers!A:P,16,0)</f>
-        <v>ES1WI1462</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>1259</v>
+        <v>29</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>1305</v>
+        <v>1258</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>1306</v>
+        <v>1280</v>
       </c>
       <c r="P94" s="1" t="str">
         <f t="shared" ref="P94" si="21">D94&amp;H94</f>
-        <v>QlikviewQlikview</v>
+        <v>TEPBPS DWH</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>94</v>
       </c>
       <c r="B95" s="1">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C95" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1" t="str">
         <f>VLOOKUP(B95,Applications!A:N,3,0)</f>
-        <v>AIA ITP B2B</v>
+        <v>XM2</v>
       </c>
       <c r="E95" s="1" t="str">
         <f>VLOOKUP(C95,Servers!A:P,16,0)</f>
-        <v>SWESR069</v>
+        <v>SUESZ102</v>
       </c>
       <c r="F95" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G95" s="1">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>VLOOKUP(F95,Applications!A:N,3,0)</f>
-        <v>Tibco BW B2B</v>
+        <v>BPS DWH</v>
       </c>
       <c r="I95" s="1" t="str">
         <f>VLOOKUP(G95,Servers!A:P,16,0)</f>
-        <v>SUESZ010*</v>
+        <v>SWES-NLAPE1-060</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>1262</v>
+        <v>1239</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>1549</v>
+        <v>1274</v>
+      </c>
+      <c r="P95" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>XM2BPS DWH</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>95</v>
       </c>
       <c r="B96" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C96" s="1">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D96" s="1" t="str">
         <f>VLOOKUP(B96,Applications!A:N,3,0)</f>
-        <v>Tibco BW B2B</v>
+        <v>XM2</v>
       </c>
       <c r="E96" s="1" t="str">
         <f>VLOOKUP(C96,Servers!A:P,16,0)</f>
-        <v>SUESZ010*</v>
+        <v>SUESZ102</v>
       </c>
       <c r="F96" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G96" s="1">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H96" s="1" t="str">
         <f>VLOOKUP(F96,Applications!A:N,3,0)</f>
-        <v>AIA ITP B2B</v>
+        <v>mail.essent.nl</v>
       </c>
       <c r="I96" s="1" t="str">
         <f>VLOOKUP(G96,Servers!A:P,16,0)</f>
-        <v>SWESR069</v>
+        <v>mail.essent.nl</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K96" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="P96" s="1" t="str">
+        <f t="shared" ref="P96" si="22">D96&amp;H96</f>
+        <v>XM2mail.essent.nl</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <f t="shared" si="15"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1">
+        <v>13</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f>VLOOKUP(B97,Applications!A:N,3,0)</f>
+        <v>Qlikview</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>VLOOKUP(C97,Servers!A:P,16,0)</f>
+        <v>ES1WI1463</v>
+      </c>
+      <c r="F97" s="1">
+        <v>6</v>
+      </c>
+      <c r="G97" s="1">
+        <v>12</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f>VLOOKUP(F97,Applications!A:N,3,0)</f>
+        <v>Qlikview</v>
+      </c>
+      <c r="I97" s="1" t="str">
+        <f>VLOOKUP(G97,Servers!A:P,16,0)</f>
+        <v>ES1WI1462</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="P97" s="1" t="str">
+        <f t="shared" ref="P97" si="23">D97&amp;H97</f>
+        <v>QlikviewQlikview</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <f t="shared" si="15"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>29</v>
+      </c>
+      <c r="C98" s="1">
+        <v>26</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f>VLOOKUP(B98,Applications!A:N,3,0)</f>
+        <v>AIA ITP B2B</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>VLOOKUP(C98,Servers!A:P,16,0)</f>
+        <v>SWESR069</v>
+      </c>
+      <c r="F98" s="1">
+        <v>36</v>
+      </c>
+      <c r="G98" s="1">
+        <v>54</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f>VLOOKUP(F98,Applications!A:N,3,0)</f>
+        <v>Tibco BW B2B</v>
+      </c>
+      <c r="I98" s="1" t="str">
+        <f>VLOOKUP(G98,Servers!A:P,16,0)</f>
+        <v>SUESZ010*</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="N98" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <f t="shared" si="15"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>36</v>
+      </c>
+      <c r="C99" s="1">
+        <v>54</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f>VLOOKUP(B99,Applications!A:N,3,0)</f>
+        <v>Tibco BW B2B</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>VLOOKUP(C99,Servers!A:P,16,0)</f>
+        <v>SUESZ010*</v>
+      </c>
+      <c r="F99" s="1">
+        <v>29</v>
+      </c>
+      <c r="G99" s="1">
+        <v>26</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f>VLOOKUP(F99,Applications!A:N,3,0)</f>
+        <v>AIA ITP B2B</v>
+      </c>
+      <c r="I99" s="1" t="str">
+        <f>VLOOKUP(G99,Servers!A:P,16,0)</f>
+        <v>SWESR069</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N99" s="1" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1">
-        <f t="shared" si="18"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1">
-        <f t="shared" si="18"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1">
-        <f t="shared" si="18"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:16">
       <c r="A100" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:16">
       <c r="A101" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:16">
       <c r="A102" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:16">
       <c r="A103" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:16">
       <c r="A104" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:16">
       <c r="A105" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:16">
       <c r="A106" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:16">
       <c r="A107" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:16">
       <c r="A108" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:16">
       <c r="A109" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:16">
       <c r="A110" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:16">
       <c r="A111" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1">
+        <f t="shared" si="15"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1">
+        <f t="shared" si="15"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1">
+        <f t="shared" si="15"/>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -56323,7 +56503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
